--- a/data/jobs.xlsx
+++ b/data/jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,12 +498,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as Lead Devops Engineer (m/f/d) at BWI GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German-Flieã End, English-Conversation-proof as the IT system house of the Bundeswehr and IT service provider of the federal government, we offer comprehensive IT services from a single source. With over 7,000 employees, we contest the ten major IT service providers in Germany. We are looking for authentic IT lovers who want to share their passion with us, are looking for demanding IT challenges and should design Germany IT. We cover the entire spectrum of modern data-driven systems from the testing of the latest scientific knowledge from the research fields of KI and Data Science, to the implementation of crisis-related enterprise enterings for several thousand users. Our focus is on the subjects of Data Science, Ki &amp; Machine Learning, their architectures and the associated full stack software development. 
+Further development and operation of our software development platform, as well as integration into the system landscape of BWI and our customers
+Evaluation, procurement and provision of additional developer tools for integration into the CI/CD Pipelines
+Protection of the development platform according to IT basic protection and other requirements, creation of information security concepts
+Support and support of the project teams in the Agile DevOps model (Secure Software Supply Chain)
+New and further development of automation and maintenance scripts
+Impulses to optimize the way they work in the team and with all stakeholders
+Cooperation in cross-functional teams from the Bundeswehr, BWI and civilian companies
+ Requirements 
+Completed computer science studies or comparable training in the IT environment is absolutely necessary
+At least six years of ferey professional experience after studying
+Very good knowledge of deployment automation with Ansible and the administration of Linux server systems
+Very good knowledge of container and orchestration technologies (e.g. Docker, Podman, Kubernetes)
+Routine in dealing with the tools used in the CI/CD toolchain, such as Gitlab, Gitlab-Ci, Sonarqube, Nexus, Harbor
+Knowledge of at least a scripting language (e.g. Python, Ruby) and a command line interpreter (e.g. Bash, PowerShell) and implementation of automation workflows
+Good knowledge of the protection and maintenance of server systems according to IT basic protection
+Good knowledge of the Identity &amp; Access Management area Ideally using Keycloak ok.
+Knowledge of software development is an advantage
+ Application process 
+First call ð
+Video interview ð »
+Meet the team ð ¢
+ BWI GmbH is a primary digitization partner of the Bundeswehr. It is one of the major IT service companies in Germany. In peace, crisis and war, she provides stable, safe and efficient IT services in Germany and abroad for the Bundeswehr. In this way, she has continuously gained the fulfillment and commitment and combat strength of the dispute meter. It is competent. It also develops new IT solutions for the Bundeswehr â â â â â innovative by Designâ. And it is the central force in the establishment and expansion of a resilient partner-eosystems. As an attractive employer, it gains and binds the BWI highly qualified gaps, which the Bundeswehr-IT will advance. For example, almost 7,000 employees nationwide are now the â Team of Teamsâ behind the BWI vision: to ensure the Bundeswehr-IT and thus the digital future of Germany.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:39</t>
+          <t>2025-06-15 22:26:09</t>
         </is>
       </c>
     </row>
@@ -525,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,12 +557,38 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as a system architect: in (m/f/d) at Mach AG?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - native language level Our ARQ board is looking for you for the focus on security management and architecture! ARQ stands for architecture and quality and is responsible for an ability to assure the quality and software and system architecture. To expect you
+Lots of design, autonomy and the possibility to generate real added value
+A team that welcomes you with a lot of professionalism and trusting cooperation
+Regular learning work for your professional and personal training
+An activity that can be reconciled with your private life â We live flexible working time models and hybrid cooperation including remote work within Germany. The activity can be done at 30 to 40 hours a week.
+Benefits with real added value e.g. personalities coaching, multi-membership in over 8,000 fitness studios, working &amp; additional vacation for trips or private projects
+ Activity 
+You take the requirements of internal and external contacts: Inside on the subject of security and operation and develop implementation projects and company guidelines from this
+You subordinate the producowners (m/f/d) at the conception of security -critical projects that result from these requirements and accompany their implementation
+You create binding guidelines for the area of ​​development and so that we ensure that we provide our customers software that invent the current and future security standards
+You support our development area competently and constructively in the interpretation and implementation of these guidelines
+If necessary, you are our colleague: Inside from advice and sales as an expert: in part directly in the projects - to the side
+You work closely with the other specialists: inside the Arq board, will be supported by them and vote with them
+ Requirements 
+You have multi -day professional experience in software development, software operation and/or as DevOps Engineer (m/f/d)
+You know your way around with the conception and operation of secure data center architectures including cloud operation and have sound knowledge of current security standards
+Ideally, you have knowledge of process analysis and documentation and bring project management skills with you
+You are sovereigns in dealing with the following technologies/tools and frameworks:
+OWASP, BSI IT basic protection
+IAM: RBAC, SOD, SSO/SLO, OIDC, Saml2, LDAP; Preferably also key cloak
+Security architectures in data centers and cloud environments
+Operating environments: Linux/Native, container (Docker, Podman, Kubernetes)
+Ideally knowledge of the programming language Java including the Ü kosystems and gyraw tools for component management
+You have very good knowledge of German (at least at C1 level)
+You bring curiosity for complex, technical questions, you can find different addresses: inspire inside for your points of view and act prudently in the area of ​​tension between economic interests and strategic developments
+You are also happy to stand directly with our customers and internal contacts: in the interior and are basically open to internal and external suburban appointments (ã 2-3 days per quarter)
+ Team you fit into our team when enjoying the strategic development of our products and development processes and loves to act with a technical foresight and an economic understanding. We also match when you want to work with a high degree of autonomy and personal responsibility and you see your passion in the testability and safety of our software. Application process We live a transparent application process on the eye. It is important to us that we can get to you and you to ourselves and above all authentically. Together we find out whether it is technically and humanly matted according to your GO that you would like to get into a joint application process with us, we coordinate directly with our department for your profile. If we get greater light here, we invite you to get to know the first (remote). If both sides want to continue in the process afterwards, a second remote conversation follows, duration about 2 hours, including processing of a task, which we have in advance for you</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:42</t>
+          <t>2025-06-15 22:26:13</t>
         </is>
       </c>
     </row>
@@ -572,12 +620,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Please Apply here on "ITBAWUE.de" with the "Apply Now" Link/Button at the Top Right.
+                  Note: Please Apply Exclusively via our Direct Application Link Hosted by Recommendersbund and ITBAWU.de:
+                    https://www.xn--itbaw-ova.de/jobs/275324/l2-slash-l3-support-engineer-gn-zure-dabase-im-home-office
+                  . We are looking forward to meet you!
+                  Job function
+                    Support Engineer (GN) Microsoft Azure Database
+                   Full time | unlimited | Location: nationwide or hybrid/remote
+                  Softwareone is a global platform, solving and service company and supports organizations with innovative solutions in the budgeting and optimization of their global IT costs from onâ Premises to cloud environments. We have extensive expertise to advise customers in the sense of an optimal cloud strategy and to permanently increase the success of a cloud infrastructure. In the Multivendor Premium Service area, we provide support for 14 manufacturers. 
+                  The area of ​​responsibility
+                    What awaits you
+                    You react to acute precursors in complex IT environments of our business customers in the 2nd and 3rd level support
+                    Based on your experience and technical expertise
+                    You take contact with the customer on a personal contact and accompany him until the problem is solved
+                    If you take care of the manufacturer and coordinate the further coordination
+                    You document your work in the ITIL-compliant ticket system
+                    You work flexibly (in coordination with colleagues) between 7 a.m. and 8 p.m.
+                    You can also do call diversity (maximum 1 week a month)
+                    You will regularly picture yourself personally and technically
+                  Knowledge and
+                    Troubleshooting experience in the following areas are desirable:
+                    Microsoft SQL Server from version 2012 (Standalone, Cluster, Alwayson)
+                    Microsoft Azure SQL
+                    Microsoft DataBricks
+                    Azure Data Factory
+                    Ideally, you have experience in the field of experience:
+                    Microsoft Purview
+                    Micorosft Azure Devops
+                    In addition, you bring the following soft skills with you      
+                    You work in terms of customer and lease 
+                    You love to repair things
+                    You can quickly see through complex facts
+                    You know processes and copies within matrix organizations
+                    You speak and write negotiating German and English
+                    We have that to offer
+                  Our employees are our most important capital and we are doing everything you can to see with us:
+                    We trust you - ours 
+                      Working hours
+                     are 
+                      flexible
+                    Jobrad (Lease A Bike) and our participation in the Germany ticket form our 
+                      Mobile act concept
+                    The possibility in 
+                      Home office
+                     to work
+                      30 vacation days
+                     and the option on a sabbatical
+                    Your success is our goal: Maã tailored 
+                      Further training and development opportunities
+                     Waiting on our internal portal
+                    Individual range of internal 
+                      Coaching and psychosocial consultation</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:44</t>
+          <t>2025-06-15 22:26:17</t>
         </is>
       </c>
     </row>
@@ -609,12 +707,28 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested as a Microsoft Dynamics CRM Consultant (m/f/d) at Defacto GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - Flieã End The storey salary span of XING does not necessarily correspond to the salary span of this job offer.  Excellence in Customer Loyalty. Perfectly Engineered. With performant software-as-a-service, excellent services and highly qualified experts, we also support our customers â in the onsite operation-in the transformation towards direct-consumer. We pursue the goal of creating sustainable connection between brands and customers. We prove to this with digital ledges, optimize the customer experience according to customer expectations and thereby generate business benefits in the form of growth, increase in efficiency and profitability through the potential from customers, data and technology. To further understand our excellent team, we are looking for a Microsoft Dynamics CRM Consultant (W/D/M). Your tasks
+You are responsible for the inclusion and definition of requirements regarding the implementation of processes in Microsoft CRM
+You subordinate to the tenders, evaluate the requirements, show the customer and are acting in the pre-sales
+You can use a team of CRM architects and developers to implement the customizing and implementation of the Microsoft Dynamics CRM/CRM-Online-Losungenâ
+You support the interface integration (SharePoint, Office Add-Ins, plug-ins u.)
+You secure the quality of the implemented customizing and technical documentation.
+You plan and work through workshops
+ You bring this with you
+You can show a successfully completed study of (economic) computer science " 
+You have multi -year -old experiences and comprehensive understanding of the various D365 modules (e.g. D365 Sales, D365 Customer Service, D365 Customer Insights, ¦)
+You have experience in software development with technologies such as C#, JavaScript and .NET framework to carry out adjustments and extensions
+Werstache are good database knowledge and knowledge of system integration as well as familiarity with tools such as Visual Studio, Power Platform, Azure DevOps above.
+You bring experience with security mechanisms, access control and data protection in Dynamics 365
+Indispensable for communication with our customers are a good German and English skills "The willingness for appointments in the offices of our customers
+We follow a hybrid working model. That means you have the choice: we offer you a job in our beautiful and well -equipped locations in Erlangen or/and have a little. Or you would like the possibility to work on the ram. Team Märkten are changing, our clients always have new requirements. We always develop new, innovative solutions for this, offer highly performant software and excellent services. And that creates a lot of scope for your ideas and your personal and professional development. Our vision is ambitious: â to re-engraved Customer Centricity â for the good of allâ â â â â â â â â â above all we develop to promote innovations and opportunities for our employees and customers. Cultures to fade. We attach great importance to trying out new things, learning and continuously developing us. You will work in a various team of highly qualified and open -minded colleagues in an agile work environment. We offer you an attractive salary, of course, including all social benefits. Your personal and professional development is very important to us, because we want to grow with you. Regular development offers are therefore in addition to the standardized certification - of course, just like the possibility of flexible your place of work. In our office, a great view of Eltersdorf is waiting for you with free pruning, snacks and small jerks from our Feel Good Manager. Application process 
+We have a short pre-call to clock the first questions and discuss the further course of your application.
+We have two interviews, M</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:50</t>
+          <t>2025-06-15 22:26:22</t>
         </is>
       </c>
     </row>
@@ -646,12 +760,45 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as Devops Consultant Kubernetes (W/M/D) at Devoteam GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - Flieã End, English - Conversationproof The storey salary span from XING does not necessarily correspond to the salary range of this job offer.  What you can look forward to at Devoteam: Training: Internal further education maã took and one of the best e-learning platforms to prepare for IT certifications with targeted training courses on cloud, development and project management, etc., knowledge transfer from employees for employees, a mentoring program that accompanies you from day one, partner certification with AWS, Google &amp; Co. Long-old collaboration with AWS, Google, Microsoft, Red Hat and Serviceenow make us Europe's #1 when it comes to companies to digitize: Get-Together for themed and grill evenings, individual mobile, Jobrad, Laptop &amp; Mobile Device â Also usable, corporate benefits Â Strong discounts on many providers, part-time models, remote work, Flexime Modellentrack Record: Expertise from IT/Digitization projects Completed by 750 
+You are responsible for the construction of Kubernetes and Gitops solutions in our customer projects
+You subordinate in Kubernetes projects of design and architecture, the implementation and porting of apps to the platform up to the extension of the solution to the company.
+With your expertise, you will provide advice on the solution architecture, platform and tool selection
+You have a very good technical understanding and bring your practical experience from the Kubernetes Platform Engineering environment into our software projects.
+You work in interdisciplinary teams and actively bring yourself into design, advice and implementation of concepts with your ideas.
+You are proactively on topics, use creative freedom and support your colleagues
+ Requirements 
+Completed university education in computer science or a related subject
+At least two years of experience as DevOps or Site Reliability Engineer
+You will have multi-year-old, practical experience with Kubernetes, OpenShift, Docker, Infrastructure-As-Code, CI/CD, Gitops and corresponding tools
+Your passion is technology and innovation, you live the Devops philosophy and are familiar with the models, principles &amp; best practice
+You are proactively on topics, use creative freedom and support your colleagues
+High Maã on self -initiative and team feast
+Openness to new topics, technologies and solutions
+Analytical
+In these topics you will be sure
+Very good knowledge of Linux, Docker, Kubernetes and OpenShift
+Familiar with configuration management tools (e.g. curiosity, helmet)
+Container/K8S Security Best Practices
+Good knowledge of K8S Networking (e.g. Calico, Cilium) and Ceph Storage
+Ideally service mesh know-how (e.g. Istio, Linkerd)
+Knowledge of CI/CD and Gitops (e.g. Tecton, Argo CD, Flux CD, Fleet)
+Experience with monitoring tools (e.g. Prometheus, Grafana, Elk/EFK, Jaeger)
+Solid knowledge of Bash and Python
+Practical experience with Suse Rancher or VMware Tanzu is an advantage
+Worthwhile
+Experience in the use of AI -based productivity tools such as Chatgpt, Github Copilot, o. success.
+First experiences in MLOPS and AIOPS
+ Team teams are the real value of every company. And we campaign our teams with continuous personnel development so that they can offer our customers the best service. Devoteam teams up with the best partners in the industry and creates a fully environment with them for interdisciplinary cooperation. Application process 
+After your application, a recruiter will invite you to get to know the first, in which you will find out more about Devoteam Germany and the position. The conversation serves more about you and your professional goals but also to bring you a submissive team. 
+After that, our tech experts are looking forward to a technical conversation with you, in this conversation you will get to know our technologies and the team structure. 
+If everything fits from your and our side, we will make an offer within 48 hours.
+ About the company We help our customers to select innovative technologies for the quick, safe, agile and sustainable digital transformation.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:52</t>
+          <t>2025-06-15 22:26:26</t>
         </is>
       </c>
     </row>
@@ -683,12 +830,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>You are interested in the position as Senior Microsoft Azure AI Engineer (m/w/d) at Devoteam GmbH?  On the job platform Instaffo, you can apply for this and other jobs with ease. Create your profile in under 3 minutes and start the application process with just a few clicks.  Please note that the position is only available to applicants from Germany.  The language requirements for this position are: German - Fluent.  The estimated salary range from XING does not necessarily correspond to the salary range of this job offer.  As a Senior Microsoft Azure AI Engineer (m/w/d) Lead AI Solution Architecture, you're responsible for the end-to-end architecture of AI/ML solutions on Azure. You provide technical leadership to teams in implementing best practices and MLOps, and work closely with clients to translate their business needs into innovative AI solutions. Activities 
+Lead AI Solution Architecture: Own the end-to-end architecture for AI/ML solutions on Azure, from concept and design to deployment. Develop high-level solution designs that integrate with clientsâ existing data platforms and infrastructure.
+Client Engagement: Work closely with enterprise clients to understand business challenges and identify opportunities where AI/ML can drive value (e.g. predictive maintenance in manufacturing, drug discovery insights in pharma, or risk modeling in insurance). Translate these needs into solution roadmaps and technical plans.
+Technical Leadership: Provide hands-on technical leadership to delivery teams. Guide Azure AI Engineers and Data Engineers in implementing best practices for data preparation, model development, and cloud deployment. Mentor team members in advanced AI techniques and review designs/code to ensure quality.
+MLOps &amp; Best Practices: Establish and enforce MLOps best practices for the team, including reproducible workflows, continuous integration/continuous delivery (CI/CD) for ML models, automated testing, and monitoring of model performance in production. Ensure that solutions are scalable and maintainable over time.
+Innovation &amp; Generative AI: Stay abreast of the latest AI trends and Azure services. Evaluate new technologies â from Azure Cognitive Services and Azure OpenAI to emerging open-source frameworks for LLMs (Large Language Models) and RAG (Retrieval-Augmented Generation). Incorporate generative AI capabilities where relevant to enhance client solutions (e.g. intelligent document processing with GPT models).
+Cross-Project Impact: Oversee and provide guidance on multiple AI projects in parallel, ensuring architectural consistency and reuse of best practices across engagements. Act as the go-to expert for solving complex technical problems and making high-level design decisions.
+Internal Capability Building: Contribute to Devoteamâs internal Data &amp; AI capability. Develop reusable architecture blueprints, accelerators, and reference implementations for AI on Azure. Lead knowledge-sharing sessions and training to upskill colleagues, and support the growth of a community of practice around AI/ML.
+ Requirements 
+Proven Experience:Â 7+ years of experience in data analytics and software development, with at least 4â5 years in designing and implementing ML/AI solutions at scale. A track record of delivering production-grade AI projects for enterprise clients is essential (this is a senior role andÂ not suitable for junior candidates).
+Language Skills:Â fluent in german and english
+Azure Expertise:Â Deep hands-on knowledge of Azure data and AI services â including Azure Machine Learning, Azure Databricks, Azure Data Lake/Synapse, Azure Cognitive Services (Text, Vision, Speech), Azure OpenAI and Azure AI Foundry. Ability to architect solutions that leverage these services cohesively.
+Architectural Skills:Â Strong skills in system design and integration. Comfortable defining solution architectures that encompass data ingestion, feature engineering, model training, deployment (APIs, containers), and monitoring. Familiarity with designingÂ microservicesÂ or cloud data pipelines is a plus.
+MLOps &amp;Â Software Engineering:Â Solid understanding of MLOps principles and experience implementing ML lifecycle management (source control, CI/CD for models, model registries, etc.) on Azure or similar platforms. Proficiency in Python and common ML frameworks (scikit-learn, TensorFlow/PyTorch) and experience with code review and DevOps processes.
+Leadership &amp; Communication:Â Excellent leadership and interpersonal skills. Able to interface with client stakeholders to explain complex AI concepts in business terms, gather requirements, and drive adoption. Experience leading technical teams or mentoring engineers in a project setting.
+AI Knowledge:Â Broad knowledge of machine learning and AI techniques (supervised, unsupervised learning, time-series, etc.) and familiarity with deep learning and NL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:55</t>
+          <t>2025-06-15 22:26:29</t>
         </is>
       </c>
     </row>
@@ -720,12 +882,30 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Wages -CHF130,000 -140,000 -ours Rocken is an outstanding leader for digitization, security, innovation projects and products in Switzerland and strives for the same in other technology centers. He integrates the entire IT value chain vertically for future-oriented customers from the most exciting industries. Internationally, he currently coincides with 300 impressive engineers, designers and consultants. Further branches will follow. The basis of growth are his staples and values: courage, wealth of ideas, agilit and entrepreneurial flair paired with sustainability and swissness. Would you like to be part of the next IT revolution? Work with the latest technology? Be aware in a company that represents strong values ​​and a great culture? Then become part of it! Responsibility: For one of our rock partners, we are looking for an analytically strong personality that builds up and operates with Kafka and nimble performant data.
+Development of streaming data pipelines with Apache Kafka and Apache Flink
+Processing and enrichment of real -time data from different sources
+Performance optimization and scaling of streaming architectures
+Close cooperation with data scientists, devops and software engineering
+Qualifications:
+Experience with kafka, nimble and distributed data processing systems
+Knowledge of Java or Scala is an advantage
+Trust with event driven architecture and data modeling
+Knowledge of German at C1 level
+Tech Stack: Apache Kafka, Apache Flink, Java/Scala, Kubernetes, Docker, CI/CD, Gitbenefits:
+Flexible working time design
+Numerous employee events
+Free freewhe
+Attractive training and development opportunities
+Open corporate culture
+Family -friendly employment conditions, childcare
+Interesting and varied activity/projects
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-15 21:23:59</t>
+          <t>2025-06-15 22:26:32</t>
         </is>
       </c>
     </row>
@@ -757,12 +937,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Wage - CHF90,000 - 110,000 Rockenâ® has significantly simplified the application process with its digital recruitment solution and thus sets a new, uniform standard. We combine talents, experts throughout Switzerland. We put our network of established companies on our Rockenâ® Talent platform. Our partner is a competence center for professional integration. The goal of our partner is the brute strike between social work and digitization. Start your new trip with a personal Rockenâ® Talent profile and benefit from exciting jobs! Roll:
+DevOps: Further development and support of DevOps processes for internal software
+Kubernetes: Migration to Kubernetes and ensure the smooth operation of the infrastructure
+IT platform: Participation in the management and optimization of the existing IT systems
+Responsibility:
+Training: completed training as computer scientist EFZ
+Kubernetes: Long -wear experience in the establishment and management of Kubernetes clusters
+DevOps &amp; Operation: Extensive professional experience in the field of DevOps and Application Company
+IT competencies: sound knowledge in various IT areas
+Language skills: Negotiating knowledge of German is essential
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:01</t>
+          <t>2025-06-15 22:26:36</t>
         </is>
       </c>
     </row>
@@ -794,12 +984,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Our Rockenâ® partner is a renowned Swiss software company that has been successfully developing business software for simplification, automation and digitization of business processes for more than three decades. The company stands for innovation and a unique corporate culture and creates a place for freedom, encounter and further development for its employees. Responsibility:
+Development, operation and administration of robust network and DevOps infrastructures that meet company requirements
+Use of automation tools such as Puppet and Ansible to optimize IT processes and increase the efficiency through automation recurring tasks
+Further development and maintenance of Identity Access Management (IAM) platform for the safe management of the connected systems
+Analysis and correction of stems, error services as well as performance problems in applications and infrastructures to avoid future problems
+Qualifications:
+You have a degree in computer science or comparable qualifications and multi-year-old experience in the development and operation of network and DevOps infrastructures.
+Well-founded knowledge of Linux, networks, IT security and in tools such as Zabbix, Puppet, Ansible, Terraform and Jenkins are essential
+For the role you need practical experience with hypervisor technologies (proxmox, VMware) and their further development
+Your knowledge of German is at a negotiating level
+Benefits:
+Canteen, food allowances and fortifications
+Flexible working time design
+Attractive pension and insurance benefits
+Good transport links and accessibility
+Numerous employee events
+Sporting activities
+Market and performance-based Lã¶hne
+Attractive training and development opportunities
+Comfortable Büro with modern infrastructure
+Open corporate culture
+Well -rehearsed and dynamic team
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:05</t>
+          <t>2025-06-15 22:26:41</t>
         </is>
       </c>
     </row>
@@ -831,12 +1043,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Job_description.share.html leipzig, Germany; Home Office, Germany; München, Germany; Heilbronn, Germany; Köln, Germany; Hamburg, Germany Germany Regular Full-Time 26257 Support Engineer (GN) Microsoft Azure Database full-time | unlimited | Location: Nationwide or Hybrid/remote softwareons is a global platform, solution and service company and supports organizations with innovative solutions in the budgeting and optimization of their global IT costs from onâ Premises to cloud environments. We have extensive expertise to advise customers in the sense of an optimal cloud strategy and to permanently increase the success of a cloud infrastructure. In the Multivendor Premium Service area, we provide support for 14 manufacturers.  The role what awaits you you react to acute precursors in complex IT environments of our business customers in the 2nd and 3rd level support based on your experience and technical expertise, you and your team will take a contact with the customer. Manufacturer and coordinates the further coordination You document your work in the ITIL-compliant ticket system. Areas are worthwhile: Microsoft SQL Server from version 2012 (Standalone, Cluster, Alwayson) Microsoft Azure SQL Microsoft DataBricks Azure Data Factory Ideally, you can get out of experience in the area: Microsoft Purview Micorosft Azure Devops. You the following soft skills with you work customer and soluble-oriented You love to repair things You can quickly see complex facts. Jobrad (Lease A Bike) and our participation in the Germany ticket are the possibility of working in the home office 30 vacation days and the option on a sabbatical Your success is our goal: Maã tailor-made training and development opportunities are waiting for our internal portal. Individual range of internal coaching and psychosocial advice Local health and sports offers (e.g. To blue light filter glasses, bootcamp) 20% additional payment for the company pension scheme for the world: get one day free for the Harmony Day, to do good raffle for Bundesliga tickets, benefit from the company's success through our employee and recommendation program secure discounts at corporate benefit dress code? We don't know! Trage in which you are probably onboarding-buddy for the optimal entry into Leipzig you have the possibility in our canteen to eat.   With "employees satisfaction" as one of our core values, we are passionate about diversity and undertake to create an inclusive work environment for every colleague.   Ultimately, we would like that all of our employees experience the highlight of their career at Softwareone.  Interested?  Then apply with your curriculum vitae and a few clicks about our online form! There is no cover letter.  You still have a question? Then you can send me an email to malte.ruetten@softwareone.com.  #Li-Remote</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:08</t>
+          <t>2025-06-15 22:26:45</t>
         </is>
       </c>
     </row>
@@ -868,12 +1080,38 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Devops Engineer (m/f/d) Aviation
+                        We are looking for support for a varied project in the field of embedded software in the development and participation of automated tests, the qualification of new tools, the training of support teams and the optimization of information management processes. In addition, the benchmarking of new technologies and the location -mature process substead of the tasks
+                        Customer details
+                        Akkodis is a pioneer in Smart Industry and a worldwide leading company in the areas of engineering, IT, research &amp; development. As a global partner in a steadily dressing technology and competitive environment, we support our customers with our 360â ° offer to shape a sustainable &amp; smart future. Our unique team of 50,000 vision people worldwide and makers support us with incredible ideas and immense drive.
+                        Job description
+                          Development and participation of tests of new solutions to automate tasks (supporting the continuous integration of embedded software products)
+                          Analysis of the need for the qualification of this tool / participation of the necessary qualification
+                          Documentation and training of the support teams for new implementations
+                          Creation of suggestions to the information and architecture for the efficient support of development at several locations
+                          Benchmarking new tools for potential use in the area
+                        profile
+                          Completed bachelor's degree in electrical engineering, computer science or computer sciences
+                          At least 2 years of professional experience in engineering, IT/information systems and ideally aerospace
+                          Knowledge of English, German and French knowledge of negotiations, knowledge of German and French is an advantage
+                          Mandatory programming experience in Python as well as experience with Gitlab, Github EE or Gitea
+                          Experience with Linux, Solaris and CI/CD processes required
+                        The offer
+                          It is possible to work partly in the home office / remote and thus benefit from the advantages of hybrid work (flexible work)
+                          Team spirit and diversity
+                          Work-life balance
+                          Attractive remuneration
+                          Social benefits
+                          Versatile further training opportunities
+                          Team and sports events
+                          Global network
+                          Attractive employee recommendation program
+                        The benefits can vary depending on the position and location. There are an overview of the benefits on our website.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:11</t>
+          <t>2025-06-15 22:26:48</t>
         </is>
       </c>
     </row>
@@ -905,12 +1143,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested as a (senior) Azure Cloud Engineer (W/M/D) at JTL-Software GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - native language level becomes part of our cloud journey! The digital cloud transformation is in full swing and with JTL software you have the chance to actively shape it! Our goal? A powerful, scalable and innovative cloud platform for the future of e-commerce. We build smart lunches that help companies work more efficiently. As Azure Cloud Engineer, you can get a key role in our cloud transformation. You bring in your ideas, optimize the cloud infrastructure including the deployment processes and make a long time to raise our infrastructure to the next level. Do you want to work with the latest technologies and to actively pretend the future of cloud architecture? Then you are exactly right with us! Activity 
+You develop, operate and optimize our Azure infrastructure â with a focus on infrastructure as code (IAC) using a terraform, terragrunt and AVM (Azure Verified Modules).
+You conceive and affect our CI/CD pipelines with Azure Devops and Github Actions.
+You orchestread of containerized applications with Kubernetes and helmet.
+You responsible for monitoring, backup, residual and DR concepts (Z.â ction with Azure Monitor, Prometheus, Grafana).
+You cheat and manage our infrastructure components such as DNS zones, virtual networks, VPN compounds and SQL/NOSQL data banks.
+You act as an interface to IT security, IT architecture, development teams and external service providers.
+You work on special projects, audits and get into the continuous further development of our cloud platform.
+You help with troubleshooting and fertilize responsibility for stems and error analyzes.
+ Requirements 
+You have at least 5 years of professional experience in the Azure Cloud environment â more.
+You bring well -founded knowledge of Azure Services such as AKS, Web App, Azure Front Door and API Management.
+You understand cloud architectures, scalability, high-availability and security concepts in detail.
+You dominate the form of terraform and the work with CI/CD processes, Github and Azure Devops â Ideally including AVM.
+You will safely program with PowerShell, Bash or Python to automate processes.
+You have the basics of IT security and bring experience with Jira and Confluence.
+You think analytically, work in a structured manner and actively bring yourself into the team.
+ Team ð ¤ Our developers are spread over several teams that are divided depending on the product or function. The platform team is being expanded. It currently consists of the technical management, 4 designers and 1 system and cloud architect and a team lead. Application process 
+In order to get to know each other at the beginning and to climb the first skills, there is an approximately 1 stubborn digital team interview with the team lead and a colleague from People &amp; Culture.
+You will also get to know the rest of the team. So both side can see whether it is human matched and you can talk a little.
+In the last step, the Director of the Technology area would get to know you in a 30 minute team discussion.
+If you and the team find that it fits great after the trial day, you will get your indefinite contract from us in the next step and we welcome you to the JTL family :)
+ The company JTL software is a provider for innovative software that facilitate their own businesses in online and mail order, including the factory management, shop system, warehouse management or cash register system. With more than 50,000 customers and 500 partners, JTL is one of the leading manufacturers of e-commerce solutions in German-speaking countries. You are committed, curious, do you want to teamwork and responsibility? Are you looking for a job where Monday is not the most terrible day of the week? Then we look forward to your application! Who we are? JTL software nowadays around 200 employees at four locations. In the past ten years we have established ourselves as fixed size of the German e-commerce industry. In this way we are constantly developing our software, like to explore unknown terrain and are always open to clever ideas. Fairness and respect are usual practice. With over 50,000 customers and 500 partners we form a living commu</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:14</t>
+          <t>2025-06-15 22:26:52</t>
         </is>
       </c>
     </row>
@@ -942,24 +1202,45 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as Devops Engineer - Kubernetes (W/M/D) at Smartclip Europe GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - Flieã End, English - Flieã End Figure our raid from automation magicians and pipeline belts. Operation teams, where heroes do not go with swords, but with shell scripts, container runes and Jenkins files.
+A team of veterans, magicians and developers with +5 on curiosity
+No legacy fleet â we put on a Latest, not on LTS
+Open Sourceâ is our belief, automation our rune stone
+And yes, you can also do deployments on Fridays â â IF you dareâ ¦
+ Activity 
+Create magical developer platforms that heal builds faster than a wise raffar
+Schmiede CI/CD pipelines as stable as Zireal in Rage
+Our development teams on their DevOps hike as a mentor, monster jug ​​and monitoring magician
+Care our Kubernetes landscape like a druide the brokilone state, hyper-scaling, highly good
+Guard our systems before dark magic (A.K.A. unsafe ports and Leaky Secrets)
+ Requirements 
+At least 5 winter experience in the Devops craftsman
+You have passed the clouds of the Cloudâ â AWS, GCP or both
+You master magic like "bash, â python, â Grafana, â Prometheus, â Graylogâ and Jenkinsï» ¿, the hute of the jobs
+You work independently, think strategically and are as efficient as a targeted Aard-Stoã
+ Team as Devops Engineer are part of our Operation team system. You are responsible for further development, automation and operation of our infrastructure. You work in close exchange with the development teams. You can expect excellent technical colleagues from whom you can learn. We focus on automation and keep more of "Latest" than from "LTS" (long term support). And we are totally on open source. Application process 
+Telephone call with Sarah (Senior Recruiter @Smartclip) 
+Introduction discussion via Google Meeting with your future leaders
+Interview either personally or over Google Meet with your future team
+Short -term feedback from the team and Sarah
+ About the company Smartclip is the Adtech Development Unit of RTL Group â Europeâ S Leading Free-to-Air Broadcaster Group. Our proprietary advertising technology is custom-built for the needs of European Broadcasters and publishers â Enabling Media Owners to Implement Smarter Monetization Strategies. We are committed to delivering the most innovative ad Experiences Spanning In-Stream, Out-Stream, Addressable TV, Connected TV, Audio, and Gaming â Ultimately Empowering Brands With True Cross-Screen Storytovels on All Devices. Offices in Berlin, Munich, Düsseldorf, Cologne, Gütersloh, Amsterdam, and Paris. For more Information: Please Visit www.smartclip.tv and follow us on linkedin.â Does this sound interest to you? Please send us your application included CV, Earliest Possible Start Date, and Salary Expectations via the Online Form.â We Look Forward to Hearing From You! For more information on Smartclip: www.smartclip.tv</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:16</t>
+          <t>2025-06-15 22:26:55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DevOps Engineer – Cloud &amp; Infrastructure (m/w/d)</t>
+          <t>Cloud &amp; Infrastructure DevOps Engineer (m/w/d)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pforzheim</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -969,34 +1250,64 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/pforzheim-devops-engineer-cloud-infrastructure-136661584</t>
+          <t>https://www.xing.com/jobs/ingolstadt-cloud-infrastructure-devops-engineer-136661583</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Roll: A leading company from the healthcare industry relies on state-of-the-art IT technologies to optimize the availability and security of medical information. In this position, they contribute to providing a powerful and automated infrastructure. They work closely with development teams to establish DevOps practices and operate IT systems efficiently, both on-premises and in the cloud.
+Automation and infrastructure management: You develop, optimize and manage automated processes to provide and maintain the entire IT infrastructure.
+Ensuring stabilizer and performance: You proactively awakens systems, analyze Engpanse and ensure the continuous improvement of the availability and performance.
+Container and orchestration management: You use Docker and Kubernetes for the efficient management of containers and their scaling.
+Cloud and on-premises architecture: You design, implement and support hybrid IT environments with special focus on Microsoft Azure.
+Configuration and infrastructure management: You use infrastructure-as-code technologies such as Terraform and ANSIBLE to protect a standardized and reproducible IT landscape.
+Error analysis and incident management: You identify and have technical challenges and continuously improve monitoring and troubleshooting processes.
+Optimization of CI/CD pipelines: You support the development teams when improving Continuous integration and deployment processes to accelerate software delivery.
+Security and compliance standards: You ensure that all systems meet and implement current security requirements for IT security and resilience.
+Qualifications:
+In-depth experience in devops and infrastructure management: multi-year-old practice in the company and the automation of complex IT systems.
+Technical know-how: Knowledge of Linux and Windows server administration as well as experience with container technologies (Docker, Kubernetes).
+Experience with cloud technologies: safe handling of Microsoft Azure and ideally hybrid cloud architectures.
+Infrastructure-As-Code knowledge: Experience with tools such as terraform and Ansible for automation and configuration of IT infrastructures.
+Scripting facilities: Knowledge of Python, Bash or PowerShell for automation of processes.
+Team sophistication and communications: to work together with developers, IT administrators and other specialist departments.
+Leaving-oriented way of working: Analytical thinking and a structured procedure in the troubleshooting and optimization of IT processes.
+Language skills: very good German and good knowledge of English in the word and writing.
+Benefits:
+Participation in health measures
+Coaching and mentoring
+Attractive achievements in the event of illness or accident
+Home office
+Flexible working time design
+Free freewhe
+Attractive employee discounts
+Numerous employee events
+Open corporate culture
+Well -rehearsed and dynamic team
+Comfortable Büro with modern infrastructure
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:18</t>
+          <t>2025-06-15 22:26:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cloud &amp; Infrastructure DevOps Engineer (m/w/d)</t>
+          <t>DevOps Engineer – Cloud &amp; Infrastructure (m/w/d)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Pforzheim</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1006,22 +1317,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/ingolstadt-cloud-infrastructure-devops-engineer-136661583</t>
+          <t>https://www.xing.com/jobs/pforzheim-devops-engineer-cloud-infrastructure-136661584</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rolle: Cloud infrastructure Engineer (m/f/d) - Forming the future in the healthcare sessendu would the IT infrastructure in healthcare bring to the next level? Our partner is an innovative company that uses modern cloud and on-prem technologies to make medical processes more secure and efficient. In this role you play a key role in automation, optimization and further development of the IT environment. The tasks
+Automation and operation of the IT infrastructure in the Devsecops environment
+Ensuring stabilizer, safety and performance of the platform
+Management and provision of Linux and Windows servers
+Use of Docker and Kubernetes for container management
+Support in the optimization of CI/CD processes
+Further development of the hybrid IT environment (on-prem &amp; azure) with terraform and Ansible
+Qualifications:
+Experience with Gitlab, Terraform, Ansible, Docker, Kubernetes and Azure or the willingness to familiarize yourself quickly
+Structured, solution -oriented way of working with a focus on system stabilit
+Team spirit, communications and interest in new technologies
+Motivation to actively share knowledge and work with various specialist areas
+Benefits:
+Participation in health measures
+Coaching and mentoring
+Attractive achievements in the event of illness or accident
+Home office
+Flexible working time design
+Free freewhe
+Attractive employee discounts
+Numerous employee events
+Open corporate culture
+Well -rehearsed and dynamic team
+Comfortable Büro with modern infrastructure
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:20</t>
+          <t>2025-06-15 22:27:03</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1388,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested as a (senior) Devops Engineer (m/f/d) ST4 Cloud at Quanos Solutions GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - Flieã End The storey salary span of XING does not necessarily correspond to the salary span of this job offer.  We are looking for an experienced and motivated DevOps Engineer who supports us with passion in the operation of the SaaS solutions of our product â St4â and closely with our Quanos Cloud Platform team 
+You responsible for the operation of our SaaS-LiSung ST4 Cloudâ 
+You are responsible for the automation and optimization of the deployment pipeline (partly further, partly also new development) 
+During the implementation, you identify and work out potential for improvement, both independently and in cooperation with our development and the Quanos Cloud Platform Team â 
+Through your work you set impulses for proactive influence and fueling a modern DevOps culture 
+ You should have requirements:
+You will have expert knowledge in the operation of cloud applications " 
+You have advanced knowledge of the AWS-EKSystemâ 
+You can demonstrate a long-old track record as a software developer 
+You have advanced knowledge of technologies such as Terraform, Python, PowerShell (or comparable) as well as good knowledge of the use and configuration of CI/CD tools such as Gitlabâ 
+You bring the willingness to incorporate yourself into the AWS services used by us and the administration of ST4 
+Language skills: Flieã end of German and good English skills; Willingness to work in multilingual and intercultural teams. 
+The following facilities &amp; properties complete your profile:
+Team player: â You like to work in a team, share your knowledge and learn from others 
+Problematic: â You approach problems analytically and structured and find creative solutions. 
+Life-Long Learner: â You are eager to know, solely-oriented and stuffy to learn new things.
+ Team what we offer you:
+Innovative environment: â We are in the process of making our entire product portfolio based on the latest technologies. 
+Career opportunities: â We will continue to develop your professional development and offer you numerous further training opportunities. 
+Team culture: â A motivated and collegial team is looking forward to being successful with you. 
+Flexibility: Flexible working hours and the possibility of working remote, we have a standard. 
+ Application process in a first online interview means getting to know you and getting an impression of the Quanos Group. If it is a match afterwards, we attach great importance to networking with the team. If the impression is still so positive from both sides, it goes into the contract negotiation or as required, another conversation takes place. The company Quanosâ is a software company consisting of experts who develop products and solutions for after-sales, service and technical documentation. We have been accompanying our customers for the digitization of their processes for 30 years and offering you a wide range of services in modern cloud and on-prem products. The products of the Quanos Group are used worldwide by more than 1,400 customers from machine and plant engineering as well as hidden champions of various industries. We owe our success to our more than 300 committed employees in the D-A-CH area. You too will be part of our Q-Community, which has been committed to the Passion for Smart Information. â Hire and Fireâ is a foreign word for us. On the contrary: we are proud of our corporate culture and the long -term company admission of many of our employees. Every single Quanaut is an expert in his field, regardless of the area of ​​business. To get our goals, we use agile working methods, new technologies and rely on team -friendly cooperation. Â Our vision: We help people to understand machines with our products we offer an important basis for all manufacturers and operators of machines and systems. Because a lot of technical documents such as operating, maintenance and repair instructions, drawings or circuit diaryers</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:22</t>
+          <t>2025-06-15 22:27:06</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1446,15 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Would you like to bring your experiences and analytical things in a demanding environment? Then you are exactly right with our customer company in the Dresden area! This offers Maã tailored IT solutions from consulting to outsourcing. Our task is to bring you and our customer companies together.  If you are looking for the next career step, contact us and benefit from the network of best! Your tasks
+Close cooperation with the Linux team of customer projects in the AVIONATION SECRACTION, configuration, control, control as well as the further development of Linux-based systems and platforms Planning and building container solutions such as Kubernetes and Azure Kubernetes Service Participation in the architecture of cloud platforms, primarily on Azure and the selection of suitable technologies. Training including certifications are their profile in the first place
+Technical specialist knowledge in the desired area of ​​responsibility, as well as good knowledge of neighboring Linux technologies practical experience with DevOps Methods and Tools such as Scrum, Gitlab, container services, Sonarcube, Nexus, Flux, Apache Kafka or Salt-Stack Experience in dealing with terraform and mastering a scripting language like JavaScript is deserted Interest in cloud technologies and platforms, as well as the passion of constant personal and professional development at least one C1 language level in German and English their perspectives at DIS AG
+Flexible working hours / home office A monthly fixture in the case of a fee-based payment contract with possibilities for an opportunity after 9 months of vacation and Christmas bonus. Logistics. Now click on "Apply directly"! We look forward to the application of people who contribute to the diversity of our company.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:25</t>
+          <t>2025-06-15 22:27:09</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1486,39 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Role:
+Development, automation and scaling of Linux-based infrastructures.
+Implementation and maintenance of CI/CD pipelines.
+Use of Ansible for automation of server configurations and deployments.
+Performance monitoring and optimization of IT systems.
+Ensuring the scalability and reliability of the IT environments.
+Supporting and advising development teams in the integration of new technologies.
+Documentation and exchange of knowledge with internal teams and customers.
+Qualifications:
+Deep experience with Linux administration and automation tools like Ansible.
+Knowledge of cloud technologies (AWS, Azure, GCP) is an advantage.
+Experience with CI/CD pipelines and DevOps methods.
+Safe handling of monitoring and logging solutions.
+Independent, lean -oriented way of working.
+Very good knowledge of German and English.
+Benefits:
+Canteen, food allowances and fortifications
+Attractive pension and insurance benefits
+Flat hierarchies
+Well -rehearsed and dynamic team
+Flexible working time design
+Coaching and mentoring
+Home office
+Open corporate culture
+Numerous employee events
+Participation or acceptance in the cell phone and notebook
+Attractive training and development opportunities
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:28</t>
+          <t>2025-06-15 22:27:12</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1550,18 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) Cloud Platform Engineer (m/f/d)
+  Berlin
+Partly home office
+40 hours a week
+From now on (unlimited)
+  We are convincing our customers with highly promised measuring devices and innovative solutions for tomorrow's measurement data management. Since 1957, 37 subsidiaries worldwide have been developing, producing and marketing our products. Shape things with them and develop further. We see not only the employee in them, but also the people!
+Your task should actively help shape the stable, safe and efficient operation of our cloud platform? In this role you provide a powerful development platform and support our development teams in optimal use of cloud and development resources. You are a central contact person for technical questions and worry that our platform works reliably, is continuously developed and developers can concentrate entirely on application development.  You can flexibly work either from our location in Berlin, from our headquarters in Titisee or Remote within Germany.  For this, take the following tasks: Ensuring the stable, secure and efficient operation of the Testo-Cloud platform development, operation and continuous optimization of automated development platform for our team support for development teams when using the cloud and development platform as well as advice on technical question maintenance and further development of our Infrastructure-As-Code libraries (e.g. with terraform, ANSIBLE) and provision of reusable module operations and further development of our Kubernetes environments and automation of the CI/CD pipeline implementation of comprehensive monitoring as well as an effective incident management participation on a regulator 24/7 calling will be Working in a team -like benefit flexible: With us you can flexibly design your working hours and (partially) remote. Also, you can expect extensive benefits such as Hansefit and Jobrad.Carriere development: We have targeted further training opportunities and are also on the program. Your professional development is important to us. Modern technologies and digital communication: State -of -the -art technology and digital media are of course and enforced us with efficient communication. You can work flexibly with us. You can make your working hours flexibly and (partially) work.  Salary and benefit We offer a fair and performance -friendly salary. You can also expect extensive benefits such as Hansefit and Jobrad.  Career development With us are targeted training opportunities and diverse, also international career opportunities on the program. Your professional development is important to us.   Modern technologies and digital communication state -of -the -art technology and digital media are of course for us and enable efficient communication with each other.  Safe workplace A permanent employment contract awaits you in a crisis -proof, successful company for decades.  Team friendly, always helpful people you can look forward to every morning â more than just colleagues. Your profile multi-year-old practical experience in the cloud/devops environment as well as in the operation of cloud platform-forced knowledge of infrastructure-as-code, ideally with tools such as terraform and anusible experience with at least one of the large cloud providers (AWS, AZURE or GCP) Safe handling of Kubernetes and its business experience in automation Delivered, CI/CD and scripting (e.g. Bash, Python) Pronounced team life and communication teaching good English and German skills in words and readiness for the regularity of regular work. You what you can do: You are happy to add your application to your application to your own projects or your Github profile.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:31</t>
+          <t>2025-06-15 22:27:15</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1593,28 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Qa Engineer/Software Tester (m/f/d) Reference 12-223226 In search of a new professional challenge? Do you want to contribute your faithfulness and talents to gaming in a future-oriented tech company with a focus? Then we have exactly the right thing for you! For an innovative company based in Erkrath, which redefines the gaming industry with the latest streaming and download technology, we are looking for a committed QA Engineer/Software tester (m/f/d). Student gaming technologies - with real design, lived team culture and exciting projects that inspire millions of players worldwide: QA Engineer/Software Tester (m/f/d).  Your benefits:
+Innovative work environment - become part of a passionate team that, with the latest technology, thinks the gaming experience from scratch from the ground
+Flexible, hybrid work - design your everyday work independently - in Büro or Remote - in an environment that relies on trust and results orientation
+Direct influence on millions of gamers - work on exciting projects that have real effects on the gaming experience worldwide
+Technology meets passion - use the most advanced tools, work with real gaming tech - and stay loyal to your passion for games
+Attractive annual salary from up to 60,000 euros
+Your tasks:
+Responsibility for the QA processes-further development of existing transcripts, implementation of best practices and active participation of internal and external quality protection Prüfung of our residual school API-Ensuring the error-free conversion of native PC games into rockitplay fasting images and stable streaming experiences under variable network conditions validation of the Rockitplay Streaminstallers- Using Progressive Download Function and Guide Performance Testing the web application RockitPlay Mission Control- Ensuring user-friendliness, stabilizer and cross-browser compatible. and integration tests as well as integration into our CI/CD pipelines Cooperation with development, product management and submissive-Recognize fruits of problems, prices of error documentation and continuous improvement in QA processes-with real gaming passion
+  Your profile:
+Gaming passion-you are gamers yourself and know what is important for a great gaming experience-at least 5 years in the QA-Umfeld, with practical experience in the testing of Restful APIs, desktop/mobile applications and react web apps very good knowledge of API test tools such as postman or apidog, automation frameworks in type or Python First experiences with hyperscalers (AWS, Azure, OCI) very good knowledge of German in spoken and written
+  Further details: Type of contracts: HR brokerage, (40 hours/week) Industry: Groã Handel Career level: Entry level salary framework: 40,000 to 60,000 EUR/Year The Amadeus Fire AG is your specialized personnel service provider in the merchant and IT area. With our help, specialist and leaders will find a new professional challenge on 20 locations nationwide. Your advantages in working with Amadeus Fire: 
+Simply apply without a cover letter 
+Personal care and coaching 
+An application, numerous opportunities 
+35 years of experience 
+100% free for applicants 
+ For a first confidential contact, you will be happy to provide you with Jennifer Rüth (Tel +49 (0) 211 828934-30). We look forward to your application by online form or stating the reference number 12-223226 by email to: IT.Duesseldorf@amadeus-fire.de.   Amadeus Fire Ag branch Düsseldorf Bennigsen-Platz 1 40474 Düsseldorf</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:33</t>
+          <t>2025-06-15 22:27:18</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1646,25 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>At anexia we take responsibility every day for all the challenges of the digital world. Because we see ourselves as the "digital transformation engine. How do we succeed? Very easy. We are a family of makers: inside and new thinkers: inside. We can, we want and we also do it. And that makes us unique! Do you want to become part of our digital revolution and write history with us? #Joinourrevolution
+Completed training or professional experience in a comparable position
+Experience with Git, Gitops Workflows and the Management of Kubernetes clusters in a production -related environment
+Safe handling of Linux and Prometheus/Thanos/Grafhana-based monitoring systems
+Knowledge of dealing with the terraform and the Ansible desire
+Knowledge of the configuration and implementation of Kubernetes resources is an advantage
+Very good knowledge of German and English
+Operation, management and configuration of Kubernetes clusters
+Troubleshooting, installation and updating of Kubernetes components as well as scaling of resources and overview of the cluster performance
+Preparation of a comprehensive documentation of the carried out work
+Cooperation with software developers in a Gitops workflow and ensuring a smooth operation of the Kubernetes infrastructure
+Possibility to familiarize yourself with Kubernetes (even with little experience)
+We are more than one job. Therefore, we offer our employees: inside (partly dependent on your position and your location) Many benefits: good transport connections, flexible working hours, training and further education, mentoring program, free parking plans, work cell phone and notebook, snacks and company cars, employees: Inner events, fun corner, and much more have questions? 
+Marina Maros â | â Telephone: +43-50-556 â | â email: kareer@anexia-it.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:48</t>
+          <t>2025-06-15 22:27:34</t>
         </is>
       </c>
     </row>
@@ -1275,12 +1696,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as a senior application security engineer (m/f/d) at JTL-Software GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - native language level your team, the JTL Security Team, is a technical, development -friendly team in the heart of the company. We ensure that the JTL group is secured against a large range of IT security threats. Together with our development teams, we design secure products and services for both the on-premise and the growing cloud area. You can expect a broad and demanding topic that requires both technical excellence and strategic thinking. Activity 
+You develop our Secure Software Development Lifecycle further from architecture over CI/CD to Operation. 
+You bring security to dev everyday life: IDE plugins, Sast, Security Unit Tests, Golden Images.â 
+You analyze risks (threat modeling) and help teams to deal with it pragmatically. 
+You coach developers: Interior and product managers in terms of security â on eye skills 
+You make security measurable, understood and scalable. 
+ Requirements 
+You have completed a degree in computer science or a comparable department. 
+You bring at least 5 years of experience in the field of application security with focus on secure development 
+You have well -founded knowledge of at least one programming language as well as in scripting and automation. 
+You have a solid understood of modern security standards and frameworks such as Owasp ASVS or NIST.â 
+You work independently, with high technical expertise and a pragmatic approach. 
+You can communicate complex security requirements clearly and in a comprehensive manner. 
+Your German (at least C1) and English skills are very good in spoken and written. 
+ð ¡Werworthy:
+You have experience with Snyk or other security tools.
+You know the developer perspective and have practical experience in software development.
+You have knowledge of the introduction of RPA and Genai-Lösungen.
+ Team Your potential new team has so far consisted of a cyber security specialist and your team lead. Application process 
+In order to get to know each other at the beginning and to climb the first skills, there is an approximately 1 stubborn digital team interview with the team leader of the ERP development department
+If there is still interest from both sides, we want you to get to know the team and the team too. That is why an approx. 2-3 stubborn trial day takes place, on which you will get to know the work in the team and the team in general, you will also get a short test task that you should independently and which will be discussed afterwards.
+If you and the team find that it fits great after the trial day, you will get your indefinite contract from us in the next step and we welcome you to the JTL family :)
+ The company JTL software is a provider for innovative software that facilitate their own businesses in online and mail order, including the factory management, shop system, warehouse management or cash register system. With more than 50,000 customers and 500 partners, JTL is one of the leading manufacturers of e-commerce solutions in German-speaking countries. You are committed, curious, do you want to teamwork and responsibility? Are you looking for a job where Monday is not the most terrible day of the week? Then we look forward to your application! Who we are? JTL software nowadays around 200 employees at four locations. In the past ten years we have established ourselves as fixed size of the German e-commerce industry. In this way we are constantly developing our software, like to explore unknown terrain and are always open to clever ideas. Fairness and respect are usual practice. With over 50,000 customers and 500 partners, we form a lively community that continuously puts on new projects together and drives clever software openings in online trade, but also in stationary trade.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:51</t>
+          <t>2025-06-15 22:27:38</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1755,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Join the Digital Career Institute Working hours: Part-time (16h/week) Contract type: Permanent position Location: Remote within Germany  The Digital Career Institute (DCI) is looking for an AWS Trainer to support our online courses and help participants take their first steps into the world of cloud technologies and DevOps.  Our English AWS course starts regularly with live classes in the morning hours from Monday to Thursday.  Are you an experienced AWS professional or DevOps engineer who would like to share your expertise and enthusiasm as a trainer with our participants?  At DCI, we value up-to-date and high-quality course content to provide our motivated graduates with the perfect entry into the job market.  Our courses include ready-made slide decks for theoretical learning and detailed material for hands-on application.  Key course topics include:  AWS Core Services (EC2, S3, IAM, Lambda, etc.) Cloud Infrastructure &amp; Architecture DevOps Tools &amp; CI/CD Pipelines Infrastructure as Code (Terraform, CloudFormation) Monitoring &amp; Security Your purpose:   Youâll support our participants from basic cloud literacy to their first industry-recognised AWS certification and help them launch their careers in IT.  You're able to explain even complex cloud concepts in a simple and engaging way, tailored to learners with varying levels of experience.  Likewise, you're confident with online teaching tools and foster a learning environment that embraces curiosity, trial-and-error, and growth. Your Tasks  Deliver engaging live lessons using practical examples and hands-on tasks Guide students throughout the course and support them with questions, challenges, and individual progress Contribute to course improvement by giving feedback and sharing your ideas with the team  Your Skills  Degree in IT/Cloud Computing or a related field â or equivalent hands-on experience Several years of professional experience in AWS environments and DevOps practices Passion for cloud technologies and teaching First teaching/training experience (a plus, not a must) Strong communication skills and empathy â you enjoy making complex topics easy to grasp Familiarity with online teaching tools and collaborative learning platforms  Your Benefits  Work 100% remotely from anywhere in Germany â with fixed teaching times and flexible scheduling for the rest Meaningful permanent role with social impact â you empower learners to access new career opportunities Urban Sports Club membership to keep you active Mental health support via our partner Nilo A supportive and diverse team thatâs always here to help Regular team events to celebrate milestones and build strong connections Workation within the EU possible</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:54</t>
+          <t>2025-06-15 22:27:41</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1792,40 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>As a subsidiary of one of the largest independent software houses in Germany, our customer specializes in specialist software for private users. In the specialist segment, our customer is market-drivers with the associated web and mobile applications and is awarded regularly with prices. For the location in Mannheim, our customer is looking for a qualified: Azure Devops Engineer (m/f/d) Job-ID: â CF-00006610ort: â Mannheimremotem-klaptâ/â Home Office: â 80%Main tasks:
+Use of Azure Devops for the development and maintenance of CI/CD pipelines based on Yaml
+Maintenance, scaling and monitoring of self-hosted build agents with a focus on stabilizer and performance
+Management of GIT repositories in Azure Repos under consideration of industry strategies, code reviews and pull requests
+Use of helmet for the management and spreading of Kubernetes desployments as well as adaptation of helmet charts to project-specific requirements
+Dealing with Kubernetes resources such as deployments, configmaps, secrets and services
+Passing error analyzes based on logs and events using tools such as Kubectl logs
+Implementation of suitable deployment strategies, such as rolling updates, and continuous optimization of existing yields
+Configuration and support of FileBeat for logging in logging stacks such as ELK or OpenSearch
+Application of well-founded knowledge of dealing with multiline logs and efficient use of prospector configurations
+Use of dockers to support local development environments and containerization
+Safe handling of the Linux console for debugging, automation and problem analysis
+Your technical requirements:
+Well-founded experience with CI/CD tools such as Azure DevOps and Infrastructure-As-Code methods
+Practice in the Kubernetes-eSy system and the management of complex container infrastructures
+Hand-on experience with logging stacks and a lifted out security and company usage
+Good knowledge of Python â etch. For automation, scripting or dealing with API interfaces
+Good knowledge of German
+Your personal requirements:
+Self -organized
+Structured " 
+Team player
+Our client offers:
+Working in ambitious, innovative projects in a committed and likeable team
+Exciting, varied tasks and numerous further training opportunities
+Excellent development prospects
+30 days of vacation, abundant performance, kindergarten subsidies
+Employee discounts from well-known brands (e.g. amusement parks, cinemas, VPN providers, kitchen appliances, sports products and much more) by cooperation with corporate benefit
+State -of -the -art technology and bute equipment, open and dynamic structures</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-15 21:24:59</t>
+          <t>2025-06-15 22:27:45</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1857,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Your high speed mission About Baqend Slow websites suck! Of 3.5 hours you spend online each day, 20 minutes are wasted waiting for websites to load. In your life, you will waste one whole year. Join our mission of building a web without loading times to make all Internet users happier. Our product Speed Kit is the all-in-one page speed tool and accelerates websites worldwide, including market leading companies like BMW, Zwilling and GANT. Our world-class team uses the latest web technology trends to make our customer websites up to 4x faster and to improve the user experience for 300 million users per month.  Sounds exciting? Come on board and help us so that no one has to suffer from lost time!  Within our Web Performance Intelligence Team we are providing insights into the data of &gt;300 million monthly users with the corresponding requests per minute (&gt;&gt;100k). We analyse performance and e-commerce data as well technical signals from browsers to perform production A/B tests and monitor customer websites. Insights are shared with customers, implemented by our integration teams or fed back into development of our product in order to constantly improve it.  To support this we are now looking for a team member in the position of a (Senior) Data Product &amp; Visualization Analyst (all genders) in full-time either remote or hybrid.  About Your Role As a (Senior) Data Product &amp; Visualization Analyst, you will play a crucial role in transforming raw data into meaningful insights that drive decision-making across our teams and for our customers. Your mission is to analyze, visualize, and communicate the impact of Speed Kit on customer websites, ensuring that both internal and external stakeholders can leverage data effectively.  You will work at the intersection of data analysis, visualization, and product development, collaborating with business units, integration teams, and data engineers to enhance our analytical capabilities. By creating compelling data stories and intuitive dashboards, you will help shape our customers' understanding of performance improvements and identify new opportunities to optimize web experiences.  If you love diving into data, crafting powerful visualizations, and making complex insights easy to grasp, this role is for you!  About your potential tasks  You analyze how various User Experience (UX) aspects on our customers websites improve with Speed Kit during A/B-Tests You identify potential UX issues and conduct root cause analysis with our real-user monitoring, e.g. Click Analysis, User Journey Analysis You derive generalized standard UX analysis where possible (working with our Jupyter Notebook-based Hex Technologies Stack) You use browser dev tools in order to get a better understanding of potential UX issues and get hints about what to look for in the data (e.g. a certain button is not working, causing rage clicks) You work closely with our data engineering, product development and customer facing teams to understand and help communicate potential UX issues and opportunities You develop or showcase new approaches to evaluating UX with quantitative analysis and propose advancements of our real-user monitoring tracking if needed You actively share your knowledge and interesting cases within the company throughout various formats, e.g. weekly Data Analytics Q&amp;A, regular company wide knowledge sessions, internal knowledge data base If you are up for it, we would also support you sharing your knowledge about quantitative UX Analysis externally, e.g. via our company blog, meetups, conferences  Your ticket for our spaceship  Your background is diverse? You are a Data Expert since ever? Great!, we don't care whether you have a degree or are a career changer, we believe in skill here and now and in diverse backgrounds! You bring at least 2 year practical experience in a similar position You are experienced in data retrieval and analysis via SQL You are experienced in the conception and implementation of effective data visualization, e.g. via Kibana/Tableau/Power BI/DataStudio, Google Sheets and/or Excel, Python and/or R Youâre good at storytelling with data and communicating complex topics You are a solution oriented, analytical thinker You like to work independently with a high level of responsibility and a structured approach. You have gained experiences with statistical methods  Why get in?  Remote-first: You can work 100% remote within Germany, if you want to We set you up with your remote office work station from screen to office chair Pick your OS: You can freely choose your OS between Mac, Windows or Linux Beautiful office: Work in the heart of Hamburgâs Schanzenviertel Pet-friendly office: Youâre always welcome to bring a furry friend Awesome coworkers: Join a competent, humorous crew Flexible work: Work on a full-time or part-time schedule Regular team events: Join our non-binding</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:01</t>
+          <t>2025-06-15 22:27:49</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1894,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We are looking for you! For an IT house, which is operating throughout Germany, we are looking for a cloud engineer (GN) in full or part-time, as quickly as possible, as IT companies, as IT companies, and stands for absolute reconciliation of family and work, which is also available in the wide range of benefits. This is reflected at your new employer: gross annual salary up to 70,000 from the experience/qualifications (tariff) full/part-time (VZ 38H week) work as you need, for you and your family high-professional on-boarding including career prospects such as daycare benefits, Ã pnv ticket, bicycle leasing etc.) Super connection with ã pnv or car (parking space on site) and much more. The tasks as a cloud engineer: You pretend the optimization or automation of work in everyday work or make the life of Linux/Windows/network and storage colleagues in the administration using an inhabitant U.Se.Du are responsible for the automation infrastructure on-prem (Kubernetes, AWX etc.) You also develop the automation framework as well as the associated workflows and web services (python etc.) You act problematic-oriented and always search for optimization following Studies (computer science) or training as an IT specialist for system integration with including experience as devops or as a cloud engineerer experience with Linux, Python but also Kubernetes, Ansible or ABSOLUTE Safe in German and English is nice to design the future of tomorrow! We are still looking forward to your application and will be happy to advise you individually. Interested? The fastest way to us is going to the competition button! If you have any questions, your personal HRVST contacts you. Therefore, severely disabled and equivalent are preferred with the same suitability.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:04</t>
+          <t>2025-06-15 22:27:52</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1931,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We are looking for you! For a large company from the Effective sector (tariff) we are looking for a submissive gire (GN) in full or part-time. Our customer offers a variety of different services in the area of ​​sustainability. The company stands for long -term experience, quality, reliability and top customer satisfaction. That awaits you from your new employer: up to 70,000 â â £ annual salary depending on experience/qualification13. Monthly salary (tariff) full-time at 38 hours 30 days vacation plus New Year/Christmas Hybrides Working model with maximum flexibility perspective Development perspective in the corporate environment including academy and a fixed training budget goodies such as company day care center, free electricity tank and much more. Administration of the cloud solutions Implementation of cloud-specific security mode including authorization concept integration of new cloud platforms/service of the 2nd level support including change-frequests/emergency chance. Market condensation of all security provision with other specialist areas with regard to the definition documentation and quality of quality. or AWS, AZURE etc.) Ideally experience with cloud solutions in on-premise architectures as well as with entrance experience with infrastructure-as-code, Ansible, terraform, etc. and ideally English desire to leave your footprint! We are still looking forward to your application and will be happy to advise you individually. Interested? The fastest way to us is going to the competition button! If you have any questions, your personal HRVST contacts you. Therefore, severely disabled and equivalent are preferred with the same suitability.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:08</t>
+          <t>2025-06-15 22:27:56</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1968,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the site as a senior network engineer (m/f/d) at Sycor GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany and the other.  The language requirements for this position are: English- conversation-proof, German- Flieã end planning, structure and operation of complex wan, LAN/WLAN and security environments â That is exactly your thing? Do you know your way around with MPLs, IPSec, NGFW, Cisco Aci and Azure? Then support us as a network engineer! Activity 
+As a senior Network Engineer, you are responsible for planning, building and operating complex wan, LAN/WLAN and security environments.
+You are going through the work of the WAN infrastructure based on MPLs, IPSec/DMVPN and SD-WAN.
+For this purpose, the structure of network hosting infrastructures based on Cisco ACI and in the hybrid cloud context (Azure, AWS)
+Making complex troubleshootings and problem analyzes in the Daily Business (2nd/3rd level) is not a problem for you.
+The development of automated transfers in the structure and operation as well as the independent advice and support of long -wing customers and new customers complete your area of ​​responsibility at Sycor.
+ Requirements 
+You will have a completed study or training in the area of ​​IT as well as multi -day professional experience in the administration and the operation of Cisco -based networks (LAN, WAN, possibly WiFi).
+We require a secure handling of security products such as Cisco Secure Firewall, Umbrella and 802.1x in connection with Cisco ISE.
+You bring well-founded experiences with concepts for micro seedment, sauce or the hybrid cloud network.
+You can handle a scripting language (e.g. Python) to further develop the topic of DevOps.
+You also have one or more Cisco certification/EN at CCNP level.
+Occasionally on-call duty (6-like rhythm) is not a problem for you.
+ Application process 
+First to get to know each other with the Sycor recruiting team 
+Conversation with the department 
+Personal conversation (on site or remote) 
+your new employment contract and onboarding at Sycor ð over the company as a partner for the digital transformation in medium -sized companies, we have developed into a worldwide performance company with currently around 550 employees and eight locations in three lines in 1998. entire value chain. We harmoniously integrate individual solutions into existing infrastructure and application landscapes - or build new ones in full. Finely tailored to the requirements, we implement cloud, on premise or hybrid solutions and operate them. As Microsoft and SAP partners, we are broadly positioned: Our portfolio includes solutions and services for central ERP products, customer relationship management (CRM) and at the same time for all up and downs Leaks. Our expertise also covers the topics of Enterprise Content Management, Unified Communications and Collaboration, IT-Outsourcing to Full Outsourcing, Software Asset Management, Security and Networks. For Industry 4.0, Internet of Things (IoT)-and big data question, we find customer-specific solutions. You want to work independently, make progress in a technical point of view, and in a value-added team of innovative IT solutions? Then come to Sycor! Â Whether you are at the beginning of your professional career or in the middle of life whether you want to gain experience or advance projects with your deep expertise â We offer you a versatile field of work. With our four Business Unitsâ SAP, â Microsoft D365, Cloud Technology Servicesâ and Commercial Excellence. Communication technology. We are always looking for people who support us with know-how and a large portion of team spirit for all three IT areas as well as for our merchant departments such as controlling, finance, purchasing, personnel, marketing and sales.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:11</t>
+          <t>2025-06-15 22:28:00</t>
         </is>
       </c>
     </row>
@@ -1534,12 +2022,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as Senior Devops Engineer (m/f/d) at Xalt Business Consulting GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany, Ü Sterreich and Switzerland.  The language requirements for this position are: German - Flieã End, English - Flieã End The ownership of XING does not necessarily correspond to the salary span of this job offer.  Are you a talented Linux Administrator / Devops Engineer and looking for new opportunities in cloud computing and infrastructure as code? You work â like we like to work with Tech &amp; Tools Wieâ AWSâ (e.g. VPC, IAM, EC2, RDS, S3, Lambda, Kinesis, Route53, Cloudformation, NLB), Azure, Configuration as Code/CAC (e.g. Ansible, Terraform, Puppet, AWS System Manager) â Docker, â Kubernetesâ (Rancher, Kops, EKS), Git, Jenkins, Bamboo, Gitlab (CI/CD), IAC (AWS Cloudformation), â Atlassianâ (Jira, Confluence, Bamboo, Bitbucket, Opsgenie) etc.? Do you fancy exciting and varied projects? ð ð »Then become part of Team Xalt and support our DevOps &amp; Infrastructure Team in München, Leipzig and/or Remote! Activity 
+You advise our customer whether and how their current IT services and software can be migrated to a cloud
+You are planning and ensuring the provision of highly opaque, fault-tolerant and scalable cloud solutions
+You design and optimize Cloud architectures
+You go through cloud migration projects
+You move in a strongly agile environment and you can actively help shape the software nations through your ideas.
+You analyze requirements, subordinate to the control and coordination of the technical/technical design and evaluate existing and new solutions and concepts
+ Requirements 
+You bring successfully completed projects and multi-year-old experience with cloud, devops, devsecops, SRE concepts or devops tools and technologies
+You are motivated to constantly develop yourself in the field of Devops and Cloud, to try new things and to test the latest technologies
+You have knowledge of the Continuous Integration &amp; Continuous Deployment (Bamboo, Jira, Confluence, Jenkins, Ansible, Docker, Kubernetes)
+You bring knowledge of infrastructure as code (Ansible, Terraform)
+Ideally you are already cloud/AWS certified or are interested in getting certifications with our support
+ Team as DevOps Engineer / Cloud Engineer You work in close cooperation with the other DevOPS colleagues on innovative automation solutions and support our Atlassian Consultants in the digitization solutions of our customers application process in the application process! You don't expect nasty questions or test situations. :) You will take the first getting to know me with me (personnel management). In this conversation, I would like to get to know you and talk to you about your expectations and your previous experience. Here I would like to give you a first insight into our team Xalt. You will then be able to start with an experienced colleague from the Devops team. ð ð ð »Over the company Xalt develops submissive and IT infrastructure and enables teams to work together efficiently. We help companies to launch digital products faster, bring teams together and accelerate the digital transformation. And we would like to become part of it! Our customers are some of the most innovative and emerging companies in the world. In addition, companies from the areas of production, finance, e-commerce and state institutions are used. The company had to release and test software and test that everything was compliance-appropriate and safe. The lack of the right tools, corporate culture and way of thinking made the cooperation between departments and teams. We take over the difficult but indispensable task of developing submissive and collaboration solutions so that companies and teams can concentrate on real added value for their customers and users. And have a lot to do before we are at our goal, which means that you have the unique opportunity to help us to simplify complex IT problems and enable companies to hide</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:15</t>
+          <t>2025-06-15 22:28:04</t>
         </is>
       </c>
     </row>
@@ -1571,12 +2072,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Our client is a leading German company in the area of ​​network infrastructures and IT security. With innovative solutions, it is subject to customers when planning, implementing and optimizing modern networks. To compensate for the team, a senior network engineer (GN) is sought, which brings well -founded knowledge of HPE Aruba products. Your benefits: Flexible working hours with 30 days of vacation home office 80% attractive additional services: fitness studio subsidy, company pension scheme, bike leasing further training opportunities in the company's own academy employee discounts and special leave for special initial options for mobile work in the EU-Ausland &amp; Regulation events your tasks: planning, design and implementation High-one network and security and security with HPE Aruba Analysis, optimization and error correction of network and security infrastructures Technical advice and support of customers for new network technologies. Profile: multi-year-old experience as a network engineer or in a comparable role in-depth knowledge of network technologies (LAN, WAN, WLAN, SD-WAN, VPN, BGP, OSPF, MPLS, QOS) Aruba certification&gt;/over Associate (ACSP, ACMP, ACMX, ACDX) safely in dealing with network management and Monitoring tools very good German and English skills in the word and writing type: unlimited permanent position in full-time starting date: as soon as it may work: HomeOffice contract! Modern Büro -Rocolor's plan at 10 locations in Germany (welcome at any time, no obligation to attend!) Reference: Job3699 Apply now! Do you want to learn more? Then contact me, Helmut Mathy. Please send me your application documents to h.mathy@füntenberg.de or contact me by phone at +49 (0) 89 443603 62 for further details. Over us: Greifenberg are specialized personnel consultants in the areas of IT/SAP, e-commerce, finance, logistics and engineering. We see ourselves as an international personnel consultant who work with extended customers and also extended candidates. Our processes are efficient and uncomplicated. We attach great importance to excellent service, work in a lot -oriented and naturally discreet.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:17</t>
+          <t>2025-06-15 22:28:09</t>
         </is>
       </c>
     </row>
@@ -1608,12 +2109,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested as a machine learning engineer (m/f/d) at Copitos GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - native language level.  We, Copitos GmbH Part of Evoila, are looking for a senior machine learning engineer (m/f/d) within our joint company network. You are burning out for Kuerstliche Intelligence and machine learning? At EVOILA we are looking for a creative and committed Senior Machine Learning Engineer (m/f/d) that drives us innovative projects and sets new technological MAEBE. In terms of a unit lead role, you can become part of our team and you want to bring your leads into exciting projects, then this position is just the right thing for you.
+Construction and conception of machine learning surgery platforms
+Development and design of machine learning services that you can use to create and provide innovative solutions based on existing machine learning models. You work in various industries on exciting and challenging use cases, such as the processing of data quantities or the structure of agent-based AI systems.
+ Requirements 
+More than 5 years of experience in the development of machine learning -based applications or the training of machine learning models and the deployment of models in production
+Ideally, you will have experience in the team walks, since the consumption of a unit lead role is possible in terms of perspective.
+Experience in the deployment and the optimization of ML workloads in virtualized/container-based environments
+Good knowledge of DevOps/MLOPS tools and cloud computing (e.g. Kubernetes, vSphere, hyperscaler)
+Well -founded knowledge of computer science, mathematics or a related specialist area
+Mastery of programming languages ​​e.g. Python, R
+Experience with gamen ML frameworks and libraries (e.g. Tensorflow, Keras, Pytorch)
+Well -founded knowledge of data structures, algorithms and computer science
+PronFored problem-reliefs and the ability to work for work as well as excellent communication and team fully
+ Team we live team spirit and are constantly driven in innovation drives and keep the pulse of the times. On the basis of this claim, we still remain soil and offer solid and stable framework conditions to give you the space that you need for your personal and professional development. Application process at the start after you have applied, we will order the receipt of your application. Or possibly to another point? Telephone interviews would speak to you personally and ask further questions about your application. Onboarding phase with the sending of the employment contract. Experience the Copitos Spirit! Copitos Part of Evoila is a medium-sized company that is ownered and offers you exactly the spirit that you need as the next one: the Copitos Spirit. We thus combine first -class perspectives for your vita, lots of performance, exciting project tasks and lots of values ​​that give you the good feeling of working in a human, sustainable and socially committed company. With our two locations in Frankfurt and Ravensburg, we build a strong broken brisk between tradition and modernity. On the basis of this claim, we still remain soil and offer solid and stable framework conditions to give you the room that you need for your personal and professional development. Copitosmit Consulting, development and support we offer our customers an all-round carefree package from a single source. Excellence and professional competence come first for us. That is why the Copitos team sees itself as an extended team of our customers. Our dynamic working style is of team spirit, flexibility and one</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:20</t>
+          <t>2025-06-15 22:28:12</t>
         </is>
       </c>
     </row>
@@ -1645,12 +2159,43 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Are you interested in the place as Devops Engineer (F/M/D) at 58agets GmbH?  On the job platform Instaffo you can apply for this and other jobs without great effort. Create your profile in less than 3 minutes and start the application process with just a few clicks.  Please note that the position can only be made for applicants from Germany.  The language requirements for this position are: German - Flieã End, English - Flieã End Welcome to 58 agents! We are a young and dynamic company in the field of digital product development. Our employees are our employees, our teams, which are established in the market with industry-ripening hands-on expertise. As a company, we grow sustainably and therefore offer not only innovative projects, but also exciting perspectives for the personal development. As an owner -based company, we attach great importance to creative, innovation, short decision -making channels and a healthy team culture. We can expect an inspiring work environment in which your ideas are made and you can actively participate in our success. Become part of our committed team and shape the digital future of the 58 agents and our customers with us! Total activities as Devops Engineer at 58 -agents you work on exciting customer projects â mostly embedded in agile teams on site or remote. You support modern DevOps practices and architectures sustainably and bring your know-how along the entire software lifecycle.
+Implementation and optimization of modern operating architectures (Z.â &lt;b. Kubernetes, cloud native stacks)
+Automation of build, test and deployment processes
+Construction and further development of monitoring, logging and security solutions (Devsecops)
+Technical adjustments to software to improve non-functional properties
+Cooperation with customer teams for the requirement for requirements and finding the solution
+Special feature: You are actively integrated into the project acquisition â Both when brokerable on consulting mandates and in the extraction of entire projects. This means specifically:
+You participate in the preparation of your profile (CV-tuning, project history, skill matching)
+You take part in screening discussions and interviews with customers and use your professional and personal competence
+In the acquisition of project responsibility (Z.â ϕ MVPS, digital products) you work on technical concepts, expenses and offers with
+You bring your own ideas and experiences in presales phases, tenders or pitches
+So you actively contribute to not only filling projects, but also successfully designing. You should have requirements:
+Completed studies in (economic) computer science or a comparable technical conclusion
+At least 3 years of professional experience as DevOps Engineer or software developer in agile teams
+Practice in the implementation of CI/CD pipelines, ideally with tools such as Github Actions, Gitlab CI/CD, Argocd or Jenkins
+Very good knowledge of dealing with containers (docker) and container orchestration with Kubernetes
+Experience with at least one large cloud platform (AWS, Google Cloud or Azure) 
+Knowledge of Shell scripting and at least one programming language (Python, JavaScript, Go, O.â ϕ.)
+Understanding for Clean code, testing strategies, infrastructure as code (Z.â ϕ Terraform, Pulumi, Ansible) and modern deployment strategies (Blue/Green, Canary, etc.)
+Independent, structured way of working in complex environments
+PronFored communicative Fäuen â You can explain technical content in line with addressee
+Nice to have:
+Certifications in the cloud or DevOps environment (Z.â ϕB. AWS, GCP, CKA, Hashicorp)
+Experience with full-stack development (Z.â &lt;b. With TypeScript, React, node.js)
+Knowledge of software architecture, system design or IT security
+Interest in participating in presales phases, tenders or internal innovation projects
+Also important:
+You have already worked as an external consultant or have deliberately growing into this role
+You bring the â consultation with: you perform professionally, think customer -oriented, act independently and enjoy bringing projects together with the customer
+You are ready to work at the customer on site if necessary, to build trust and achieve a real effect
+ Team you become part of an experienced, entrepreneurial team that connects advice and technology at a high level. We are not classic agents - but consultants: Inside with a clear claim: create real added value and take responsibility for the customer. What distinguishes us:
+We think entrepreneurial, act independently</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:23</t>
+          <t>2025-06-15 22:28:16</t>
         </is>
       </c>
     </row>
@@ -1682,12 +2227,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Role:
+Automation of infrastructure and deployment processes with terraform and Ansible
+Provision, operation and optimization of Linux/Windows servers as well as docker and Kubernetes environments
+Supporting DEV teams in the further development of CI/CD pipelines
+Analysis of technical problems and identification of sustainable solutions
+Responsibility for a stable and safe technical platform in Devsecops environment
+Qualifications:
+Experience with Terraform, Ansible, Gitlab, Docker, Kubernetes and Cloud environments (Azure, vSphere)
+Knowledge of monitoring and security tools such as Grafana, Sonarqube and Dependency Track
+Enthusiasm for automation and continuous improvement
+Communication stall and team feast
+Spaã on the transfer of knowledge and working with other teams
+Benefits:
+Participation in health measures
+Attractive achievements in the event of illness or accident
+Coaching and mentoring
+Flexible working time design
+Home office
+Free freewhe
+Numerous employee events
+Attractive employee discounts
+Open corporate culture
+Well -rehearsed and dynamic team
+Comfortable Büro with modern infrastructure
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:26</t>
+          <t>2025-06-15 22:28:19</t>
         </is>
       </c>
     </row>
@@ -1719,12 +2288,40 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä
+*** Developer-friendly DevOps consultation â Your chance to help shape the digital change *** For the corporate technology enthusiast from the Grroã Raum Frankfurt, the company supports end customers, independently of their size or industry, on their digital journey. The focus is on software development and advice, whereby the teams are using the latest technologies to develop innovative solutions. The company has been founded by developers for developers and has developed into a Mecca for developers and engineers in the past 20 years, in which state to art individual software is written .hard-facts
+We are looking for profile: DevOps Consultant
+Product: Individual software for exciting end customers
+Location: Groã Raum Frankfurt
+Employees: approx. 180
+Corporate language: German
+Established on the market for 20 years
+To the role / tasks
+You play a key role in the advisory team for cloud and devops solutions where you have freedom to develop creative solutions and continuously expand your expertise. Your liability to convey complex technical concepts in a comprehensive manner enables the end customers to expand their know-how in the area of ​​cloud and submissive.
+You are involved in both planning and implementation and take responsibility for the development of Maã-tailored solutions in our customers' cloud and submissive environment. With your professional appearance, you will work workshops and training to ensure that our customers benefit optimally from our services.
+You are able to look after projects independently or successfully in the team, whereby you always ensure a high quality standard and the needs of the end customers in the best possible way.
+Your profile
+Long-term experience in the DevOps industry with a focus on cloud technologies (Azure, GCP, AWS or Stack IT).
+Extensive knowledge of Infrastructure as Code (IAAC) and the automation of infrastructures, including Kubernetes, Terraform, Grafana and Prometheus.
+Existing certifications in the tools or cloud area are desirable.
+Independent, agile way of working
+You are happy to let your colleagues participate in your expertise
+Professional customer contact is of course for you
+Excellent German and English skills in word and writing.
+Willingness on occasional business trips as part of projects.
+Benefits
+Entry content: up to 100,000.00 â â (depending on the previous experience)
+Flexibility: 100% remote with project -related traveling to travel
+Vacation: 30 days
+Special payments
+Further training budget IHV 2000.00 â â â â â â â â â â â â â â â â â â â â â â â â â â.
+Family working atmosphere and an environment of developers for developers
+Contact - Let's Talknil's Wiesemanaging Director | Permanentfindyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:29</t>
+          <t>2025-06-15 22:28:22</t>
         </is>
       </c>
     </row>
@@ -1756,24 +2353,58 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä *** think digitally. Moving Germany. *** For the entrepreneurship, dynamic and innovative companies specialize in digitization of Germany and is on the move in various exciting areas (e-mobility, energy, e-health, ÖFCHAFT-BAHRAGER and much more, ..). Due to the long-wing experience and expertise, you can offer your customers tailor-made solutions in the areas of software testing, IT consulting and business consulting. The team consists of highly qualified and motivated employees who have the aim of moving something and promoting their customers' success. The teams attach great importance to excellent results and always have fun at the work.hard facts:
+Industry: IT consulting house (focus: digitization of Germany)
+Location: Berlin and/or 100% remote
+Employee: ~ 250
+Corporate language: German
+To the role / tasks
+â â â â â as an experienced consultant you integrate your specialist knowledge directly into projects and inspire the team with your commitment and your services.
+As a DevOps expert, you enthusiastically accompany the entire development process of the customers and set Maãste with your expertise and dedication.
+You are automation fan and ensure smooth build, test and deploy processes from the start.
+Your expertise in Infrastructure-As-Code (IAC) Tools enables muhelose automation of customer infrastructure and fades efficient working methods.
+With a watchful look, you continuously optimize the customer infrastructure for maximum performance.
+You are intensively committed to alerting, monitoring and tracing to ensure smooth operation and tackle problems.
+Your welfare for cooperation in agile cross-functional teams according to Scrum or Kanban is particularly in demand.
+Thanks to your committed and independent way of working, you make a significant contribution to the smooth functioning and success of the developed applications.
+You will do it through your competent representation of the operating perspective against development teams, product owners and other project participants and thus make a long time to the success of the project.
+Your profile
+You have extensive experience in the DevOps area, whereby you were previously in software development.
+Good knowledge, especially in Java, Kubernetes, Terraform, Ansible, Git, Docker and Microservice Architecture.
+Nice to have: Helm, Grafana, Prometheus, Jira
+You have experience in implementing CI/CD pipelines as well as in the development and provision of Java and web applications.
+You are familiar with microservice architectures and the design of APIs, including rest and messaging.
+You have a fundamental understanding of network infrastructures, including routing, loadbalancing and DNS.
+Your experience in working in agile, cross-functional teams is a great advantage
+You are communicative and inspire yourself for the consulting business
+Very good knowledge of German and good English skills are a prerequisite
+Benefits
+Entry content up to 100,000.00 -(depending on the previous experience)
+Work-life balance:
+Vacation: 30 days
+Flexible working hours
+100% remote (with 20% traveling)
+Support in your individual pension.
+Further training: individual fu¶rdungen and career paths
+Individual training opportunities as well as modern equipment, also for working at home, are of course and are the focus of your personal and professional development.
+Contact - Let's Talknil's Wiesemanaging Director | Permanentfindyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:33</t>
+          <t>2025-06-15 22:28:28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AI Lead Engineer (m/w/d)</t>
+          <t>Senior AI / Data Science Engineer (m/w/d)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1788,17 +2419,44 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/mannheim-ai-lead-engineer-136342857</t>
+          <t>https://www.xing.com/jobs/hannover-senior-ai-data-science-engineer-136342856</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>As a subsidiary of one of the largest independent software houses in Germany, our customer specializes in specialist software for private users. In the specialist segment, our customer is market-drivers with the permitted web and mobile applications and is regularly awarded with prices. For the Hannover or Full remote location, our customer is looking for a qualified: Senior AI / Data Science Engineer (m/w/d) Job-ID: â CF-00006606ort: â Hannover/Remoteremotemotemi possibilities "Home Office: â up to 100% remote promotion tasks:
+Development and implementation of innovative solutions with Retrieval Augmented Generation (RAG) and Large Language Models (LLMS)
+Selection of suitable model architectures as well as the participation of training, evaluation and optimization
+Construction of data pipelines for preparation, extraction, transformation and integration of data
+Optimization of interfaces between data sources and deep learning models
+Use of vectord data banks to provide current and customer -specific information
+Development of efficient retrieval mechanisms for marketable products
+Conception of algorithms for document recognition and categorization by LLMS
+Cooperation in an interdisciplinary team of technology and specialists
+Your technical requirements:
+Practical experience with vectord databases and deep learning models, especially LLMS and RAG, in practical use
+Deep knowledge of data preparation and processing from various sources (APIs, databases, documents) for AI workflows or machine learning pipelines
+Very good programming knowledge in Python
+Understanding for relational and nosql databases such as postgrees and Mongodb as well as search technologies (e.g. elasticsearch)
+Experience with scalable systems and unstructured data processing (e.g. NLP, text mining)
+Experiences with MLOPS/DevOps tools (e.g. Docker, Kubernetes, CI/CD) are an advantage
+Very good knowledge of German in spoken and written
+Your personal requirements:
+Team
+Creativence &amp; interest in new technologies
+Abstract sequence of thinking and analytical facilities
+Our client offers:
+Working in ambitious, innovative projects in a committed and likeable team
+Exciting, varied tasks and numerous further training opportunities
+Excellent development prospects
+30 days of vacation, abundant performance, kindergarten subsidies
+Employee discounts from well-known brands (e.g. amusement parks, cinemas, VPN providers, kitchen appliances, sports products and much more) by cooperation with corporate benefit
+State -of -the -art technology and bute equipment, open and dynamic structures</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:35</t>
+          <t>2025-06-15 22:28:32</t>
         </is>
       </c>
     </row>
@@ -1810,7 +2468,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1825,29 +2483,56 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/hannover-ai-lead-engineer-136342858</t>
+          <t>https://www.xing.com/jobs/mannheim-ai-lead-engineer-136342857</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>As a subsidiary of one of the largest independent software houses in Germany, our customer specializes in specialist software for private users. In the specialist segment, our customer is market-fitting with the associated web and mobile applications and is regularly awarded with prices. For the location in Mannheim/Remote, our customer is looking for a qualified: AI Lead Engineer (m/f/d) Job ID: â CF-00006607ORT: â Mannheim/ Remoteremotemotem-klapâ/â HOME office: â up to 100% remote promotion tasks:
+Development and implementation of innovative solutions with Retrieval Augmented Generation (RAG) and Large Language Models (LLMS)
+Selection of suitable model architectures as well as the participation of training, evaluation and optimization
+Construction of data pipelines for preparation, extraction, transformation and integration of data
+Optimization of interfaces between data sources and deep learning models
+Use of vectord data banks to provide current and customer -specific information
+Development of efficient retrieval mechanisms for marketable products
+Conception of algorithms for document recognition and categorization by LLMS
+Cooperation in an interdisciplinary team of technology and specialists
+Your technical requirements:
+Practical experience with vectord databases and deep learning models, especially LLMS and RAG, in practical use
+Deep knowledge of data preparation and processing from various sources (APIs, databases, documents) for AI workflows or machine learning pipelines
+Very good programming knowledge in Python
+Understanding for relational and nosql databases such as postgrees and Mongodb as well as search technologies (e.g. elasticsearch)
+Experience with scalable systems and unstructured data processing (e.g. NLP, text mining)
+Experiences with MLOPS/DevOps tools (e.g. Docker, Kubernetes, CI/CD) are an advantage
+Very good knowledge of German in spoken and written
+Your personal requirements:
+Team
+Creativence &amp; interest in new technologies
+Abstract sequence of thinking and analytical facilities
+Our client offers:
+Working in ambitious, innovative projects in a committed and likeable team
+Exciting, varied tasks and numerous further training opportunities
+Excellent development prospects
+30 days of vacation, abundant performance, kindergarten subsidies
+Employee discounts from well-known brands (e.g. amusement parks, cinemas, VPN providers, kitchen appliances, sports products and much more) by cooperation with corporate benefit
+State -of -the -art technology and bute equipment, open and dynamic structures</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:38</t>
+          <t>2025-06-15 22:28:35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior AI / Data Science Engineer (m/w/d)</t>
+          <t>AI Lead Engineer (m/w/d)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1862,17 +2547,44 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/mannheim-senior-ai-data-science-engineer-136342859</t>
+          <t>https://www.xing.com/jobs/hannover-ai-lead-engineer-136342858</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>As a subsidiary of one of the largest independent software houses in Germany, our customer specializes in specialist software for private users. In the specialist segment, our customer is market-fitting with the affordable web and mobile applications and is regularly awarded with prices. For the location in Hanover or Full remote, our customer is looking for a qualified: AI Lead Engineer (m/f/d) Job-ID: â CF-00006608ORT: Remoteremotemotem-klapâ/â HOME office: â up to 100% remote promotion tasks:
+Development and implementation of innovative solutions with Retrieval Augmented Generation (RAG) and Large Language Models (LLMS)
+Selection of suitable model architectures as well as the participation of training, evaluation and optimization
+Construction of data pipelines for preparation, extraction, transformation and integration of data
+Optimization of interfaces between data sources and deep learning models
+Use of vectord data banks to provide current and customer -specific information
+Development of efficient retrieval mechanisms for marketable products
+Conception of algorithms for document recognition and categorization by LLMS
+Cooperation in an interdisciplinary team of technology and specialists
+Your technical requirements:
+Practical experience with vectord databases and deep learning models, especially LLMS and RAG, in practical use
+Deep knowledge of data preparation and processing from various sources (APIs, databases, documents) for AI workflows or machine learning pipelines
+Very good programming knowledge in Python
+Understanding for relational and nosql databases such as postgrees and Mongodb as well as search technologies (e.g. elasticsearch)
+Experience with scalable systems and unstructured data processing (e.g. NLP, text mining)
+Experiences with MLOPS/DevOps tools (e.g. Docker, Kubernetes, CI/CD) are an advantage
+Very good knowledge of German in spoken and written
+Your personal requirements:
+Team
+Creativence &amp; interest in new technologies
+Abstract sequence of thinking and analytical facilities
+Our client offers:
+Working in ambitious, innovative projects in a committed and likeable team
+Exciting, varied tasks and numerous further training opportunities
+Excellent development prospects
+30 days of vacation, abundant performance, kindergarten subsidies
+Employee discounts from well-known brands (e.g. amusement parks, cinemas, VPN providers, kitchen appliances, sports products and much more) by cooperation with corporate benefit
+State -of -the -art technology and bute equipment, open and dynamic structures</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:41</t>
+          <t>2025-06-15 22:28:40</t>
         </is>
       </c>
     </row>
@@ -1884,7 +2596,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1899,17 +2611,44 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/hannover-senior-ai-data-science-engineer-136342856</t>
+          <t>https://www.xing.com/jobs/mannheim-senior-ai-data-science-engineer-136342859</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>As a subsidiary of one of the largest independent software houses in Germany, our customer specializes in specialist software for private users. In the specialist segment, our customer is market-fold with the affordable web and mobile applications and will be awarded regularly with prices. For the location in Mannheim, our customer is looking for a qualified: Senior AI /Data Science Engineer (m /f /d) Job-ID: â CF-00006605ORT: â Mannheim / Remoteremotemotem-klapâ/â HOME office: â up to 100% remote promotion tasks:
+Development and implementation of innovative solutions with Retrieval Augmented Generation (RAG) and Large Language Models (LLMS)
+Selection of suitable model architectures as well as the participation of training, evaluation and optimization
+Construction of data pipelines for preparation, extraction, transformation and integration of data
+Optimization of interfaces between data sources and deep learning models
+Use of vectord data banks to provide current and customer -specific information
+Development of efficient retrieval mechanisms for marketable products
+Conception of algorithms for document recognition and categorization by LLMS
+Cooperation in an interdisciplinary team of technology and specialists
+Your technical requirements:
+Practical experience with vectord databases and deep learning models, especially LLMS and RAG, in practical use
+Deep knowledge of data preparation and processing from various sources (APIs, databases, documents) for AI workflows or machine learning pipelines
+Very good programming knowledge in Python
+Understanding for relational and nosql databases such as postgrees and Mongodb as well as search technologies (e.g. elasticsearch)
+Experience with scalable systems and unstructured data processing (e.g. NLP, text mining)
+Experiences with MLOPS/DevOps tools (e.g. Docker, Kubernetes, CI/CD) are an advantage
+Very good knowledge of German in spoken and written
+Your personal requirements:
+Team
+Creativence &amp; interest in new technologies
+Abstract sequence of thinking and analytical facilities
+Our client offers:
+Working in ambitious, innovative projects in a committed and likeable team
+Exciting, varied tasks and numerous further training opportunities
+Excellent development prospects
+30 days of vacation, abundant performance, kindergarten subsidies
+Employee discounts from well-known brands (e.g. amusement parks, cinemas, VPN providers, kitchen appliances, sports products and much more) by cooperation with corporate benefit
+State -of -the -art technology and bute equipment, open and dynamic structures</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:44</t>
+          <t>2025-06-15 22:28:43</t>
         </is>
       </c>
     </row>
@@ -1941,12 +2680,46 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä *** think digitally. Moving Germany. *** For the entrepreneurship, dynamic and innovative companies specialize in digitization of Germany and is on the move in various exciting areas (e-mobility, energy, e-health, ÖFCHAFT-BAHRAGER and much more, ..). Due to the long-wing experience and expertise, you can offer your customers tailor-made solutions in the areas of software testing, IT consulting and business consulting. The team consists of highly qualified and motivated employees who have the aim of moving something and promoting their customers' success. The teams attach great importance to excellent results and always have fun at the work.hard facts:
+Industry: IT consulting house (focus: digitization of Germany)
+Location: Berlin and/or 100% remote
+Employee: ~ 250
+Corporate language: German
+To the role / tasks
+â â â â â as an experienced consultant you integrate your specialist knowledge directly into projects and inspire the team with your commitment and your services.
+As a DevOps expert, you enthusiastically accompany the entire development process of the customers and set Maãste with your expertise and dedication.
+You are automation fan and ensure smooth build, test and deploy processes from the start.
+Your expertise in Infrastructure-As-Code (IAC) Tools enables muhelose automation of customer infrastructure and fades efficient working methods.
+With a watchful look, you continuously optimize the customer infrastructure for maximum performance.
+You are intensively committed to alerting, monitoring and tracing to ensure smooth operation and tackle problems.
+Your welfare for cooperation in agile cross-functional teams according to Scrum or Kanban is particularly in demand.
+Thanks to your committed and independent way of working, you make a significant contribution to the smooth functioning and success of the developed applications.
+You will do it through your competent representation of the operating perspective against development teams, product owners and other project participants and thus make a long time to the success of the project.
+Your profile
+You have extensive experience in the DevOps area, whereby you were previously in software development.
+Good knowledge, especially in Java, Kubernetes, Terraform, Ansible, Git, Docker and Microservice Architecture.
+Nice to have: Helm, Grafana, Prometheus, Jira
+You have experience in implementing CI/CD pipelines as well as in the development and provision of Java and web applications.
+You are familiar with microservice architectures and the design of APIs, including rest and messaging.
+You have a fundamental understanding of network infrastructures, including routing, loadbalancing and DNS.
+Your experience in working in agile, cross-functional teams is a great advantage
+You are communicative and inspire yourself for the consulting business
+Very good knowledge of German and good English skills are a prerequisite
+Benefits
+Entry content up to 100,000.00 -(depending on the previous experience)
+Work-life balance:
+Vacation: 30 days
+Flexible working hours
+100% remote (with 20% traveling)
+Support in your individual pension.
+Further training: individual fu¶rdungen and career paths
+Individual training opportunities as well as modern equipment, also for working at home, are of course and are the focus of your personal and professional development.
+Contact - Let's Talkhannah Rennerrecitment Consultantyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:48</t>
+          <t>2025-06-15 22:28:47</t>
         </is>
       </c>
     </row>
@@ -1978,12 +2751,38 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä
+*** Developer-friendly DevOps consultation â Your chance to help shape the digital change *** For the corporate technology enthusiast from the Grroã Raum Frankfurt, the company supports end customers, independently of their size or industry, on their digital journey. The focus is on software development and advice, whereby the teams are using the latest technologies to develop innovative solutions. The company has been founded by developers for developers and has developed into a Mecca for developers and engineers in the past 20 years, in which state to art individual software is written .hard-facts
+Searched profile: Devops Engineer
+Product: Individual software for exciting end customers
+Location: Groã Raum Frankfurt
+Employees: approx. 180
+Corporate language: German
+Established on the market for 20 years
+To the role / tasks
+In the role as DevOps Engineer (m/f/d) you combine technical know-how with a speeches for efficient transfers â and actively shape innovative, digital solutions.
+You work partly independently, sometimes in the team â always with a clear focus on quality and sustainable solutions. Instead of rigid processes, an environment awaits you in which technological curiosity, initiative and continuous learning are not only allowed, but but are tough.
+Here it is not the next Deadline, but the long -term value of your work â in a setup that offers freedom for personal development as well as for innovative technologies.
+Your profile
+Experience as a DevOps engineer with experiences in cloud technologies.
+Knowledge of Infrastructure as Code (IAAC) and the automation of infrastructures, including Kubernetes, Terraform, Grafana and Prometheus.
+Independent, agile way of working
+Professional customer contact is of course for you
+Excellent German and English skills in word and writing.
+Including occasional on -call duty if your expertise is required at short notice
+Benefits
+Entry content: up to 80,000.00 â â (depending on the previous experience)
+Flexibilite: 100% remote (including a small -scale on -call service)
+Vacation: 30 days
+Special payments
+Further training budget IHV 2000.00 â â â â â â â â â â â â â â â â â â â â â â â â â â.
+Family working atmosphere and an environment of developers for developers
+Contact - Let's Talkhannah Rennerrecitment Consultantyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:56</t>
+          <t>2025-06-15 22:28:56</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2804,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,12 +2814,41 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Wages - EUR60,000 - 70,000 role: More than just ITDU MUCHTE Test work on a stable IT infrastructure that ensures that medical diagnostics are exhausted at the highest level? Then come to our team! Our client is a provider of laboratory services that are working throughout Germany. With over 30 highly specialized medical laboratory locations, the company grows to the leading actors in the area of ​​human medicine diagnostics. In a strong network, medical know-how and digital infrastructure are combined and here you come into play. The tasks:
+You work in the DevOps model: You support applications in everyday operational life and in further development, closely interlinked with the developers.
+You operate central IT applications within the group-wide platform for laboratory data and communication.
+You will take responsibility for the stable, safe and performerant operation of these systems together with your team.
+You analyze stems and fix them independently, whether by scripting, configuration or system -related error diagnosis.
+You are a technical point of contact for internal teams and laboratories, from advice over rollouts to requirement management.
+You automate processes, get efficiency and optimize the operating cancellations.
+Qualifications: What you bring:
+A completed degree in the area of ​​(economic) computer science or a comparable qualification.
+Good knowledge of Linux environments (ideally red hat-based).
+Experience in IT administration and in the DevOps environment.
+Knowledge of SQL and experience with relational databases (ideally PostgreSQL).
+Experience in the development of Java applications or with automation tools such as Ansible are an advantage.
+Benefits:
+Canteen, food allowances and fortifications
+Participation in health measures
+Attractive training and development opportunities
+Sporting activities
+Good transport links and accessibility
+Numerous employee events
+Participation or consent to subscriptions
+Home office
+Well -rehearsed and dynamic team
+Flexible working time design
+Participation or close parking lot
+Comfortable Büro with modern infrastructure
+Interesting and varied activity/projects
+Open corporate culture
+Attractive employee discounts
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-15 21:25:59</t>
+          <t>2025-06-15 22:29:02</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2880,33 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>About our transformation has already been used in various areas: from the digital patient file to the online staff card to paying by smartphone. But what about the road? There is still mainly the use of paper and pen here. However, our cooperation partner specializes in implementing innovative digitization projects. You are currently working on a blockchain-based vehicle database that enables it to save all the sensitive information of a vehicle safely. As a result, large security is achieved for (insurance companies and vehicle lines: inside. If you actively promote digitization, we invite you to apply to us as a Java developer (m/f/d). You have the choice between different locations such as Dortmund, Dresden, Frankfurt, München, Hamburg or Köln or the option to work completely remote
+Development of new web applications and expansion of existing developments
+Migration of applications in the cloud
+Conception of web and cloud architectures
+Full stack development with a focus of your choice
+Technology stack: Java 11+, Spring Boot, Angular 10+, React, JavaScript, TypeScript, Azure, Kubernetes
+Application of test-driven development (TDD) and domain-driven design (DDD)
+Regular code reviews as well as unit and integration tests
+Work in agile, cross-functional scrum teams
+profile
+Extensive professional experience in software development
+Specialist knowledge in the backend with Java and Spring or in the full stack with additional knowledge in TypeScript and React, Angular or Vue.js
+Ideally experiences with microservices, micro frontends and devops tools such as docker and/or Kubernetes
+Flies in German knowledge
+We offer
+Removal of up to 110,000 annual salary, depending on the experience
+Flexible working models with home office, butero and remote options
+Flexitors without fixed core working hours
+Überstunden compensation and 30 vacation days
+Free choice of hardware and software, highly adjustable desk
+Slack-time for dealing with current trends
+Contact me looking forward to your application! If you do not fit this profile, but are interested in a new position, then I am happy to be happy about your documents and call you immediately to discuss your interests and opportunities.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:02</t>
+          <t>2025-06-15 22:29:06</t>
         </is>
       </c>
     </row>
@@ -2089,12 +2938,31 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The digitization of the energy transition with us! In cooperation with a partner company, we are currently looking for a DevOps Engineer who actively helps shape the digital transformation of the energy transition. If you like sustainable projects, you are exactly the right!
+Automation &amp; operation: Supporting the development team by modern tools such as Bitbucket, boss, Azure, Grafana, Docker and Kubernetes
+Quality &amp; Stabilit: Responsibility for high software quality and smooth operation in an agile team
+Customer viewing: regular exchange to optimize the solutions and improve customer satisfaction
+Analysis &amp; problem solving: Examination of complex topics from plant connection to energy marketing
+Process improvement: Continuous optimization of development and operating abnormales through retrospectives and standup
+Your profile
+Experience: at least 2 years in Devops, CI/CD, Docker, Kubernetes &amp; Azure
+System administration: well -founded knowledge of Windows or Linux servers
+Exchange of knowledge: Continuous further development &amp; support of young people
+Language skills: German C1
+Training or comparable qualifications in the IT area
+Your benefits
+Location: 100% remote or on site at the modern location in Oldenburg
+Working hours: flexitime (40 hours/week) + 30 days of vacation
+Flexibility: Change between Büro &amp; HomeOffice as required
+Further training: conferences, training courses and certificates in DevOps/Cloud
+Career development: Flexible role and team change within software development
+Safe perspective: unlimited contract, diverse customers &amp; industries, stabilized by strong parent company
+Contacts HansenTalent Acquisition Managerworkidetity GmbHhammerbrookstraã e 9220097 hamburgsoeren.hansen@workidentity.de+49 1522 3917787</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:06</t>
+          <t>2025-06-15 22:29:11</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2994,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Together we do the difference mobility is a self -employed company at Siemens AG and for over 160 years of a leading provider in the area of ​​mobility. Rail vehicles, train automation and electrification solutions, lock-making systems as well as the accompanying services. We have always been very innovative to make travel faster, safer and more comfortable. Today we need new solutions for new challenges such as climate change and increasing population numbers worldwide. That is what drives us. That is why we pass on mobility with passion and are always one step ahead. Through digitization, we make infrastructures intelligent and create opportunities that bring us sustainably and seamlessly from A to B. Our 39,800 employees are pioneers in the mobile department that help to keep the world on the move. In addition to classic services such as maintenance and spare part -layer, new digital services for analytics and asset management also includes and are provided in Railigentâ® Cloud platform Digital solutions contain the complete data flow of the data generating systems (vehicles, infrastructure) via the rating to the local receiving server up to the country -sided central data processing, the processing and the derived services for the generation of valuation for the customer and the mobility service. What are you in this position? Reliable operation of our digital services in Railigent X responsible. Furthermore, make the documentation of the solutions secure and define Maã took to avoid custody. For the conception and for the cost of new systems, both as far as the hardware and support is concerned, they are working closely in interdisciplinary teams and with the development teams for finding the solutions for complex problems. What do you bring with you? Multi-year-old professional experience in DevOps Cloud Support.sie have multi-year-old project experience in the operation of heterogeneous IT systems as well as in problematic and customer support for such systems (Windows, Linux). Founded knowledge of cloud technologies (preferred AWS), container orchestration (e.g. Kubernetes), CI/CD-Pipelines And automation tools bring you with you. In this way, knowledge of monitoring/logging (Prometeus, Grafana, Cloudwatch) as well as site reliability Engineering.deutsch- and English Make a negotiating in the word and writing. Pronounced quality and customer-oriented work. What do we offer you? Compatibility of family and profession with an additional care allowance we support you to fully concentrate on your career without losing sight of your family life. Mobile work /remote working with us. This means that you can be a significant proportion of mobile. We officially regulated this through a company agreement. Including &amp; diversity Siemens Mobility we are committed to injustice and inequality. With us you will find an environment in which you can be and add it. A overview of our benefits can be found here (https://new.siemens.com/de/-unternehung/jobs/benefits-was-wir-bieten.html). May experience about Siemens. www.siemens.com/de/DEIE/JOBS/FAQ.HTML (http://www.siemens.com/de/detrie/ company/jobs/faq.html) if you should obtain information about the topic of application using our FAQâ s.49 (9131) 17 5243--0 want to climb. www.siemens.com/mobility-jobs (http://www.siemens.com/mobility-jobs) If you may get more information about jobs &amp; career at Siemens. We value equal opportunities and look forward to applications from people with disabilities (https: //www.sie</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:09</t>
+          <t>2025-06-15 22:29:16</t>
         </is>
       </c>
     </row>
@@ -2163,12 +3031,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Job Description Are you passionate about consulting and creating innovative solutions that make a real impact on users? Join our team as a Senior Frontend Engineer and be at the forefront of delivering top-notch web experiences. What you will do:  Consult with clients to understand their needs and propose effective solutions. Collaborate with back-end engineers and UX/UI designers to ensure seamless integration and high-quality web experiences. Provide strategic guidance to clients, helping them navigate current and future challenges. Take technical responsibility for client projects, from cost estimation to final implementation. Leverage your expertise to lead interdisciplinary teams towards project success. Mentor and guide less experienced engineers to help them grow professionally.  Requirements What we expect:   A minimum of 5 years of professional experience as a Frontend developer or in a similar technical consulting role. Proficiency in agile methodologies. Experience with DevOps, Git workflows, and release processes. Previous experience with Storyblok is highly desirable. Proficient in both German and English. Willingness to travel for internal events, workshops, and client meetings.  Contact Jessica Greth</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:12</t>
+          <t>2025-06-15 22:29:19</t>
         </is>
       </c>
     </row>
@@ -2200,12 +3068,38 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä
+*** Developer-friendly DevOps consultation â Your chance to help shape the digital change *** For the corporate technology enthusiast from the Grroã Raum Frankfurt, the company supports end customers, independently of their size or industry, on their digital journey. The focus is on software development and advice, whereby the teams are using the latest technologies to develop innovative solutions. The company has been founded by developers for developers and has developed into a Mecca for developers and engineers in the past 20 years, in which state to art individual software is written .hard-facts
+Searched profile: Devops Engineer
+Product: Individual software for exciting end customers
+Location: Groã Raum Frankfurt
+Employees: approx. 180
+Corporate language: German
+Established on the market for 20 years
+To the role / tasks
+In the role as DevOps Engineer (m/f/d) you combine technical know-how with a speeches for efficient transfers â and actively shape innovative, digital solutions.
+You work partly independently, sometimes in the team â always with a clear focus on quality and sustainable solutions. Instead of rigid processes, an environment awaits you in which technological curiosity, initiative and continuous learning are not only allowed, but but are tough.
+Here it is not the next Deadline, but the long -term value of your work â in a setup that offers freedom for personal development as well as for innovative technologies.
+Your profile
+Experience as a DevOps engineer with experiences in cloud technologies.
+Knowledge of Infrastructure as Code (IAAC) and the automation of infrastructures, including Kubernetes, Terraform, Grafana and Prometheus.
+Independent, agile way of working
+Professional customer contact is of course for you
+Excellent German and English skills in word and writing.
+Including occasional on -call duty if your expertise is required at short notice
+Benefits
+Entry content: up to 80,000.00 â â (depending on the previous experience)
+Flexibilite: 100% remote (including a small -scale on -call service)
+Vacation: 30 days
+Special payments
+Further training budget IHV 2000.00 â â â â â â â â â â â â â â â â â â â â â â â â â â.
+Family working atmosphere and an environment of developers for developers
+Contact - Let's Talkhannah Rennerrecitment Consultantyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:14</t>
+          <t>2025-06-15 22:29:22</t>
         </is>
       </c>
     </row>
@@ -2237,12 +3131,46 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ð ð ð Ä *** think digitally. Moving Germany. *** For the entrepreneurship, dynamic and innovative companies specialize in digitization of Germany and is on the move in various exciting areas (e-mobility, energy, e-health, ÖFCHAFT-BAHRAGER and much more, ..). Due to the long-wing experience and expertise, you can offer your customers tailor-made solutions in the areas of software testing, IT consulting and business consulting. The team consists of highly qualified and motivated employees who have the aim of moving something and promoting their customers' success. The teams attach great importance to excellent results and always have fun at the work.hard facts:
+Industry: IT consulting house (focus: digitization of Germany)
+Location: Berlin and/or 100% remote
+Employee: ~ 250
+Corporate language: German
+To the role / tasks
+â â â â â as an experienced consultant you integrate your specialist knowledge directly into projects and inspire the team with your commitment and your services.
+As a DevOps expert, you enthusiastically accompany the entire development process of the customers and set Maãste with your expertise and dedication.
+You are automation fan and ensure smooth build, test and deploy processes from the start.
+Your expertise in Infrastructure-As-Code (IAC) Tools enables muhelose automation of customer infrastructure and fades efficient working methods.
+With a watchful look, you continuously optimize the customer infrastructure for maximum performance.
+You are intensively committed to alerting, monitoring and tracing to ensure smooth operation and tackle problems.
+Your welfare for cooperation in agile cross-functional teams according to Scrum or Kanban is particularly in demand.
+Thanks to your committed and independent way of working, you make a significant contribution to the smooth functioning and success of the developed applications.
+You will do it through your competent representation of the operating perspective against development teams, product owners and other project participants and thus make a long time to the success of the project.
+Your profile
+You have extensive experience in the DevOps area, whereby you were previously in software development.
+Good knowledge, especially in Java, Kubernetes, Terraform, Ansible, Git, Docker and Microservice Architecture.
+Nice to have: Helm, Grafana, Prometheus, Jira
+You have experience in implementing CI/CD pipelines as well as in the development and provision of Java and web applications.
+You are familiar with microservice architectures and the design of APIs, including rest and messaging.
+You have a fundamental understanding of network infrastructures, including routing, loadbalancing and DNS.
+Your experience in working in agile, cross-functional teams is a great advantage
+You are communicative and inspire yourself for the consulting business
+Very good knowledge of German and good English skills are a prerequisite
+Benefits
+Entry content up to 100,000.00 -(depending on the previous experience)
+Work-life balance:
+Vacation: 30 days
+Flexible working hours
+100% remote (with 20% traveling)
+Support in your individual pension.
+Further training: individual fu¶rdungen and career paths
+Individual training opportunities as well as modern equipment, also for working at home, are of course and are the focus of your personal and professional development.
+Contact - Let's Talkhannah Rennerrecitment Consultantyou Consulting GmbHhttps: //findyou.de/cv-upload/</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:17</t>
+          <t>2025-06-15 22:29:26</t>
         </is>
       </c>
     </row>
@@ -2274,12 +3202,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Devops Engineer (m/f/d) - (AWS/GCP) â Design the future of the artificial intelligence! . Corporate profile intelligence does the world do? And we are at the forefront! Our aspiring startup develops state-of-the-art AI models that transform companies and enables revolutionary innovations. In order to promote our growth, we are looking for a DevOps Engineer (AWS/GCP) that scales our infrastructure, kills the deployment pipelines and lifts our AI-LONES to the most important level! Provision of high-performance AI models. Develop CI/CD pipelines that ensure smoothly deployments and scalability. Manage Kubernetes cluster and container orchestration for efficient provision of our lucache. Data Scientists together to ensure seamless integration of AI models in production environments. Estimated demand profile experience: at least 3 years as DevOps Engineer, site reliability engineer or in a possible role. Cloud know-how: deep knowledge of AWS or GCP? Especially with Kubernetes, Terraform and serverless technologies.ci/cd &amp; automation: Experience with Jenkins, Gitlab CI/CD, argocd or usual tools.iac &amp; security: familiar with infrastructure as code (terraform, cloud formation) and security standards in the cloud.mentalite: Startup-Mindset, Handson and desire to move things! Benefitsinovative AI projects: Work on the future of AI and bring groundbreaking models to production.Tech-first culture: We rely on the latest technologies and a strong engineering team.flexibilite: Remote-First or Hybrid? You decide how you are the most productive.
+                                                            Just send us your CV to l.c@headmatch.de or register directly from Levan on LinkedIn 
+(https://www.linkedin.com/in/levan-chkhikvishvili 99ba4a156/)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:21</t>
+          <t>2025-06-15 22:29:29</t>
         </is>
       </c>
     </row>
@@ -2311,12 +3241,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Villingen-Schwenningen | Period | Full time | Job no. 45767 company profile for our customer based in Zuerrich, which specializes in the operation of secure and high -opaque infrastructures for decentralized networks in the crypto industry, we are looking for an experienced and motivated Linux system administrator (m/f/d). If you not only want to wait and actively shape and automate systems, you are in the right place.  Ratbacher GmbH - We are one of the leading IT personnel consultations of the DACH region. Our vision? We bring IT specialists together with the most attractive employers. This responsible task has been motivating us to best performances for 15 years. With a network of over 5,000 top companies and already over 15,000 successful placements, we have the usual expertise to pave the way to the new dream job! Your focus you are looking forward to and optimize the Linux serverland (Debian, Ubuntu) 
+Automation is your blood? Then bring your skills with Ansible and Terra Form with us.
+ Together with our directional and security teams, you work on exciting topics such as containerization, CI/CD and the further development of the private cloud with tools such as Grafana, Checkmk or Zabbix, you will ensure your qualifications in the Linux administration. Good knowledge of networks, system diagnosis and performance tuning experience Automation tools (e.g. Ansible, Terraform) You work independently and very good German or English skills. 
+Attractive salary package - earn up to 65,000 - in any case, performance -based, transparent and with scope for development 
+Work where you are the most productive - 100 % remote - with just an optional Bürotag a month for exchange and team spirit 
+Designing instead of snoding - flat hierarchies, clear responsibility and quick decisions â here your opinion is raised here 
+Teamwork on eye skills - you work in a collegial, interdisciplinary environment, which knowledge shares and know together 
+Your further development in the focus-whether certification, tech conference or new skills â Here you are invested in you, not only in your role your contact person Lena Jäägert: +49 711 76105-749E: l.jaeger@ratbacher.de</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:24</t>
+          <t>2025-06-15 22:29:33</t>
         </is>
       </c>
     </row>
@@ -2348,12 +3285,15 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cloud infrastructure Engineer (m/f/d)
+      Working time model location
+We are the DEVK. An insurance company with a history of 135 years, around 7,500 employees and 4.2 million customers. We are convinced that better work will take a better life.
+ Over 400 people develop and look after the diverse IT landscape of the DEVK. In order for VM-based apps and services to be operated in the AWS cloud as possible, their own team was founded in order to create a modern frame for these workloads. If you want to shape this frame, apply and become part of this team! What you should bring with you: including experience with Public Cloud Infrastructure, possible with Amazon Web Services (AWS) Solid knowledge about server operation with Microsoft Windows or Linux, i.e. Hardening, Patching, Backup &amp; Restore etc. Integration/Delivery/Deployment (CI/CD) and infrastructure-as-code (IAC) as well as config-as-code (CAC) using Hashicorp Terraform or Opentofu, Terragrunt, Git, Gitlab, Ansible, Desired State Config (DSC) etc. Bash or PowerShell, ideally also Golang (Go) Groiver to familiarize new theme-high awareness of reliability, availability and maintainability for compliance and security-related pragmatism in the implementation of requirements passable knowledge of German (at least B2 level) lots of fun and team work and Knowledge mediation that makes your job exciting: participation and operation of the central cloud infrastructure for VM-based apps and services: virtual machines, load balancers, network etc. Contemporary tech stack development of internal standards, good/best practice and Paved/Golden path cooperation and exchange of teams Free space for our own ideas WE offer you: Fairness and cohesion will be written with us Groã written with 30 vacation days, flexitime and our home office options. We support your work-life balancing stable 13.5 assistants per year and a strong company pension for dichpersonal development is expressed with us. Finding health is important to us-benefit from our frequent offerings you should bring: including experience with Public Cloud Infrastructure, as possible with Amazon Web Services (AWS) Solide knowledge about server operation with Microsoft Windows or Linux, i. &amp; Restore etc. Interest in Devops, Automation, Continuous Integration/Delivery/Deployment (CI/CD) and Infrastructure-As-Code (IAC) as well as Config-as-Code (CAC) using Hashicorp Terraform, Terragrunt, GIT, GITLAB, DESILED State Config (DSC) etc. Can be used in terms of shell scripting or coding with Bash or PowerShell, ideally also Golang (go) greater willingness to incorporate into new theme-high awareness of reliability, availability and maintainability for compliance and security pragmatism in the implementation of Requirements Passable German skills (at least B2 level) A lot of fun on team work and knowledge agency that makes your job exciting: participation and operation of the central cloud infrastructure for VM-based apps and services: virtual machines, load balancers, network etc. Practices and Paved/Golden Paths cooperation and exchange over team boundaries for our own ideas WE we offer you: Fairness and cohesion are written with us Groã. 30 days of vacation, flexitage and our home office options we support your work-life balanc stoves per year and a strong company pension On dichpersonal development, we are expressly intended and the health is important to us.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:27</t>
+          <t>2025-06-15 22:29:38</t>
         </is>
       </c>
     </row>
@@ -2385,12 +3325,38 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Role:
+You design and implement modern cloud solutions around Microsoft 365, Azure Active Directory, SharePoint and Defender â and safely accompany customers on the way to the cloud.
+You Überste the complete administration, maintenance and protection of Microsoft 365 and Azure environments, including backup strategies and security concepts.
+You support internal teams and customers through the creation of training documents, the participation of webinars and the active knowledge transfer.
+You analyze new cloud technologies, recognize trends in the event of time and proactively bring ideas for the further development of the cloud services.
+You are responsible for your projects independently from planning to implementation to documentation â and stand in close exchange with everyone involved.
+Qualifications:
+At least 5 years of experience in the administration of complex IT infrastructures with a focus on Microsoft 365 and Azure.
+Good knowledge of topics such as backup, IT security and the use of microsoft security solutions; The first points of resolution with Microsoft Sentinel and Devops are an advantage.
+Independent, structured way of working and joy in organizing customer appointments and tasks independently.
+High communication, paired with a service -oriented mindset and joy in teamwork.
+Interest in technological development, paired with the desire to actively share knowledge and to continuously improve the quality of the cloud services.
+Benefits:
+Market and performance-based Lã¶hne
+Flexible working time design
+Participation or acceptance in the cell phone and notebook
+An average holiday and freelance
+Home office
+Participation or consent to subscriptions
+Flat hierarchies
+Well -rehearsed and dynamic team
+Open corporate culture
+Attractive training and development opportunities
+Coaching and mentoring
+Participation in health measures
+Numerous employee events
+Rock jobs: https: //rocken.jobsprofil create: https: //rocken.jobs/application/pril-erstellen/</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:30</t>
+          <t>2025-06-15 22:29:43</t>
         </is>
       </c>
     </row>
@@ -2422,12 +3388,39 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Department
+              System Operations
+              Role
+            DevOps Engineer - Kubernetes
+              Locations
+              Berlin
+              Remote status
+            Fully Remote
+                          Find out more 
+about your team
+                            The System Operations Department supports our DevOps Team and maintains our platform infrastructure, keeping it at the forefront of technological advancements and innovation.
+                              Anniversary Programme
+                                We treasure every moment you spend with us, and when the days turn into years, we mark it with a little gift â even from your first year!
+                              Corporate Benefits
+                                Are you sporty, techy, adventurous, stylish, or nerdy? Whichever category you belong to, you can benefit from our numerous discount offerings and get up to 40% off your purchases.
+                              Gift Matching
+                                Care for a good cause? We do too. When you donate to a charity, weâll double your donations â up to â¬250.
+                              Mental Health
+                                When life happens or if you just want to talk to a mental health expert, weâve got you covered in Cologne, Hamburg, or remotely wherever you are.
+                              Referral
+Programme
+                                Get rewarded when you refer someone for one of our open roles and they get the job.
+                              RTL+
+                                As part of RTL Deutschland, you can enjoy all your favourite TV shows with free access to an RTL+ Premium account.
+                              Social Day
+                                Every year, you can take a fully paid day off to support a cause you care about â together with other smartclippers or alone, you decide.
+                              Sports
+                                We support a healthy lifestyle through various options such as gym reimbursement, urban sports club membership, or even leasing a bike. Thereâs definitely something for you.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:34</t>
+          <t>2025-06-15 22:29:46</t>
         </is>
       </c>
     </row>
@@ -2459,12 +3452,15 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Over C. D. Büttner Safety Technology GmbH -step -step -step -step services, traditional service ... It is not for nothing that C.D. Büttner in the industry as a pioneer for new and innovative security technologies. In our own interest and in the interests of its customers, our company has undertaken to think and act in a future -oriented manner. In order to improve the security of customers with ever new technologies and concepts, the employees take up the current developments and look for potential for optimizing systems together with the manufacturers. If you can analyze the requirements of our customers: Inside, design individual IT infrastructures and put them in practice by planning to integration into regular operation. You will find creative solutions for complex challenges in IT systems and infrastructures. You are happy to share your specialist knowledge with a college: inside and fade the internal know-how transfer in the technology team. You actively help shape our service portfolio and bring your own ideas into the further development of our offer.
+What you should have a completed training as a specialist: In, studying computer science or comparable qualifications with multi -year -old work experience, ideally as a system administrator: in. Well -founded knowledge and practical experience in areas of cloud technologies and automation joy in working with customers: inside and the collaboration in the team. A structured, independent way of working as well as good organizational facilities. High reliability, commitment and enthusiasm for new technologies.
+What we offer you work-life balance â Flexible working hours â RANDMAUESE IGE TEAMEVENTS SHOUT THE CORRACTION. Design freedom: Your ideas are welcome!
+For the application unser job offer IT System Engineer - Cloud / DevOps / Home Office (m / f / d) sounds promising? With our partner no application for this job is possible in just a few minutes and without a cover letter. The status of the application can also be followed live. We look forward to an application for no jewelry.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:39</t>
+          <t>2025-06-15 22:29:50</t>
         </is>
       </c>
     </row>
@@ -2496,12 +3492,49 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) software engineer (m/f/d) backend (100% home office possible)
+                                  As a Backend Developer, you work on the further development and technical modernization of "Replyone". Your challenge lies in the gradual breaking of our grown monolith towards a modular, waiting architecture. 
+                              At Sematell we maintain an open corporate culture in which we are all "you". With us you meet flat hierarchies, quick decision -making paths and a modern work environment. With our innovative response management software based on KUTENSTIVE Intelligence, we offer solutions that set Maães. Replyone, our leading enterprise, processes inquiries fully automated â native in over 70 languages. Our portfolio is supplemented by our new product Replyx, which focuses on the customer experience. With Replyx, we enable companies to actively and sustainably shape customer experiences and redefine service. Since our greening more than 25 years ago as a spin-off of the German Research Center for Kerstliche Intelligence (DFKI), we consistently rely on innovation and customer orientation.
+                              Your tasks:
+                                  You make a central role in the 
+                                    Modernization of our existing platform
+                                  You develop 
+                                    New modular components or services
+                                  You analyze existing structures and define strategies for 
+                                    Decoupling and modularization
+                                  You develop robust backends in 
+                                    Java (8+)
+                                   and sets on 
+                                    Clean API design
+                                   (Rest, website, etc.)
+                                  You work closely with Frontend, QA and Devops in the cross -functional team
+                              You bring that with:
+                                  Multi -year -old experience in the 
+                                    Java development
+                                   (Ideally with a focus on modular or service -oriented architectures)
+                                  Good understanding of 
+                                    Monolith-to modules/service strategies
+                                  , Refactoring and technical debt
+                                  Experience with interface technologies such as 
+                                    Rest, weboxes
+                                   and messaging concepts
+                                  Knowledge of 
+                                    Build and deployment tooling
+                                   (Gradle, Github Actions), automated testing (Junit, Sonarqube) and relational databases (Z.?B. Postgresql, MS-SQL, Oracle)
+                                  Experience with docker, Kubernetes, hyperscalers (e.g. Azure, AWS, GCP)
+                                    Very good knowledge of German (at least
+                                    C1
+                                  ) as well as 
+                                    very good English
+                                    (at least B2
+                                  )))
+                              At Sematell
+                                â ¦ you won't be thrown into the cold water. You learn</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:42</t>
+          <t>2025-06-15 22:29:56</t>
         </is>
       </c>
     </row>
@@ -2533,12 +3566,52 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Senior Fullstack Software Engineer - Spotlight - Europe - Remote 
+                  We're on the lookout for a curious, upbeat and dedicated Senior Software Engineer to join our team! At Spotlight, we automate processes within our procurement service platform and build critical components using REST/RMI APIs.
+                  You'll work alongside some passionate tech professionals in a collaborative environment on some of our most business-critical software components. If you are keen on getting your hands dirty with different Backend, Frontend, Cloud add DevOps technologies then we would like to talk to you!
+                  Your role
+                      Be a team player: 
+                    As a team within an agile environment, we work with a high degree of autonomy and strive to be a high performing, self-managed and self-organized team. We encourage Pair programming, mob programming - we work together and do things together
+                      Add value: 
+                    You'll design, develop and maintain solutions that help optimizing our processes all around the Order Fulfilment process (e.g. dispatch notifications, invoices) and cross cutting processes
+                      Shape our engineering culture:
+                     You'll contribute to cross-team initiatives to define architectural guidelines, evaluate new technologies, and establish best practices
+                      Craftsmanship:
+                     You'll foster a security-first mindset and ensure robust, reliable, clean and testable code
+                      Cross-functional collaboration:
+                     You'll analyse complex business requirements and work in close cooperation with the product team to translate them into production-ready code
+                  Your qualifications
+                      Your background:
+                     Youâre experienced with developing web applications in Java
+                      Agile mindset:
+                     You demonstrate excellent collaboration skills particularly in Agile software development and remote distributed team environment.
+                      Strategic thinking:
+                     You have the confidence and maturity to maintain and modernize business-critical legacy code
+                      Ownership:
+                     You're proficient with DevOps tools and practices and experienced in supporting the operation of highly-available web services
+                      Be on the pulse:
+                     You're committed to continuous learning and knowledge sharing; you keep up to date with the latest trends and technologies
+                  What you can expect from us
+                      Be a part of our agile working style
+                    : Our open communication and quick decision-making processes allow our teams to work autonomously
+                      We offer a flexible work location
+                    : You can work in one of our modern Unite offices or remotely â or even do a mix of both
+                      Workation
+                    : You can work abroad for up to 2 months, which is a great way to extend your time away or visit your family and friends in other countries
+                      Enjoy our Unite culture
+                    : We invite you to be yourself, join our table tennis league or online games and have fun
+                      We think long-term
+                    : You can and absolutely should invest an average of 10% of your working time into self-education and your own further training â thatâs why we are great believers in offering creative freedom. Youâll also get access to our internal learning platform to grow your career
+                      Build with a rich and evolving technology ecosystem:
+                     AWS, Spring Boot, Gitlab or Wicket are just a few to mention. Also, we have a fully integrated CI/CD pipeline in Gitlab.
+                    What your future colleagues say
+                  We are Unite.
+                We connect the economy for sustainable business. Our trusted e-p</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:47</t>
+          <t>2025-06-15 22:30:00</t>
         </is>
       </c>
     </row>
@@ -2570,12 +3643,53 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Test Automation Engineer - Appium (m/f/d)
+                  Dresden
+        As a test Automation Engineer - Appium (m/f/d) at Inqu SluTions GmbH in the area of ​​testing automation, you will become part of a dynamic software company that develops on C# .NET -based products and solutions in the area of ​​smart manufacturing. In order to raise the quality of our products to the next level, we are looking for you: a committed test Automation Engineer (m/f/d), which supports our development team and our test automation team. With us you can work with modern technologies such as appium and actively help shape the future of software quality.
+          That awaits you:
+          You contribute to ensuring the quality of our software openings from the first code line to the final product
+          You develop and implement test strategies that optimize the entire development process and improve sustainably
+          You responsible for the structure, maintenance and continuous further development of our automated test environments in order to use the highest efficiency and livelihood
+          You bring your own ideas, optimize existing processes and establish new starts for automated testing
+          You work in an interdisciplinary team where you work hand in hand with developers and product owners to test and further develop solutions
+          You bring that with:
+        In order to become part of the inqu family, you can do it through analytical thinking as well as an independent and solution -oriented way of working. You can also bring with:
+          Completed studies in computer science, software engineering, business informatics or comparable technical training
+          Experience in test automation with appium and solid knowledge in C#
+          A pronounced compensation for software quality and motivation to develop innovative test scenarios
+          The faithfulness of analyzing requirements and setting up in automated tests
+          Lust to take responsibility in a small, motivated team and to create it together
+          Look forward to:
+          Development opportunities and career opportunities in a global, innovative and long -term group of companies with a family character
+          Flexible working hours, working time accounts and home office possible as part of a hybrid system
+          An open corporate culture in which we celebrate all duzen and success with social events
+          Company pension schemes and abundant benefits
+          Different sports offers (eGym Wellpass, running events etc.)
+          Attractive leasing offers for IT products and bicycles for private use
+          Corporate benefit offers in changing online shops at top conditions
+          Job ticket of the VVO for the use of the ã pnv
+        Would you like to work with us? Then please apply for the following link, which forwards you to the application system of the Rosext Group.
+          Employee benefits
+            Team events
+            Fruit, gems, snacks
+            Home Office option
+            Flexible working time design
+            Employee discounts over corporate benefits
+            Flexible working hours
+            Home Office options or remote work
+            Good ã pnv connection
+            Job ticket
+            Bicycle leasing (jobrad)
+            Company pension scheme
+            Software development, system test engineer, software tester, software test, software tester, quality control, appium
+          This job or job advertisement as a 'Test Automation Engineer - Appium (m/f/d)' is advertised for the following addresses: Sudhausweg 3, 01099 Dresden.
+          Short profile of Inqu Slutions GmbH
+            Inqu Solutions GmbH is a leading provider of innovative digital solutions for industrial production. In more than 25 lines, both small and medium-sized companies as well as international large groups use the comprehensive skills and self-developed software products to recognize potential for improvement. The purpose is the sustainable increase in your effective, quality and competitive.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:50</t>
+          <t>2025-06-15 22:30:04</t>
         </is>
       </c>
     </row>
@@ -2607,12 +3721,41 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Devops Engineer (W/M/D) - Berlin or 100% remote
+                  Full -time
+                  Old Jakobstraã e 85-86, 10179 Berlin, Germany
+                  With work experience
+                  20.03.25
+                      Software Engineer â DevOps (W/M/D) - Berlin or 100% remote
+                        You do that with us:
+                        You are responsible for the smooth operation and the improvement of our cloud infrastructure. 
+                        You work on the high -availability, scaling and monitoring of our applications. 
+                        You run our modern and innovative gaming platform and make it easy to work with the system to work with the system. 
+                        You automate recurring processes and cheat on our Continuous Integration and Continuous Delivery Pipelines.
+                        That's you:
+                        You have a complete study of computer science or a comparable qualification.
+                        You have excellent knowledge of tools such as dockers, Ansible, terraform, etc.
+                        You have relevant experiences in the administration of Linux servers and cloud infrastructure.
+                        You bring well-founded experience in IT security and network technologies.
+                        Ideally, you will have knowledge in scalable and high -found infrastructures using AWS, also in Kubernetes and databases.
+                        You have a high degree of self -organization and self -reflection for working within a hybrid, collaborative work model.
+                        You have a can-do mentalite and are fire and flame to bring things forward.
+                        You are characterized by your independent way of working and define quality as a success factor.
+                        You write and speak very good German (C1) and good English.
+                        You like that:
+                        Lived company values ​​in a collaborative work environment.
+                        Sustainable corporate growth.
+                        Hybrid working model: the highest flexibility in terms of working hours and place of work.
+                        High quality office in Berlin-Mitte as a centrally located location for encounter.
+                        A warm welcome as part of intensive, structured onboarding.
+                        Learning &amp; Development in the Gamocademy.
+                        Jährlich development dialogue and targeted development measures.
+                        Health Care: Operational Health Insurance, Mental Health Platform &amp; Bike Leasing.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:54</t>
+          <t>2025-06-15 22:30:08</t>
         </is>
       </c>
     </row>
@@ -2624,7 +3767,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Erlangen</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2639,17 +3782,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-devops-platform-engineer-railigent-135727017</t>
+          <t>https://www.xing.com/jobs/erlangen-senior-devops-platform-engineer-railigent-135727016</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Together we make the difference Siemens Mobilityâ is a self -carried out company at Siemens AG and for over 160 years of a leading provider in the area of ​​mobility. Rail vehicles, train automation and electrification solutions, lock-making systems as well as the accompanying services. We have always been very innovative to make travel faster, safer and more comfortable. Today we need new solutions for new challenges such as climate change and increasing population numbers worldwide. That is what drives us. That is why we pass on mobility with passion and are always one step ahead. Through digitization, we make infrastructures intelligent and create opportunities that bring us sustainably and seamlessly from A to B. Our over 40,000 employees are pioneers in the mobile department that help to keep the world in motion. Railigent X is the open IoT platform from Siemens Mobility, which uses AI and Big Data to announce asset management in rail transport. Our goal? To get the availability of reducing the total operating costs and optimizing maintenance through intelligent data use. As Senior Platform Devops Engineer, you are part of an agile submissive and platform team. They occupy a key position in the further development and operating wage of our basis platform components, deployment pipelines and the security architecture. In addition, they support and enabled experienced development teams and advise management. Â What do you contribute? Railigent X is Siemens Mobility's Open IoT platform, which uses AI for railway asset management and revolutionizes it by intelligent data use â any more frequency, less costs and optimized maintenance.  As a member of our DevOps team, take responsibility for the conception, implementation, further development, further operation and the maintenance of a platform that is based on AWS cloud native services and on Kubernetes components. In close cooperation with internal and external development teams, they define the continuous development of the platform architecture for critical and high-performance-based applications and services. They also participate in internal and external audits. You are responsible for the migration of applications and services based on the platform architecture you have defined. As an experienced Senior Devops Engineer coach and recruite internal and external employees and project teams and help us with scaling.  Â What do you bring with you?   You have a completed master's degree in computer science or a comparable specialty. You have multi-day professional experience in the field of software development in a senior level devel-devot position and are familiar with agile working methods such as Scrum and Safe. You are an expert for modern software architectures of data-driven IoT solutions and commands in profound knowledge of hybrid and cloud architectures (Kubernetes/AWS) as well as their use in the group environment. You score with very good knowledge and multi-year-old hands-on experience in AWS cloud services, Kubernetes, Infrastructure-As-Code (e.g. AWS CF/Terraform) as well as CICD (e.g. Gitlab/argocd/kubevela) and identity access management (e.g. OIDC/Saml/KeyClak). Extensive practical experience with industrial-us cases, contract management and request engineering. You are happy to be part of a global team and probably fulfill yourself in an agile Devops environment. You bring an enabler mind set and a whatever-it-tile mentality. Since you work in an international team, excellent German and English skills are necessary. In this way, they are experienced in negotiating, like to communicate and act safely.  Â What do we offer you? Purpose We are pioneers of the mobile act. With us, you are actively contributing to traffic and climate protection in a future market, because our transport solutions all over the world reduce the CO2 exhibition. Mobile work /remote working with us you have the option of working hybrid. This means that you can be a significant proportion of mobile. We officially regulated this through a company agreement. Inclusion &amp; diversity at Siemens Mobility we are committed to injustice and inequality. With us you will find an environment in which you can be and add them to you. You can find out about our benefits here. Â how do you step with u</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-15 21:26:58</t>
+          <t>2025-06-15 22:30:12</t>
         </is>
       </c>
     </row>
@@ -2661,7 +3804,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Erlangen</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2676,24 +3819,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/erlangen-senior-devops-platform-engineer-railigent-135727016</t>
+          <t>https://www.xing.com/jobs/muenchen-senior-devops-platform-engineer-railigent-135727017</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Together we make the difference Siemens Mobilityâ is a self -carried out company at Siemens AG and for over 160 years of a leading provider in the area of ​​mobility. Rail vehicles, train automation and electrification solutions, lock-making systems as well as the accompanying services. We have always been very innovative to make travel faster, safer and more comfortable. Today we need new solutions for new challenges such as climate change and increasing population numbers worldwide. That is what drives us. That is why we pass on mobility with passion and are always one step ahead. Through digitization, we make infrastructures intelligent and create opportunities that bring us sustainably and seamlessly from A to B. Our over 40,000 employees are pioneers in the mobile department that help to keep the world in motion. Railigent X is the open IoT platform from Siemens Mobility, which uses AI and Big Data to announce asset management in rail transport. Our goal? To get the availability of reducing the total operating costs and optimizing maintenance through intelligent data use. As Senior Platform Devops Engineer, you are part of an agile submissive and platform team. They occupy a key position in the further development and operating wage of our basis platform components, deployment pipelines and the security architecture. In addition, they support and enabled experienced development teams and advise management. Â What do you contribute? Railigent X is Siemens Mobility's Open IoT platform, which uses AI for railway asset management and revolutionizes it by intelligent data use â any more frequency, less costs and optimized maintenance.  As a member of our DevOps team, take responsibility for the conception, implementation, further development, further operation and the maintenance of a platform that is based on AWS cloud native services and on Kubernetes components. In close cooperation with internal and external development teams, they define the continuous development of the platform architecture for critical and high-performance-based applications and services. They also participate in internal and external audits. You are responsible for the migration of applications and services based on the platform architecture you have defined. As an experienced Senior Devops Engineer coach and recruite internal and external employees and project teams and help us with scaling.  Â What do you bring with you?   You have a completed master's degree in computer science or a comparable specialty. You have multi-day professional experience in the field of software development in a senior level devel-devot position and are familiar with agile working methods such as Scrum and Safe. You are an expert for modern software architectures of data-driven IoT solutions and commands in profound knowledge of hybrid and cloud architectures (Kubernetes/AWS) as well as their use in the group environment. You score with very good knowledge and multi-year-old hands-on experience in AWS cloud services, Kubernetes, Infrastructure-As-Code (e.g. AWS CF/Terraform) as well as CICD (e.g. Gitlab/argocd/kubevela) and identity access management (e.g. OIDC/Saml/KeyClak). Extensive practical experience with industrial-us cases, contract management and request engineering. You are happy to be part of a global team and probably fulfill yourself in an agile Devops environment. You bring an enabler mind set and a whatever-it-Takes mentalit. Since you work in an international team, excellent German and English skills are necessary. In this way, they are experienced in negotiating, like to communicate and act safely.  Â What do we offer you? Purpose We are pioneers of the mobile act. With us, you are actively contributing to traffic and climate protection in a future market, because our transport solutions all over the world reduce the CO2 exhibition. Mobile work /remote working with us you have the option of working hybrid. This means that you can be a significant proportion of mobile. We officially regulated this through a company agreement. Inclusion &amp; diversity at Siemens Mobility we are committed to injustice and inequality. With us you will find an environment in which you can be and add them to you. You can find out about our benefits here. Â how do you step with u</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:01</t>
+          <t>2025-06-15 22:30:17</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(Senior) Frontend Engineer- New Platform (m/f/x) (onsite / remote in Germany)</t>
+          <t>(Senior) Fullstack Engineer - New Platform (m/f/x) (onsite / remote in Germany)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2713,24 +3856,26 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-frontend-engineer-platform-onsite-remote-germany-134814815</t>
+          <t>https://www.xing.com/jobs/muenchen-senior-fullstack-engineer-platform-onsite-remote-germany-134814787</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) Fullstack Engineer - New Platform (m/f/x) (onsite / remote in Germany)  Full-timeCompany DescriptionScalable Capital is a leading digital investment platform in Europe. The company empowers everyone to shape their financial future. Scalable Broker makes it easy and affordable for clients to invest professionally in stocks, ETFs and other exchange-traded products and set up savings plans. Scalable Wealth, the digital wealth management service, offers clients professional investment in ETF portfolios and is also adopted as a white-label solution by renowned B2B partners. With the European Investor Exchange (EIX) Scalable Capital offers a stock exchange for retail investors in Europe. Over 27 billion euro is held on the platform by more than one million clients.Scalable Capital was founded in 2014 and employs more than 500 people at its offices in Munich, Berlin, Vienna, and London. Together with the founding and management team around Erik Podzuweit and Florian Prucker, they are working on a new generation of financial services.
+Visit our finance blog or check out our Social Media channels to find out what our Expert Teams have to say.
+Our Company Values guide us every day in how we work and collaborate. To learn more about them, you can find our values here (English).Job DescriptionShape the future of Scalableâs new fully vertically integrated investment platform. Scalableâs Broker, digital Wealth Management, and Credit offerings are seamlessly integrated into a newly developed technology platform. As a Fullstack Engineer, you will be a key member of one of our cross-functional product teams, helping us develop scalable, secure, and user-friendly financial products that impact hundreds of thousands of clients.Youâll work closely with product managers and fellow engineers to build robust backend services and beautiful, responsive UIs using Kotlin, Spring Boot, and React with TypeScript. Our engineering culture emphasizes ownership, clean architecture, testing, and continuous delivery.You will be empowered to shape the technical direction of your team and have real impact on both the technical architecture and the internal tooling experience. We are looking for engineers who enjoy working across the stack, thrive in a fast-paced environment, and are eager to grow with us as we scale.You work with highly motivated software engineers and academics implementing change in the financial industry.You work with cutting-edge technologies and participate in modern software development practices (e.g., agile and self-managed teams, continuous integration and deployment, test automation, cloud-based infrastructure, and tooling).You write clean, testable, maintainable, and well-documented code and treat security as a first-class citizenYou bring products to production and reveal real business valueYou can improve engineering excellence in the teamQualificationsA university degree in a relevant field of study (Computer Science, Engineering, etc.) or comparable practical experience2+ years of frontend experience in technologies like Typescript, React, NextJs, Cypress, WebPack, Material Design, Express3+ years of full backend experience in Java/Kotlin, JWT, Docker, Spring, AWS, Git, Docker,  GraphQL, RESTful APIA passion for well-architected, testable, and documented code and an agile mindsetStrong analytical thinking, both in the technical and in the product domain.Experience in complex software projects with end-to-end ownership, building MicroservicesPractical experience in AWS or another cloud providerGood communication skills that are clear, ope,n and concise,and  professional proficiency in EnglishPrevious experience with DevOps experience is a big advantageBackground in the financial industry and financial software product development is an advantageAdditional InformationBe part of one of the fastest-growing and most visible Fintech startups in Europe, creating innovative services that have a substantial impact on the lives of our customersWork with an international, diverse, inclusive, and ever-growing team that loves creating the best products for our clientsWork from our centrally located offices in the heart of Munich or Berlin, nestled in lively neighborhoods filled with vibrant restaurants, cozy cafÃ©s, and a wide range of convenient amenities or choose to work remotely within Germany (if eligible for the job)Be productive with the latest hardware and toolsLearn and grow by joining our in-house knowledge sharing sessions and spending your individual Education Budget Learn and experience German culture first hand by joining our free German language classes(International) relocation supportFlexible vacation policy and the opportunity to work from abroadBenefit from an attractive compensation package and from the company pension schemeMonthly contribution of 25% for the âDeutschland JobticketâSay g</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:07</t>
+          <t>2025-06-15 22:30:36</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(Senior) Fullstack Engineer - New Platform (m/f/x) (onsite / remote in Germany)</t>
+          <t>Python Engineer - Backend and Cloud DevOps (m/f/x) (onsite / remote in Germany)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2750,71 +3895,147 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-fullstack-engineer-platform-onsite-remote-germany-134814787</t>
+          <t>https://www.xing.com/jobs/muenchen-python-engineer-backend-cloud-devops-onsite-remote-germany-130897850</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Python Engineer - Backend and Cloud DevOps (m/f/x) (onsite / remote in Germany)  Full-timeCompany DescriptionScalable Capital is a leading digital investment platform in Europe. The company empowers everyone to shape their financial future. Scalable Broker makes it easy and affordable for clients to invest professionally in stocks, ETFs and other exchange-traded products and set up savings plans. Scalable Wealth, the digital wealth management service, offers clients professional investment in ETF portfolios and is also adopted as a white-label solution by renowned B2B partners. With the European Investor Exchange (EIX) Scalable Capital offers a stock exchange for retail investors in Europe. Over 27 billion euro is held on the platform by more than one million clients.Scalable Capital was founded in 2014 and employs more than 500 people at its offices in Munich, Berlin, Vienna, and London. Together with the founding and management team around Erik Podzuweit and Florian Prucker, they are working on a new generation of financial services.
+Visit our finance blog or check out our Social Media channels to find out what our Expert Teams have to say.
+Our Company Values guide us every day in how we work and collaborate. To learn more about them, you can find our values here (English).Job DescriptionIn Scalableâs expanding Financial Engineering, we are looking for backend developers for a team which focuses on deploying data products and developing software solutions. You will be creating and improving our next generation wealth management and building regulatory risk controlling systems. The successful candidate will have a solid background in our tech stack with Python being the leading language. A successful candidate must be well-versed in AWS services such as Lambda, SQS, SNS, ECS, and Step Functions. That should be supported with working knowledge of Docker and GitHub Actions. The infrastructure is managed via code using Terraform. A strong understanding of all varieties of databases is also crucial for this role.Design and build a new exciting platform to serve our customers using cutting edge technology and modern software development practices  (e.g. agile and self-sufficient teams, continuous integration and deployment, test automation, cloud-based infrastructure and tooling)Work alongside a highly motivated team of software engineers and quant developers, implementing change in the financial industryDevelop and maintain innovative, high-performance monitoring tools serving regulatory purposes (Datadog, Metabase, Dash,  ...)Choose tools for storing, processing, and displaying vast and growing datasets from diverse data sourcesWrite clean, testable, maintainable and well-documented code and treat security as a first class citizenDesign and build interfaces with major internal services to connect the Scalable Capital asset allocation engine with the worldDesign and build cloud-native solutions that process high volume of financial dataCreate the next generation wealth management and brokerage services for everybodyQualificationsExcellent university degree in computer science, mathematics, natural sciences, or a similar field5+ years of backend experience in Python (mandatory) Java/Kotlin previous experience would be a plusHands-on experience with multiple AWS servicesIndustry experience with Docker, Git and RESTful API Excellent knowledge in data-driven business applicationsExposure and interest in our tech stack: Python, DevOps, Docker, CI/CD pipelines, Infrastructure as Code (Terraform), SQL and event-based asynchronous architecturesSolid knowledge of software development and design in PythonA soft spot for automation and clean codeExcellent communication skills that are clear, concise, and targeted towards your audience - engineering, product, or other stakeholdersAdvanced knowledge of all varieties of databasesFluent English language skills (written &amp; spoken)Proactive, independent, collaborative and easy-going working style, good time management, fair playPreferred skillsPassion for the global financial marketsExperience in quantitative modelling and data-driven decisionsWe would be happy if you'd write to us in the "message to the Hiring Manager" section about what excites you about the role and why you think you would be a great fit!Additional InformationBe part of one of the fastest-growing and most visible Fintech startups in Europe, creating innovative services that have a substantial impact on the lives of our customersWork with an international, diverse, inclusive, and ever-growing team that loves creating the best products for our clientsEnjoy an office in a great location in the middle of Munich or Prenzlauer Berg, a vibrant district surrounded by an exciting array of restaurants, cafÃ©s and convenient amenitiesBe productive with the latest hardware and toolsLearn and grow by joining our in-house</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:10</t>
+          <t>2025-06-15 22:30:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Python Engineer - Backend and Cloud DevOps (m/f/x) (onsite / remote in Germany)</t>
+          <t>L2/L3 Support Engineer (gn) Azure Database</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>bundesweit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Scalable GmbH</t>
+          <t>SoftwareOne Deutschland GmbH</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-python-engineer-backend-cloud-devops-onsite-remote-germany-130897850</t>
+          <t>https://www.xing.com/jobs/bundesweit-l2-l3-support-engineer-gn-azure-database-130469654</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Remote 
+            + 11 other locations
+        Job function
+      Software &amp; Cloud 
+        Why softwareons?
+          Support Engineer (GN) Microsoft Azure Database
+         Full time | unlimited | Location: nationwide or hybrid/remote
+        Softwareone is a global platform, solving and service company and supports organizations with innovative solutions in the budgeting and optimization of their global IT costs from onâ Premises to cloud environments. We have extensive expertise to advise customers in the sense of an optimal cloud strategy and to permanently increase the success of a cloud infrastructure. In the Multivendor Premium Service area, we provide support for 14 manufacturers. 
+        The area of ​​responsibility
+          What awaits you
+          You react to acute precursors in complex IT environments of our business customers in the 2nd and 3rd level support
+          Based on your experience and technical expertise
+          You take contact with the customer on a personal contact and accompany him until the problem is solved
+          If you take care of the manufacturer and coordinate the further coordination
+          You document your work in the ITIL-compliant ticket system
+          You work flexibly (in coordination with colleagues) between 7 a.m. and 8 p.m.
+          You can also do call diversity (a maximum of 1 week a month)
+          You will regularly picture yourself personally and technically
+        Knowledge and
+          Troubleshooting experience in the following areas are desirable:
+          Microsoft SQL Server from version 2012 (Standalone, Cluster, Alwayson)
+          Microsoft Azure SQL
+          Microsoft DataBricks
+          Azure Data Factory
+          Ideally, you have experience in the field of experience:
+          Microsoft Purview
+          Micorosft Azure Devops
+          In addition, you bring the following soft skills with you      
+          You work in terms of customer and lease 
+          You love to repair things
+          You can quickly see through complex facts
+          You know processes and copies within matrix organizations
+          You speak and write negotiating German and English
+          We have that to offer
+        Our employees are our most important capital and we are doing everything you can to see with us:
+          We trust you - ours 
+            Working hours
+           are 
+            flexible
+          Jobrad (Lease A Bike) and our participation in the Germany ticket form our 
+            Mobile act concept
+          The possibility in 
+            Home office
+           to work
+            30 vacation days
+           and the option on a sabbatical
+          Your success is our goal: Maã tailored 
+            Further training and development opportunities
+           Waiting on our internal portal
+          Individual range of internal 
+            Coaching and psychosocial advice
+            Local health and sports offers
+           (e.g. subsidiary for blue light filter glasses, boot camp)
+            20% additional payment
+           To the company pension scheme
+          Together for the world: get yourself 
+            one day free for the Harmony Day
+          to do good
+            Raffle
+           From Bundesliga tickets
+          Benefit from the company's success through our 
+            Employees and recommendation programs
+          Safe discounts at 
+            Corporate benefits
+            Dress code?
+           We don't know! Wear in which you feel like it
+            Onboarding buddy
+           For the optimal entry 
+          In Leipzig you have the possibility in our 
+            canteen
+           to eat for the sake of eating noon
+        All other benefits at: 
+           here 
+        Softwareone is an employer who stands for equality. 
+        With "employees satisfaction" as one of our core values, set</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:13</t>
+          <t>2025-06-15 22:30:46</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>L2/L3 Support Engineer (gn) Azure Database</t>
+          <t>IT System Engineer (m/f/d) - Focus Microsoft Server &amp; Citrix</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bundesweit</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareOne Deutschland GmbH</t>
+          <t>SHD System-Haus-Dresden GmbH</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2824,17 +4045,79 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/bundesweit-l2-l3-support-engineer-gn-azure-database-130469654</t>
+          <t>https://www.xing.com/jobs/leipzig-it-system-engineer-schwerpunkt-microsoft-server-citrix-133797158</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IT System Engineer (m/f/d) - Focus Microsoft Server &amp; Citrix
+                  Leipzig
+            Leipzig (hybrid) 
+            Flexible working hours
+            30 vacation days
+        Your challenge
+          Understand our team in Dresden or Leipzig as IT System Engineer (m/f/d) with a focus on Microsoft Server &amp; Citrix to look after our regional customers. Your workplace is available to you at the Dresden headquarters or at the Leipzig place. 
+          Take responsibility:
+          Ensuring the IT operation and self-edition of sub-projects in the areas of Microsoft Server, cloud technologies and Citrix
+          Accept challenges:
+          Creation of technical concepts and solution scenarios for various customer environments
+          Document experience:
+          Documentation of technical facts and recording the services (project / service)
+          Exciting area of ​​responsibility:
+          Processing customer -specific support inquiries
+          Working in project planning, preparation and playing implementations
+          Successful teamwork:
+          Close cooperation with our experienced specialists in the team
+        We offer you
+          Excellent familiarization:
+          Through our mentors, experienced colleagues are at your side at any time to make it easier for you to get started with the SHD.
+          Flexible on the go:
+          Be mobile - whether with a Jobrad or personalized company car for private use. With our offers you are always flexible. Sufficient parking space in our branches are of course free of charge.
+          Intensive fuel:
+          With us, a variety of developmental opportunities with sophisticated and varied tasks await you, accompanied with versatile training meadows and your own test center.
+          30 days of vacation and an attractive remuneration:
+          If you work, you have to spend your money and where can it be better than on vacation?
+          Design freedom:
+          We give a self -responsible way of working and offer you the space, your will to design your design and your own initiative in order to further develop with us.
+          Well -being factor:
+          We offer you a pleasant working atmosphere with free drinking and coffee as well as our regular sports and company events, regulated working hours and modern workplace equipment.
+          New Work:
+          You get the best mix of teamwork, flexible working hours and the possibility of mobile work.
+        many extras
+        Your profile
+          Your training:
+          Completed study of computer science, a comparable course of study or training as a specialist with a specialist (m/f/d) with appropriate professional experience
+          Your experience:
+          Relevant professional experience, e.g. in IT administration or in the engineering system with a focus on Microsoft and the associated services
+          Ideally experience in the concept of concept and in project management
+          Your knowledge and skills:
+          Good knowledge of the areas of ad, Exchange, M365 and SQL
+          Expertise in the area of ​​Citrix
+          Very good German and good English skills
+          Communication and customer orientation
+          Team sophistication and joy in new technologies
+          Employee benefits
+            Team events
+            Flexible working hours
+            Soft drinks, coffee, water, tea, milk
+            laptop
+            Home Office options or remote work
+            Fruit, gems, snacks
+            Ergonomic workplace
+            Further training and development opportunities
+            Good ã pnv connection
+            Company parking lot
+            Bicycle leasing (jobrad)
+            Company pension scheme
+            Employees promote employees
+            Daycare subsidy
+                   Vouchers or praises in anniversaries
+            High value</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:16</t>
+          <t>2025-06-15 22:30:51</t>
         </is>
       </c>
     </row>
@@ -2846,7 +4129,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Dresden</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2861,71 +4144,133 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/leipzig-it-system-engineer-schwerpunkt-microsoft-server-citrix-133797158</t>
+          <t>https://www.xing.com/jobs/dresden-it-system-engineer-schwerpunkt-microsoft-server-citrix-133797171</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IT System Engineer (m/f/d) - Focus Microsoft Server &amp; Citrix
+                  Dresden
+            Dresden (hybrid) 
+            Flexible working hours
+            30 vacation days
+        Your challenge
+          Understand our team in Dresden or Leipzig as IT System Engineer (m/f/d) with a focus on Microsoft Server &amp; Citrix to look after our regional customers. Your workplace is available to you at the Dresden headquarters or at the Leipzig place. 
+          Take responsibility:
+          Ensuring the IT operation and self-edition of sub-projects in the areas of Microsoft Server, cloud technologies and Citrix
+          Accept challenges:
+          Creation of technical concepts and solution scenarios for various customer environments
+          Document experience:
+          Documentation of technical facts and recording the services (project / service)
+          Exciting area of ​​responsibility:
+          Processing customer -specific support inquiries
+          Working in project planning, preparation and playing implementations
+          Successful teamwork:
+          Close cooperation with our experienced specialists in the team
+        We offer you
+          Excellent familiarization:
+          Through our mentors, experienced colleagues are at your side at any time to make it easier for you to get started with the SHD.
+          Flexible on the go:
+          Be mobile - whether with a Jobrad or personalized company car for private use. With our offers you are always flexible. Sufficient parking space in our branches are of course free of charge.
+          Intensive fuel:
+          With us, a variety of developmental opportunities with sophisticated and varied tasks await you, accompanied with versatile training meadows and your own test center.
+          30 days of vacation and an attractive remuneration:
+          If you work, you have to spend your money and where can it be better than on vacation?
+          Design freedom:
+          We give a self -responsible way of working and offer you the space, your will to design your design and your own initiative in order to further develop with us.
+          Well -being factor:
+          We offer you a pleasant working atmosphere with free drinking and coffee as well as our regular sports and company events, regulated working hours and modern workplace equipment.
+          New Work:
+          You get the best mix of teamwork, flexible working hours and the possibility of mobile work.
+        many extras
+        Your profile
+          Your training:
+          Completed study of computer science, a comparable course of study or training as a specialist with a specialist (m/f/d) with appropriate professional experience
+          Your experience:
+          Relevant professional experience, e.g. in IT administration or in the engineering system with a focus on Microsoft and the associated services
+          Ideally experience in the concept of concept and in project management
+          Your knowledge and skills:
+          Good knowledge of the areas of ad, Exchange, M365 and SQL
+          Expertise in the area of ​​Citrix
+          Very good German and good English skills
+          Communication and customer orientation
+          Team sophistication and joy in new technologies
+          Employee benefits
+            Team events
+            Flexible working hours
+            Soft drinks, coffee, water, tea, milk
+            laptop
+            Home Office options or remote work
+            Fruit, gems, snacks
+            Ergonomic workplace
+            Further training and development opportunities
+            Good ã pnv connection
+            Company parking lot
+            Bicycle leasing (jobrad)
+            Company pension scheme
+            Employees promote employees
+            Daycare subsidy
+            Vouchers or praises in anniversaries
+            HO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:20</t>
+          <t>2025-06-15 22:30:58</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IT System Engineer (m/f/d) - Focus Microsoft Server &amp; Citrix</t>
+          <t>(Senior) Azure Cloud DevOps Engineer (gn)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Deuschlandweit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SHD System-Haus-Dresden GmbH</t>
+          <t>Jungwild GmbH</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>23 days ago</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/dresden-it-system-engineer-schwerpunkt-microsoft-server-citrix-133797171</t>
+          <t>https://www.xing.com/jobs/deuschlandweit-senior-azure-cloud-devops-engineer-gn-135588123</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>You are enthusiastic about working in the cloud? You bring multi-day professional experience with the Cloud platform Azure? Then you are the right place here! The employer: Our customer is a globally operating service company for innovative IT solutions. The customers come from a wide variety of industries and particularly the outstanding know-how, as well as the company-mature technological knowledge of the company. Regular Feedback Talks and Number of salary adjustment other benefits such as employee discounts, a job ticket and an insurance service are your tasks: In addition to your main tasks, the conception and implementation of cloud projects, solutions and products in MS Azure Customer Customer Architectures You work closely with developers and specialist areas (internally and at the customer) together with the planning, further development and optimization of CI/CD pipelinesdu are for the application transformation using cloud native architectures. Professional experience Knowledge of the Cloud platform Azureer Experience in the area of ​​Linux and web technology ideal for initial experiences with Terraform, Packer, Boss, Docker, Kubernetes or possible tool-ideal. Then apply very comfortably and easily with or without a résumé! Are there still open questions? Then just log in by phone or via WhatsApp at Max on 0157 85553543.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:23</t>
+          <t>2025-06-15 22:31:03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>(Senior) Azure Cloud DevOps Engineer (gn)</t>
+          <t>Scala Software Engineer (m/f/d) - Trip Management</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Deuschlandweit</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jungwild GmbH</t>
+          <t>MOIA GmbH</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2935,17 +4280,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/deuschlandweit-senior-azure-cloud-devops-engineer-gn-135588123</t>
+          <t>https://www.xing.com/jobs/berlin-scala-software-engineer-trip-management-135550913</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Scala Software Engineer (m/f/d) - Trip Management Berlin, Germany  Join us as a  Scala Software Engineer   (m/f/d) in our Trip Management team on a shared journey that matters!   You will join a group of kind, funny, and passionate individuals in the    MOIA    Trip Management team. Weâre the team behind the lifecycle of a trip, from the moment a customer requests an offer to the successful completion of their ride. Our software orchestrates all services needed to create and manage trips, making trip-related data and operations available through  MOIA âs Ridepooling API. If it involves a trip, it involves us.We take care of features with high customer impact, ensuring our Ridepooling service runs smoothly across multiple cities. Youâll work on distributed systems, real-time event processing, and a reliable cloud infrastructure, with full ownership of the systems you build and operate.What you will do Develop and Optimize APIs: Work on our gRPC-based Ride-pooling API, enabling seamless trip processing and customer interactions across multiple service areas.Manage Trip Requests &amp; Orders: Implement and enhance systems that handle the creation, validation, and fulfillment of trip orders across multiple service areas.Real-Time Event Processing: Contribute to our event-sourced architecture by publishing and reacting to real-time trip updates to keep operations timely and accurate.Stop Resolution &amp; Pathfinding: Use OpenStreetMap data and Pekko Actors to deliver efficient routing and stop resolution logic for ridepooling.Cloud Infrastructure &amp; Deployment: Build and maintain AWS-based infrastructure, following our "you build it, you run itâ approach to ensure smooth, scalable, and resilient deployments.Automation &amp; Monitoring: Improve our CI/CD pipelines and monitoring setup using tools like OpenSearch, Grafana, and Jaeger to keep our services observable and reliable.Write Robust, High-Quality Code: Develop scalable services with a strong emphasis on code quality, maintainability, and comprehensive testing.Test at all levels: Contribute to a culture of quality by writing unit, integration, blackbox, and end-to-end tests to ensure system reliability.What will help you to fulfill your roleBackend Engineering Skills: Experience with Scala and frameworks like    ZIO    and Akka/Pekko (Actors, Streams, HTTP, Clustering).Cloud &amp; DevOps Familiarity: Hands-on experience with AWS, Kubernetes,    CDK   , and CI/CD practices.Experience with Distributed Systems: Understanding of event-driven architectures, gRPC, protobufs, and reactive systems.Testing Mindset: Experience writing and maintaining various test types and a focus on building systems that are easy to monitor and maintain.Data-Driven Approach: Familiarity with tools like OpenSearch/Kibana, Grafana, and Prometheus to understand and optimize system performance.Team Player: Collaborative and communicative team player with a proactive approach to knowledge sharing and peer mentorship.Pragmatic mindset: Hands-on mindset of finding pragmatic solutions within a complex ecosystem, balancing simplicity and necessary complexity, avoiding overengineering while solving real problems. We encourage you to apply even if your profile does not meet all the requirements for the role since we are looking for a diverse range of experiences, skills, and interests. We are certain that there will be something for everyone because we are working on such a variety of tasks and embrace individual growth at MOIA. In case you have questions regarding your application, you can approach the recruiter Jovana   directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching, conferences, books, and language classes Mental health support, 1:1 sessions with external professionals and mental unload workshops 30 vacation days, sabbatical and unpaid leave option Relocation support with service provider (visa, administration, etc.) Dog-friendly offices For student &amp; internship positions, we have an adjusted set of benefits.  You can find them here.Be who you are!We are a member of Charta der Vielfalt and are dedicated to actively fostering a workplac</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:25</t>
+          <t>2025-06-15 22:31:06</t>
         </is>
       </c>
     </row>
@@ -2977,19 +4322,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Scala Software Engineer (m/f/d) - Trip Management Hamburg, Germany  Join us as a  Scala Software Engineer   (m/f/d) in our Trip Management team on a shared journey that matters!   You will join a group of kind, funny, and passionate individuals in the    MOIA    Trip Management team. Weâre the team behind the lifecycle of a trip, from the moment a customer requests an offer to the successful completion of their ride. Our software orchestrates all services needed to create and manage trips, making trip-related data and operations available through  MOIA âs Ridepooling API. If it involves a trip, it involves us.We take care of features with high customer impact, ensuring our Ridepooling service runs smoothly across multiple cities. Youâll work on distributed systems, real-time event processing, and a reliable cloud infrastructure, with full ownership of the systems you build and operate.What you will do Develop and Optimize APIs: Work on our gRPC-based Ride-pooling API, enabling seamless trip processing and customer interactions across multiple service areas.Manage Trip Requests &amp; Orders: Implement and enhance systems that handle the creation, validation, and fulfillment of trip orders across multiple service areas.Real-Time Event Processing: Contribute to our event-sourced architecture by publishing and reacting to real-time trip updates to keep operations timely and accurate.Stop Resolution &amp; Pathfinding: Use OpenStreetMap data and Pekko Actors to deliver efficient routing and stop resolution logic for ridepooling.Cloud Infrastructure &amp; Deployment: Build and maintain AWS-based infrastructure, following our "you build it, you run itâ approach to ensure smooth, scalable, and resilient deployments.Automation &amp; Monitoring: Improve our CI/CD pipelines and monitoring setup using tools like OpenSearch, Grafana, and Jaeger to keep our services observable and reliable.Write Robust, High-Quality Code: Develop scalable services with a strong emphasis on code quality, maintainability, and comprehensive testing.Test at all levels: Contribute to a culture of quality by writing unit, integration, blackbox, and end-to-end tests to ensure system reliability.What will help you to fulfill your roleBackend Engineering Skills: Experience with Scala and frameworks like    ZIO    and Akka/Pekko (Actors, Streams, HTTP, Clustering).Cloud &amp; DevOps Familiarity: Hands-on experience with AWS, Kubernetes,    CDK   , and CI/CD practices.Experience with Distributed Systems: Understanding of event-driven architectures, gRPC, protobufs, and reactive systems.Testing Mindset: Experience writing and maintaining various test types and a focus on building systems that are easy to monitor and maintain.Data-Driven Approach: Familiarity with tools like OpenSearch/Kibana, Grafana, and Prometheus to understand and optimize system performance.Team Player: Collaborative and communicative team player with a proactive approach to knowledge sharing and peer mentorship.Pragmatic mindset: Hands-on mindset of finding pragmatic solutions within a complex ecosystem, balancing simplicity and necessary complexity, avoiding overengineering while solving real problems. We encourage you to apply even if your profile does not meet all the requirements for the role since we are looking for a diverse range of experiences, skills, and interests. We are certain that there will be something for everyone because we are working on such a variety of tasks and embrace individual growth at MOIA. In case you have questions regarding your application, you can approach the recruiter Jovana   directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching, conferences, books, and language classes Mental health support, 1:1 sessions with external professionals and mental unload workshops 30 vacation days, sabbatical and unpaid leave option Relocation support with service provider (visa, administration, etc.) Dog-friendly offices For student &amp; internship positions, we have an adjusted set of benefits.  You can find them here.Be who you are!We are a member of Charta der Vielfalt and are dedicated to actively fostering a workpla</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:27</t>
+          <t>2025-06-15 22:31:09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scala Software Engineer (m/f/d) - Trip Management</t>
+          <t>Senior DevOps Engineer (Full Remote) (*)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2999,34 +4344,54 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MOIA GmbH</t>
+          <t>Stolzberger GmbH</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23 days ago</t>
+          <t>26 days ago</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-scala-software-engineer-trip-management-135550913</t>
+          <t>https://www.xing.com/jobs/berlin-senior-devops-engineer-full-remote-135406478</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The company is one of the leading DevOps experts in Europe. But also in other technology fields there is a shine, for example one is also one of the most successful Atlassian partners. Regardless of providers or manufacturers, you always orientate yourself to the most modern technologies and, according to all employees, offer the associated training and incorporations. But not only at the technology level, but also in the way you work are moving on the pulse of time. Whether remote work or flexible working time design: it is geared to the employees and everyone can decide how to work best. Tasks
+Project-oriented structure of exciting DevOps environments
+Conception of cloud architectures and interfaces to the on-prem surroundings
+Hands-on automation with Terraform (possibly Ansible. Bash, PowerShell, etc.)
+Supervision of the associated security interfaces in the cloud
+Contact person and consultant for the DevOps college: inside the customers (remote)
+profile
+Extensive hands-on experience in Devops engineering
+Preferably project management experience and already migrations / green field projects accompanied
+Interest in modern tools in automation
+Open personality and a team player, despite remote work
+German negotiating and English Flieã End
+We offer
+Full remote option to always visit the HQ with the option if you are
+Freedom of implementation in the team and the projects, no microbilagement
+Working and environment based on New Work oriented
+Realization of the personal development of further development
+Personal work design, home office, working hours and everyday work are free to adapt the employee
+Groãs Network of experienced college: inside from the area of ​​cloud, devops and modernization for the exchange
+Minimal hierarchies for communication at eye
+Contacttraphael Solassassel.: +497114009975-Mail: raphael.solass@stolzberger.deWebsite: https: //jobs.stolzberger.de*stolzberger not only talks to equality, but also lives and is of the opinion that man is living and not gender. Our tender applies regardless of gender, ethnic origin, religion, disability, age or sexual identity.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:32</t>
+          <t>2025-06-15 22:31:14</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer (Full Remote) (*)</t>
+          <t>Senior Software Engineer (*)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3046,24 +4411,39 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-senior-devops-engineer-full-remote-135406478</t>
+          <t>https://www.xing.com/jobs/berlin-senior-software-engineer-remote-135405072</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The owner-carried out IT company advice unites agilit and a very high quality claim with an employee-oriented leading style. In addition to classic IT advice, the company focuses on both software development and testing. Around 180 employees benefit from varied projects, excellent further training opportunities and industry -related conditions. Tasks
+Development of complex Java solutions according to customer requirements and maintenance of framework components
+Co-development of the microservices architecture with Java, Spring and JPA
+Supporting the agile frontend development (HTML5, JavaScript, Angular, etc.)
+Customer support, adjustment optimization and continuous process improvement in the team
+profile
+Qualification in IT or the area with appropriate professional experience
+Practical experience in Java, Spring, Spring Boot and Spring Data
+Familiarity with various frameworks and tools as well as basic knowledge of devops and container technologies
+Strong communication facilities (German), goal orientation, willingness to train and team spirit
+We offer
+Varied projects and space for further development
+Spaã at work and at company events
+Attractive payment with good opportunities
+Promising training opportunities
+Contacttraphael Solassassel.: +497114009975-Mail: raphael.solass@stolzberger.deWebsite: https: //jobs.stolzberger.de*stolzberger not only talks to equality, but also lives and is of the opinion that man is living and not gender. Our tender applies regardless of gender, ethnic origin, religion, disability, age or sexual identity.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:35</t>
+          <t>2025-06-15 22:31:17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Senior Software Engineer (*)</t>
+          <t>Software Engineer (all genders)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3073,34 +4453,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Stolzberger GmbH</t>
+          <t>NFON</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26 days ago</t>
+          <t>30+ days ago</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-senior-software-engineer-remote-135405072</t>
+          <t>https://www.xing.com/jobs/berlin-software-engineer-genders-135220772</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Your new role With a passion for Conversational AI, you develop a scalable multi-tenant platform that opens access to cutting-edge LLM technologies and brings the future of communication closer to businesses. The work youâll do  You engage with our customers to understand their needs and create exceptional solutions In close collaboration with our AI team, you independently plan, program, and operate software You test new functionalities and ensure the quality assurance of the platform  The qualifications you need  You have professional experience in software development You have strong knowledge and experience with Angular, Node.js, Docker, and MongoDB You think solution-oriented and approach problems analytically and systematically You enjoy working in an agile team and can communicate effectively with people from various professions (both technical and non-technical) As a nice-to-have, we would appreciate experience with cloud platforms (AWS, Azure, etc.) and DevOps topics (Kubernetes, CI/CD) You have an independent working style You are fluent in both German and English, both written and spoken  What we can offer you  As an innovative company with a clear vision, we actively contribute to the digitization and transformation of the communication landscape by developing new ideas and creative solutions while breaking away from outdated structures Flexible, family-friendly working hours and option to work from home Short decision paths, the opportunity to get involved, take over responsibility and use new technologies Spacious office at the Europahafen: workplace with water view! Company fitness program, BusinessBike and access to company boat Coverage of costs for e-learning courses as desired Regular exchange: we visit and organize internal and public (AI) events Exciting, international clients from a wide range of industries Fair, appropriate salary and employee participation program 30 days of vacation and the possibility of part-time work Top hardware, height-adjustable desks and multiple monitors at every workstation Of course: organic fruit baskets, smoothie bar, ice cream flat rate, Thermomix, rice cooker, drinks (good coffee, mate, etc.) We support the compatibility of work, family and private life and are "Certified Family Friendly"</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:37</t>
+          <t>2025-06-15 22:31:20</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Software Engineer (all genders)</t>
+          <t>(Senior) DevOps Engineer (all genders)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3120,34 +4500,34 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-software-engineer-genders-135220772</t>
+          <t>https://www.xing.com/jobs/berlin-senior-devops-engineer-all-genders-135220769</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>You design your new job as a Devops Engineer the future of the infrastructure by building Kubernetes clusters and implementing CI/CD pipelines that enable a scalable and high-found platform. How you will participate will be responsible for the structure and management of Kubernetes clusters to orchestrate container applications. To implement and optimize cloud infrastructures You ensure the stabilization and performance of the systems by protecting system resources proactively overhauling and optimizing you under the introduction and improvement of DevOps best practice in the teams you need the qualifications that you need in more and more experience in working with Kubbernet Orchestration of containers you have well-founded knowledge of continuous integration and continuous delivery (CI/CD), ideally with tools such as Gitlab CI You have experience in operation and automation of infrastructure, preferably in a cloud environment you are safe with version control systems such as git and Infrastructure-As-Code tools such as Terraform or Ansible To get very good knowledge of the Linux system administration with optional, but an advantage: You have programming skills in scripting languages ​​such as Python You master German and English in word and writing. What we can offer you as innovative companies with clear vision we actively support the digitization and transformation Communication landscape by developing new ideas and creative litigation and from old structures brief decision -making ways, the possibility of getting involved, getting things and using new technologies. Company fitness, business bike and a separate company boat Costs for e-learning courses as desired Regulation exchange: We visit and organize internal and international (KI) events Exciting, international customers from various industries Fair, adequate content and employee participation for 30 days of vacation and option at part-time top hardware, high-quality and adjustable and Several monitors of course at every workplace: organic fruit/gems, smoothie bar, ice flat rate, thermomix and rice cooker as well as drinks (good coffee, mate etc.) We support the reconciliation of work, family and private life and are "excellent family-friendly"</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:40</t>
+          <t>2025-06-15 22:31:23</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>(Senior) DevOps Engineer (all genders)</t>
+          <t>Senior Fullstack Java/Angular Developer (M/E/N/S/C/H)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Wien</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NFON</t>
+          <t>WhizUs GmbH</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3157,34 +4537,34 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-senior-devops-engineer-all-genders-135220769</t>
+          <t>https://www.xing.com/jobs/wien-senior-fullstack-java-angular-developer-134953457</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Introduction part of our team from Devops Engineers, who have come to IT from a wide variety of areas. From the technical mathematician, over the software developer to the system administrator, we try to implement interesting projects together and thus make the IT world a little better. Tasks develop as an essential part of our development teams. In addition to the implementation of the customers, internal projects also bring in your own ideas in the development - with us you will be heard and shot! Support with your know -how, also colleagues in other projects qualifications have experience in Java Development and various Java Frameworks (e.G. Spring) You have experience in frontend technologies (e.G. react, Angular) You are motivated with agile development methods. If you want to develop and not do everyday jobs, where you do the same tasks every day, benefit homeofficebonus regulations Team events in a relaxed atmospheric meal granting. Kubecon) Wiener Lines Ticket / Klimaticket A few words at the final law. We are obliged to pay the minimum fee for this position. According to the IT collective agreement, this concerns â &lt;3,843. However, your actual content is based on your experience and qualifications. We offer experienced developers a fair good salary. We are happy to clock this in a personal conversation.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:42</t>
+          <t>2025-06-15 22:31:26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Senior Fullstack Java/Angular Developer (M/E/N/S/C/H)</t>
+          <t>Analytics Engineer (m/f/d) - Data Foundation</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wien</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WhizUs GmbH</t>
+          <t>MOIA GmbH</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3194,17 +4574,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/wien-senior-fullstack-java-angular-developer-134953457</t>
+          <t>https://www.xing.com/jobs/berlin-analytics-engineer-data-foundation-134867018</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Analytics Engineer (m/f/d) - Data FoundationBerlin, GermanyJoin us as a Analytics Engineer (m/f/d) in our   Data Foundation   team on a shared journey that matters!As the Data Foundation team, we aim to bridge the gap between raw data and refined data products. We want to bring meaning to data by providing an accessible and easy-to-use data model. Collaboration stands at the heart of what we do, and we strongly believe in shared contribution and the enablement of other teams to create the data products they need.We are looking for an Analytics Engineer (or Data Engineer) to join our team. We are a small and open-minded bunch of people with backgrounds in data engineering, analytics, and data science. We thrive on open communication, fun at work, and authenticity for everyone.What you will doBe an engineer!Implement new data pipelines with dbt and python, facilitating standard software practices such as CI/CD, testing data quality, and ensuring data modularity across the board (devops mindset). Work closely with members of our data platform to bootstrap new data services, implementing infrastructure as needed while ensuring data security and data protection.Be an architect!Translate business questions into meaningful data models and metrics (KPIs).Design and conceptualise new data assets as part of our overarching analytical layer, having reusability and ease-of-use in mind.Develop and improve our data modelling framework in close collaboration with other data teams.Be a team player!Enable product teams to build their own data products within the data foundation framework and support them with onboarding sessions, consulting, or documentation.Pair with other team members on complex coding challenges or process improvements while ensuring a fun environment for everyone.What will help you to fulfill your role You have a background in data engineering or similar domains such as analytics engineering, business analytics, data science or software engineering.You have experience translating business needs into meaningful data models and metrics, bridging the gap between raw data and actionable insights.You know the difference between a "left joinâ and "inner joinâ, and donât faint when thinking about window calculations. Python is a big plus, but not a deal breaker if your knowledge is limited.You have worked with ETL frameworks in the past, and you know how to implement and orchestrate solid data pipelines. We especially look for people with knowledge in dbt (or similar tools like sqlmesh) in combination with an orchestrator such as Airflow or Dagster.You are familiar with data modelling practices (e.g., Kimball, Star, 3NF, Data Vault) and how to architect long-lasting and lightweight data architecture. If you bring us to new dimensions, weâll bring the facts.You have worked on infrastructure projects in the past, and you know your way around cloud providers such as AWS, GCP, or Azure. If "Athenaâ is more than a Greek goddessâs name to you, we are going to be friends.You know how to implement and ship software changes in small increments, with quick iterations and feedback loops, making use of CI/CD, testing using for example Github Actions. You are willing to jump in, investigate, and fix failing services (nice to have: experience with observability and monitoring).You donât hesitate to jump into stakeholder meetings, organizing workshops, reviews, or onboardings with our colleagues who are closest to us.You feel comfortable in a small team with close communication circles, big appreciation for each other, and the occasional meme ping-pong. Itâs going to be fun - we promise.We encourage you to apply even if your profile does not meet all the requirements for the role since we are looking for a diverse range of experiences, skills, and interests. We are certain that there will be something for everyone because we are working on such a variety of tasks and embrace individual growth at MOIA. In case you have questions regarding your application, you can approach the recruiter   Patty     directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching,</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:45</t>
+          <t>2025-06-15 22:31:31</t>
         </is>
       </c>
     </row>
@@ -3216,7 +4596,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3231,34 +4611,34 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-analytics-engineer-data-foundation-134867018</t>
+          <t>https://www.xing.com/jobs/hamburg-analytics-engineer-data-foundation-134867013</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Analytics Engineer (m/f/d) - Data FoundationHamburg, GermanyJoin us as a Analytics Engineer (m/f/d) in our   Data Foundation   team on a shared journey that matters!As the Data Foundation team, we aim to bridge the gap between raw data and refined data products. We want to bring meaning to data by providing an accessible and easy-to-use data model. Collaboration stands at the heart of what we do, and we strongly believe in shared contribution and the enablement of other teams to create the data products they need.We are looking for an Analytics Engineer (or Data Engineer) to join our team. We are a small and open-minded bunch of people with backgrounds in data engineering, analytics, and data science. We thrive on open communication, fun at work, and authenticity for everyone.What you will doBe an engineer!Implement new data pipelines with dbt and python, facilitating standard software practices such as CI/CD, testing data quality, and ensuring data modularity across the board (devops mindset). Work closely with members of our data platform to bootstrap new data services, implementing infrastructure as needed while ensuring data security and data protection.Be an architect!Translate business questions into meaningful data models and metrics (KPIs).Design and conceptualise new data assets as part of our overarching analytical layer, having reusability and ease-of-use in mind.Develop and improve our data modelling framework in close collaboration with other data teams.Be a team player!Enable product teams to build their own data products within the data foundation framework and support them with onboarding sessions, consulting, or documentation.Pair with other team members on complex coding challenges or process improvements while ensuring a fun environment for everyone.What will help you to fulfill your role You have a background in data engineering or similar domains such as analytics engineering, business analytics, data science or software engineering.You have experience translating business needs into meaningful data models and metrics, bridging the gap between raw data and actionable insights.You know the difference between a "left joinâ and "inner joinâ, and donât faint when thinking about window calculations. Python is a big plus, but not a deal breaker if your knowledge is limited.You have worked with ETL frameworks in the past, and you know how to implement and orchestrate solid data pipelines. We especially look for people with knowledge in dbt (or similar tools like sqlmesh) in combination with an orchestrator such as Airflow or Dagster.You are familiar with data modelling practices (e.g., Kimball, Star, 3NF, Data Vault) and how to architect long-lasting and lightweight data architecture. If you bring us to new dimensions, weâll bring the facts.You have worked on infrastructure projects in the past, and you know your way around cloud providers such as AWS, GCP, or Azure. If "Athenaâ is more than a Greek goddessâs name to you, we are going to be friends.You know how to implement and ship software changes in small increments, with quick iterations and feedback loops, making use of CI/CD, testing using for example Github Actions. You are willing to jump in, investigate, and fix failing services (nice to have: experience with observability and monitoring).You donât hesitate to jump into stakeholder meetings, organizing workshops, reviews, or onboardings with our colleagues who are closest to us.You feel comfortable in a small team with close communication circles, big appreciation for each other, and the occasional meme ping-pong. Itâs going to be fun - we promise.We encourage you to apply even if your profile does not meet all the requirements for the role since we are looking for a diverse range of experiences, skills, and interests. We are certain that there will be something for everyone because we are working on such a variety of tasks and embrace individual growth at MOIA. In case you have questions regarding your application, you can approach the recruiter   Patty     directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching,</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:49</t>
+          <t>2025-06-15 22:31:35</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Analytics Engineer (m/f/d) - Data Foundation</t>
+          <t>Senior Full Stack Engineer (gn) - Remote in Europa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Fulda</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MOIA GmbH</t>
+          <t>Proemion</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3268,34 +4648,34 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/hamburg-analytics-engineer-data-foundation-134867013</t>
+          <t>https://www.xing.com/jobs/fulda-senior-full-stack-engineer-gn-remote-europa-134814442</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Description We are now looking for you as a senior full stack engineer (GN) with Spring and Angular expertise at our headquarters in Fulda, Germany or 100% remote in Europe with at least 6 hours of overlap with CET 9: 00-17: 00 working hours (+/- 2h from CET/CEST). For this we offer you intensive onboarding and targeted individual training a high scope for design and decision as well as a lot of space for innovative work short communication channels and easily accessible team leader 1ON1S, which do not help you with your development, the choice of 100% remoted work, flexible working hours and home office days, good reconciliation of family, leisure and work a good Entered process for the submission of ideas over RFCs and a simple approval process a company that is already "High-Performer" in some teams from the key figures from the Accelerate Book and would like to achieve this status for working in the Büro: A modern and open work environment with lounges, kicker, billiards and Team events, a flat rate for soft drinks, coffee, mute and fresh fruit grant for membership in the gym and childcare Your tasks You work in a small Scrum team that focuses on the maintenance and further development of an existing solution for some of our most important customers. Inserting. Inscribed and supports the continuous application of modern software development methods such as CI/CD, testing (e.g. testing CONE), code qualification etc. According to the Proemion R &amp; D guidelines you are looking proact on possibilities to maintain an adequate implementation rate without this Technical debts to be taken up to be made. Control of object-oriented programming and design patterns Excellent written and usual English experience in the development of UX/UI solutions and compensation of design systems Experience with Linux and Docker Devops experience is a plus to work and to take responsibility for proemion We are a quick-growing international industrial tech Company at the head of the IoT/Telematics revolution with its headquarters in Fulda. In addition to Germany, there are branches in the USA and South Korea, as well as numerous colleagues who work for us worldwide. Our number of employees has more than tripled from 60 to 180 employees in the past eight years. With you we want to continuously develop the company to the next level. With us you can make a difference. There are short decision -making paths and a lot of design scope for you. Our corporate culture is characterized by international diversity, diversity and agilit as well as a hands-on mentality. We are interested in you as a person with your feasts and talents. We look forward to expanding our diversity.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:52</t>
+          <t>2025-06-15 22:31:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Senior Full Stack Engineer (gn) - Remote in Europa</t>
+          <t>DevOps Engineer (m/w/d)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fulda</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Proemion</t>
+          <t>711media websolutions GmbH</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3305,34 +4685,59 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/fulda-senior-full-stack-engineer-gn-remote-europa-134814442</t>
+          <t>https://www.xing.com/jobs/stuttgart-devops-engineer-134803657</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Devops Engineer
+                   (M/f/d)
+                  Stuttgart / remote 
+                    |
+                   Full -time 
+                    |
+                   from now on
+                  You ensure that digital products not only look good, but also run reliably.
+                As DevOps Engineer (m/f/d) at 711Media, you actively help shape the technical basis of our webles, platforms and digital products. You think holistic infrastructure, bring in new ideas and automate where it makes sense. You work with modern technologies in a team that takes innovation seriously.
+                        Your tasks are
+                        You are building, further developing and dealing with automated CI/CD pipelines as well as scalable cloud infrastructures (e.g. GCP, Digital Ocean)
+                        You implement infrastructure-as-code (e.g. with terraform, Ansible) and drive our devoting and automation strategy ahead
+                        You incorporate monitoring and logging systems (e.g. Prometheus, Grafana, ELK) and optimize them with a focus on IT security, feasibility and performance
+                        You work closely with our project managers, development teams and customers
+                        You actively bring your experience and creative ideas into the development process
+                        You have / you are
+                        Multi -wire professional experience than Devops Engineer or in a similar role
+                        Very good knowledge of Docker, Kubernetes and Gängigen CI/CD tools (Z.â &lt;b. Gitlab CI, Jenkins)
+                        Experience with cloud platforms such as GCP, AWS or Azure
+                        Safe handling of Linux, Shell scripts and infrastructure-as-code
+                        Experience with classic web technologies (Apache/Nginx, MySQL, PHP, Apache Solr)
+                        Enthusiasm for topics such as IT security, scalability and automation
+                        Independent work, team spirit and joy in the role as an interface between development, operations and customer teams
+                          Nice to have:
+                         Experience in Typo3 or shopware projects
+                  That suits you?</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:54</t>
+          <t>2025-06-15 22:31:45</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DevOps Engineer (m/w/d)</t>
+          <t>Senior Full Stack Engineer (gn) - Remote in Europe</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Fulda</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>711media websolutions GmbH</t>
+          <t>Proemion</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3342,34 +4747,34 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/stuttgart-devops-engineer-134803657</t>
+          <t>https://www.xing.com/jobs/fulda-senior-full-stack-engineer-gn-remote-europe-134724496</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Description We are looking for a Senior Fu ll Stack Engineer (gn) with Spring and Angular expertise at the earliest possible date for our headquartes in Fulda, Germany or fully remote in Europe with at least 6h overlap with CET 09:00-17:00 working hours (+/- 2h from CET/CEST). In return, we offer you  An intensive onboarding and targeted individual training Short communication channels and well accessible leaders 1on1 focused on helping you grow No micromanagement Flexitime and choice between fully remote and home office days to guarantee a nice work-life balance A company that in some teams already scores âhigh-performerâ as per the metrics from the Accelerate book and wants all teams to achieve the same Daily releases to production based on a high quality standard through automated checks, tests and code reviews For onsite work: a modern and open working environment with lounges, kicker-table, pool billard table and team events, flatrate for soft drinks, coffee, cereals, and fresh fruit Additional allowance for gym membership and childcare  Your Role  You will work in a small SCRUM team focused on maintaining and evolving a brown field (i.e.: established codebase) solution for some of the most important Proemion customers You will be in direct contact with the Stakeholders and will actively engage with them in planning, executing and monitoring You will promote and support the continued use of modern software development practices such as CI/CD, testing (i.e.: Testing Cone), code quality, etc. according to Proemion R&amp;D manuals You pro-actively look for ways to maintain an appropriate speed of execution without incurring irreversible technical debt in the long term You pro-actively look for ways to simplify the UI for the customer  Your Skills  Extensive experience with Java, Spring ecosystem and PostresSQL Extensive experience with Typescript, Angular and HTML/CSS Experience writing high quality integration, unit and end-to-end tests Excellent understanding of object-orientated programming and design patterns Excellent written and verbal English Experience building UX/UI solutions and understanding Design Systems Experience with Linux and Docker DevOps experience is a plus Ability to perform autonomously and take ownership  About Proemion We are a fast-growing international industrial tech company at the forefront of the IoT/Telematics revolution with headquarters in Fulda. Outside of Germany, we have offices in the USA and South Korea, as well as numerous colleagues working remotely for us worldwide. Our headcount has more than tripled in the last eight years from 60 to over 180 employees. With you, we want to continuously develop the company to the next level. With us, you can move things forward. There are short decision-making processes and a lot of creative freedom for you. Our corporate culture is characterized by internationality, diversity, agility and a hands-on mentality. We are interested in you as a person with your skills and talents. We are happy to see you adding to our diversity.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-06-15 21:27:57</t>
+          <t>2025-06-15 22:31:49</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Senior Full Stack Engineer (gn) - Remote in Europe</t>
+          <t>DevOps Engineer (m/w/d) – Plattform Services</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fulda</t>
+          <t>Wuppertal</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Proemion</t>
+          <t>Barmenia Versicherungen</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3379,34 +4784,36 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/fulda-senior-full-stack-engineer-gn-remote-europe-134724496</t>
+          <t>https://www.xing.com/jobs/wuppertal-devops-engineer-plattform-services-134554034</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Work together so that everything fits together.#Making it innovative and future -oriented insurance group, the Barmenia grows to the great employers in Wuppertal. A total of 4,900 employees work on modern insurance solutions across Germany. Our customers' satisfaction is always in focus. Do you love the combination of technical diversity, automation and teamwork? Then you are in the right place for us in the team platform services! We continue to operate and develop modern platform solutions based on Linux and container technologies with a clear focus on scalability, security and synergy effects. Not only do you work operatively and administratively, but also get yourself conceptually and in a way -oriented. Our work is varied, dynamic and always at the pulse of time: We rely on modern tools and technologies, meet challenges flexibly and with a high Maou in personal responsibility. The focus is on scripting instead of coding as well as the understanding of regulatory requirements. Social origin, religion/worldview, disability, age as well as sexual orientation and identity. Security, stabilization and compliance of our IT infrastructure by using infrastructure-as-code (IAC) Planning and playing patch and releasing management tasks for the consolidated power of smooth operating discharge operation and continuous further development of our Kubernetes clusters for the support of internal customers further development of our bruise -In-infrastructure and global pipeline templates your competence completed computer science, engineering, engineering or comparable training in server administration (Linux) and with container technologies such as docker and Kubernetes in-depth knowledge in the containerized software design as well as in building build and deployment pipelines enthusiasm for enthusiasm for enthusiasm Gitops as well as infrastructure and automation tools such as Ansible, Terraform and Argocd Interest in cooperation and regular exchange with the team; The joy of working in an agile environment. Good knowledge of German in spoken and writing are required for cooperation in the team as well as communication with specialist areas and external partners. Your benefit culture is the basis for a respectful for and together. Your professional and personal development is written by us, through a multi -layered range of further training you will continue to increase your professional qualifications. Our occupational health management and the compatibility of work and family (through daycare cooperation, PME family service etc.) ensure an optimal work-life balance. Other benefits for you: Flexible working hours/ confidence working hours work/ home office (up to 80%) take a break â up to 10 days in Europe -wide working company pension scheme (BAV) Occupational health insurance (BKV) Employee restaurant and cafeteria (subsidized) Discounts on insurance products and purchasing management mobile materials (Service bike, job ticket) already curious what your new job looks like? Then have a look here in our 360-degree tour of the IT Arena. We look forward to your online application. 
+Dept. Personnel consultancy and recruitment (b) Tel: 0202 438 1680
+Email: laura-jane.krueger@barmenia.de Ausstahnimtim Moment is not a suitable job? Then register directly for our talent Network.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:00</t>
+          <t>2025-06-15 22:31:56</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DevOps Engineer (m/w/d) – Plattform Services</t>
+          <t>(Senior) Kotlin / Java Software Engineer - Client Technology (m/f/x) (onsite / remote in Germany)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Wuppertal</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Barmenia Versicherungen</t>
+          <t>Scalable GmbH</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3416,34 +4823,37 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/wuppertal-devops-engineer-plattform-services-134554034</t>
+          <t>https://www.xing.com/jobs/muenchen-senior-kotlin-java-software-engineer-client-technology-onsite-remote-germany-133627014</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) Kotlin / Java Software Engineer - Client Technology (m/f/x) (onsite / remote in Germany)  Full-timeCompany DescriptionScalable Capital is a leading digital investment platform in Europe. The company empowers everyone to shape their financial future. Scalable Broker makes it easy and affordable for clients to invest professionally in stocks, ETFs and other exchange-traded products and set up savings plans. Scalable Wealth, the digital wealth management service, offers clients professional investment in ETF portfolios and is also adopted as a white-label solution by renowned B2B partners. With the European Investor Exchange (EIX) Scalable Capital offers a stock exchange for retail investors in Europe. Over 27 billion euro is held on the platform by more than one million clients.Scalable Capital was founded in 2014 and employs more than 500 people at its offices in Munich, Berlin, Vienna, and London. Together with the founding and management team around Erik Podzuweit and Florian Prucker, they are working on a new generation of financial services.
+Visit our finance blog or check out our Social Media channels to find out what our Expert Teams have to say.
+Our Company Values guide us every day in how we work and collaborate. To learn more about them, you can find our values here (English).Job DescriptionYou will join the Client Technology Tribe which provides state-of-the-art security to our clients in all aspects of authentication and to maintain and enhance identification processes through KYC. We ensure a convenient and legally-secure T&amp;C consent process, as well as GDPR-compliant data processing throughout the entire client journey. We are dedicated to developing and maintaining the Salesforce platform to improve our Marketing communication channels and client support process efficiency, and to maintaining and improving our public website.
+Client Technology aims to simplify complexity for our clients and continuously improve their experience in any interaction with us. Our ultimate goal is to ensure that Scalable is regarded as the most trusted brand in finance. Work with highly motivated software engineers and academics implementing change in the financial industryWork with cutting edge technologies and be part of modern software development practices (e.g. agile and self-managed teams, continuous integration and deployment, test automation, cloud-based infrastructure and tooling)Engage with our cloud-native, DevOps-enabled infrastructure, utilizing AWS services like ECS, Fargate, and LambdaWrite clean, testable, maintainable and well-documented code and treat security as a first class citizenBring products to production and reveal real business valueBe able to improve engineering excellence in the team QualificationsA university degree in a relevant field of study (Computer Science, Engineering, etc.) or a comparable practical experience5+ years experience of full backend experience in Java/Kotlin, JWT, Docker, Spring, AWS, Git, Docker,  GraphQL, RESTful API, Databases (SQL, NoSQL)A passion for well architected, testable and documented code and an agile mindsetStrong analytical thinking, both in the technical and in the product domain.Experience in complex software projects with end-to-end ownership building MicroservicesPractical experience in AWS or another cloud providerGood communication skills that are clear, open and concise, professional proficiency in EnglishPrevious experience with security topics and/or DevOps experience is a big advantageBackground in the financial industry and financial software product development is an advantageAdditional InformationBe part of one of the fastest-growing and most visible Fintech startups in Europe, creating innovative services that have a substantial impact on the lives of our customersWork with an international, diverse, inclusive, and ever-growing team that loves creating the best products for our clientsWork from our centrally located offices in the heart of Munich or Berlin, nestled in lively neighborhoods filled with vibrant restaurants, cozy cafÃ©s, and a wide range of convenient amenitiesBe productive with the latest hardware and toolsLearn and grow by joining our in-house knowledge sharing sessions and spending your individual Education Budget Learn and experience German culture first hand by joining our free German language classes(International) relocation supportFlexible vacation policy and the opportunity to work from abroadBenefit from an attractive compensation package and from the company pension schemeMonthly contribution of 25% for the âDeutschland JobticketâSay goodbye to order commissions and say hello to your complimentary subscription of Scalable Capital's PRIME+ BrokerJob LocationI'm interested I'm interested Privacy PolicyImprint</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:03</t>
+          <t>2025-06-15 22:32:04</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>(Senior) Kotlin / Java Software Engineer - Client Technology (m/f/x) (onsite / remote in Germany)</t>
+          <t>DevOps Engineer (m/w/d)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Scalable GmbH</t>
+          <t>Interlead GmbH</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3453,34 +4863,43 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-kotlin-java-software-engineer-client-technology-onsite-remote-germany-133627014</t>
+          <t>https://www.xing.com/jobs/bremen-devops-engineer-134049461</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IntroloD INTERLEAD want to have built the #1 Lead Company in German -speaking countries by the end of 2026. This means that we have the big problem of our partners: constantly new leads, appointments and appearances! Not only the topic of new customers is complex. Our IT infrastructure wants to be overhanged and optimized. Do you love to optimize processes and always have everything under control? To support our IT team, we are looking for you as Devops Engineer. Tasks you overcome and affect our server
+ You can get around the internal monitoring
+ You are responsible for the further development and maintenance of the IT infrastructure
+ Qualification You are an experienced Devops Engineer (m/f/d) and would like a challenging task you have great commitment to optimize processes
+ The following skills and areas speak to your IT DUDEN:&gt; AWS, GCP, Azure&gt; Kubernetes, Docker, HA Architecture, ECS&gt; Monitoring: Cloudwatch, Datadog, Papertrail&gt; IAC: Terraform, Ansible, AWS Cloud formation&gt; PAAS: ELATICS BANDSTALK&gt; Languages: Javascript, Ruby, Ruby, Python&gt; OS: Linuxbenefits The possibility of building and shaping the market for purchases around the house and shaping them in a dynamic marketing and tech environment (15+ million home owners in Germany), which continues to hike on the Internet 
+Flexibility in the place of work (depending on the position, either remote or from our headquarters in Bremen's ã bersee city, work from abroad may also be possible after consultation) 
+Flexibility in working hours (which you discuss with your team) 
+30 days of vacation in the year we subsidize your company pension scheme (the â interlead pension) We subsidize your gym (over Urban Sports Club) 
+Fast decisions, since we are 100% boating, profitable and therefore not dependent on investors, an open feedback culture and internal fighter-hedge-up training are a monthly all-hand meeting, two-consuming interlead news and of course your regular team meetings, so that you always remain well informed Events (summer festival, Christmas party, etc.) For all Office members, we offer everything your heart desires in our headquarters in Bremen in Bremen (ergonomic workplaces, great coffee and espresso, drinks, barbecues, fruit, beer, snacks, etc. Home Office flat rate per month 
+Dogs are always welcome with us an exciting onboarding package "A comprehensive onboarding by the entire company An interlead academy for internal further training, which you can call up and use at any time from a matter of 1,000 EUR gross for every new team member that you are looking forward to a few words for the end of the day (after passing the trial period) About your application!</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:10</t>
+          <t>2025-06-15 22:32:08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DevOps Engineer (m/w/d)</t>
+          <t>Data Engineer (m/f/d)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Interlead GmbH</t>
+          <t>GuideCom AG</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3490,34 +4909,34 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/bremen-devops-engineer-134049461</t>
+          <t>https://www.xing.com/jobs/muenster-data-engineer-134038759</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Job DescriptionAre you a team player looking for a job where you can contribute your ideas and strengths every day? Do you share our passion for innovation and technology and want to shape the working world of tomorrow? Then join the GuideCom team! As a digitalization partner for over 600 companies in Germany, we develop innovative, digital solutions for the areas of banking, HR, and corporate development. We focus on the perfect interplay of people and technology, fundamentally rethinking solutions, and using them to create intelligent products that offer our customers real added value.Whether in development, product management, customer service, or sales â teamwork and a clear focus on our customers' needs are our top priority. With a unique corporate culture, flexible working models, and many attractive benefits, we offer you the best foundation for your new dream job.Together we're shaping the working world of tomorrow. We're GuideCom â and you?Your missionYou are responsible for the development and operation of scalable ETL/ELT pipelines for integrating data from the OSPlus core banking system and other sources.You develop and improve processes to ensure and improve the quality of our data through clear standards, automated checks, and continuous optimization, thereby ensuring the data quality/data integrity of the applications.In close collaboration with software engineers, specialist departments and product owners, you ensure that relevant data is provided as needed.You will actively shape the architecture of our analytics stack â from selecting suitable technologies to implementing scalable and maintainable solutions in the cloud.Your tasks include the automation and orchestration of data flows, as well as the maintenance and further development of our infrastructure together with our Cloud/Operations team.You implement and maintain CI/CD pipelines, monitoring, logging, and alerting solutions to ensure the smooth operation of our data platform.This is what sets you apartYou have completed a degree in computer science, business informatics or a similar qualification in the field of data engineering or software development.You have experience with database systems such as PostgreSQL as well as with ETL/ELT processes and orchestration tools such as Airflow.Experience with the core banking system OSPlus is an advantage.You have already worked with big data technologies such as Spark or Apache Iceberg and are familiar with cloud platforms or on-premise solutions such as MinIO.You program in Python, Java or a similar language and understand the basics of modern software development methods.Ideally, you have experience with DevOps/DataOps practices and are confident in using tools for automation, version control, and monitoring.You work in a structured and analytical manner and find solutions â even in complex, cross-organizational data landscapes.Your GuideCom benefitsComplete flexibility:We offer flexible work locations and hours. Work at our Hafencampus in MÃ¼nster, from your home office, or remotely from your favorite location!Individual equipment:We offer you a high degree of freedom in choosing your equipment and tools and are available to advise you.Exceptional benefits: We reward your work with an attractive salary and strong benefits: company car, company bike and many offers that promote your sportsmanship and team spirit even after work.Personal development:We offer you every opportunity to pursue the perfect career path for you. Further education, training, and coaching â together we will shape your GuideCom journey.Outstanding corporate culture:You are uniqueâand therefore a perfect fit for our team. We have an appreciative working environment where helpfulness and team spirit are deeply rooted.Excellent employer:Our unique team culture has made us who we are. Our employees have voted us a "Great Place to Work."Position type: Full-time, permanent positionWorking hours:No weekendsMonday to FridayServices:In-company trainingProfit sharingCorporate eventscompany cell phoneFlexible working hoursHome office optionFree drinksFree parkingEmployee discountPlace of work: Partly in home office in 48155 MÃ¼nster Email me jobs like this</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:13</t>
+          <t>2025-06-15 22:32:12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Data Engineer (m/f/d)</t>
+          <t>Kubernetes Administrator / Devops Engineer (m/w/d) 100% Remote</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GuideCom AG</t>
+          <t>APRIORI – BUSINESS SOLUTIONS AG</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3527,24 +4946,42 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenster-data-engineer-134038759</t>
+          <t>https://www.xing.com/jobs/frankfurt-main-kubernetes-administrator-devops-engineer-100-remote-133870512</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years. With its FUNF locations, over 150 employees and a steadily growing team, it is your losing new employer. Become part of a successful company that relies on long -term experience and an open corporate culture. At the notorable time, my client is looking for 100% remote Kubernetes Administrator/Devopsâ Engineer (m/f/d).
+Advice, conception and implementation of private cloud platforms
+Advice, conception and implementation of the operation of specialist applications in container technologies
+Measurement, analysis and optimization of performance and stabilizer
+Construction and operation distributed systems using the DevOps approach
+Following of Continous Integration &amp; Deployment processes for an efficient and quick provision of the solutions
+Error analysis and correction in containers environments
+Your qualifications:
+Multi -day professional experience in the Devops Environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In -depth experience in the operation of distributed systems
+German C1 and English B2
+This is what our client offers:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Over 25 years of experience in digitization projects
+Individual hardware</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:19</t>
+          <t>2025-06-15 22:32:16</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kubernetes Administrator / Devops Engineer (m/w/d) 100% Remote</t>
+          <t>Devops Engineer (m/w/d) 100% Remote</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3564,34 +5001,52 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/frankfurt-main-kubernetes-administrator-devops-engineer-100-remote-133870512</t>
+          <t>https://www.xing.com/jobs/frankfurt-main-devops-engineer-100-remote-133870473</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years. With its FUNF locations, over 150 employees and a steadily growing team, it is your losing new employer. Become part of a successful company that relies on long -wing experience and an open corporate culture. At the first time, my client is looking for a Devopsâ Engineer (m/f/d). Your tasks: Your tasks:
+Advice, conception and implementation of private cloud platforms
+Advice, conception and implementation of the operation of specialist applications in container technologies
+Measurement, analysis and optimization of performance and stabilizer
+Construction and operation distributed systems using the DevOps approach
+Following of Continous Integration &amp; Deployment processes for an efficient and quick provision of the solutions
+Error analysis and correction in containers environments
+Your qualifications:
+Multi -day professional experience in the Devops Environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In -depth experience in the operation of distributed systems
+German C1 and English B2
+This is what our client offers:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Over 25 years of experience in digitization projects
+Individual hardware</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:22</t>
+          <t>2025-06-15 22:32:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Devops Engineer (m/w/d) 100% Remote</t>
+          <t>(Senior) Fullstack Engineer (Java/Kotlin+Typescript) - Client Technology (m/f/x) (onsite / remote in Germany)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Frankfurt am Main</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>APRIORI – BUSINESS SOLUTIONS AG</t>
+          <t>Scalable GmbH</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3601,34 +5056,37 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/frankfurt-main-devops-engineer-100-remote-133870473</t>
+          <t>https://www.xing.com/jobs/muenchen-senior-fullstack-engineer-java-kotlin-typescript-client-technology-onsite-remote-germany-133627013</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) Fullstack Engineer (Java/Kotlin+Typescript) - Client Technology (m/f/x) (onsite / remote in Germany)  Full-timeCompany DescriptionScalable Capital is a leading digital investment platform in Europe. The company empowers everyone to shape their financial future. Scalable Broker makes it easy and affordable for clients to invest professionally in stocks, ETFs and other exchange-traded products and set up savings plans. Scalable Wealth, the digital wealth management service, offers clients professional investment in ETF portfolios and is also adopted as a white-label solution by renowned B2B partners. With the European Investor Exchange (EIX) Scalable Capital offers a stock exchange for retail investors in Europe. Over 27 billion euro is held on the platform by more than one million clients.Scalable Capital was founded in 2014 and employs more than 500 people at its offices in Munich, Berlin, Vienna, and London. Together with the founding and management team around Erik Podzuweit and Florian Prucker, they are working on a new generation of financial services.
+Visit our finance blog or check out our Social Media channels to find out what our Expert Teams have to say.
+Our Company Values guide us every day in how we work and collaborate. To learn more about them, you can find our values here (English).Job DescriptionYou will join the Client Technology Tribe which provides state-of-the-art security to our clients in all aspects of authentication and to maintain and enhance identification processes through KYC. We ensure a convenient and legally-secure T&amp;C consent process, as well as GDPR-compliant data processing throughout the entire client journey. We are dedicated to developing and maintaining the Salesforce platform to improve our Marketing communication channels and client support process efficiency, and to maintaining and improving our public website.
+Client Technology aims to simplify complexity for our clients and continuously improve their experience in any interaction with us. Our ultimate goal is to ensure that Scalable is regarded as the most trusted brand in finance. You will join a new team in the field of Client Lifecycle and/or Marketing Growth.You work with highly motivated software engineers and academics implementing change in the financial industry.You work with cutting edge technologies and be part of modern software development practices (e.g. agile and self-managed teams, continuous integration and deployment, test automation, cloud-based infrastructure and tooling).You write clean, testable, maintainable and well-documented code and treat security as a first class citizenYou bring products to production and reveal real business valueYou are able to improve engineering excellence in the teamQualificationsA university degree in a relevant field of study (Computer Science, Engineering, etc.) or a comparable practical experience3+ years of frontend experience in technologies like Typescript, React, NextJs, Cypress, WebPack, Material Design, Express2+ years of full backend experience in Java/Kotlin, JWT, Docker, Spring, AWS, Git, Docker,  GraphQL, RESTful APIA passion for well architected, testable and documented code and an agile mindsetStrong analytical thinking, both in the technical and in the product domain.Experience in complex software projects with end-to-end ownership building MicroservicesPractical experience in AWS or another cloud providerGood communication skills that are clear, open and concise, professional proficiency in EnglishPrevious experience with security topics and/or DevOps experience is a big advantageBackground in the financial industry and financial software product development is an advantageAdditional InformationBe part of one of the fastest-growing and most visible Fintech startups in Europe, creating innovative services that have a substantial impact on the lives of our customersWork with an international, diverse, inclusive, and ever-growing team that loves creating the best products for our clientsWork from our centrally located offices in the heart of Munich or Berlin, nestled in lively neighborhoods filled with vibrant restaurants, cozy cafÃ©s, and a wide range of convenient amenities or choose to work remotely within Germany (if eligible for the job)Be productive with the latest hardware and toolsLearn and grow by joining our in-house knowledge sharing sessions and spending your individual Education Budget Learn and experience German culture first hand by joining our free German language classes(International) relocation supportFlexible vacation policy and the opportunity to work from abroadBenefit from an attractive compensation package and from the company pension schemeMonthly contribution of 25% for the âDeutschland JobticketâSay goodbye to order commissions and say hello to your complimentary subscription of Scalable Capital's PRIME+ BrokerJob</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:24</t>
+          <t>2025-06-15 22:32:24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>(Senior) Fullstack Engineer (Java/Kotlin+Typescript) - Client Technology (m/f/x) (onsite / remote in Germany)</t>
+          <t>Scala Software Engineer (m/f/d) - Payment</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Scalable GmbH</t>
+          <t>MOIA GmbH</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3638,17 +5096,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-fullstack-engineer-java-kotlin-typescript-client-technology-onsite-remote-germany-133627013</t>
+          <t>https://www.xing.com/jobs/berlin-scala-software-engineer-payment-128976070</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Scala Software Engineer (m/f/d) - PaymentBerlin, Germany  Join us as a  Scala Software Engineer   (m/f/d) in our Payment team on a shared journey that matters!       T  he     Payment   t  eam     is dedicated to delivering a convenient and secure payment experience for our passengers.   You will join a  cross-functional team that   shares an unwavering passion for creating impactful software solutions that not only cater to our current users but also allow for significant scalability  .  To achieve our ambitious goals,   the  y  design   and   maintain   backend micro-services and mobile app components, always emphasizing a future-proof and resilient architecture.    What you will do Provide an outstanding customer experience:  Together with the developers of your team, you will contribute to a one-of-a-kind app which provides a smooth and friction-free payment experience to our customers.  Assure Quali  ty: Ensure the systems owned by your team meet the highest quality standards, including code reviews, testing, and validation processes across team boundaries.  Breathing "agileâ:   You will follow core agile working methodologies in the team. What will help you to fulfill your role  You have experience with or a strong interest in developing software in   Scala   and functional   programming.   Bonus if you have experience with ZIO and/or cats-effects. You enjoy solving challenges in distributed systems.You have experience or interest in  Kubernetes   and   AWS  . You are keen to receive and give feedback in pairing and code review sessions.You follow DevOps best practices and believe in automated testing, infrastructure as code, continuous deployment, and monitoring.You have a strong sense of ownership and are eager to contribute right from the beginning of a new project.You have a customer-driven mindset.You can communicate fluently in English. We accept all seniority levels. So please   don't   feel discouraged if you   don't   meet all the enlisted skills. We embrace individual growth at MOIA.  In case you have questions regarding your application, you can approach the recruiter Jovana   directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching, conferences, books, and language classes Mental health support, 1:1 sessions with external professionals and mental unload workshops 30 vacation days, sabbatical and unpaid leave option Relocation support with service provider (visa, administration, etc.) Dog-friendly offices For student &amp; internship positions, we have an adjusted set of benefits.  You can find them here.Be who you are!We are a member of Charta der Vielfalt and are dedicated to actively fostering a workplace that celebrates and promotes diversity in various aspects such as age, gender identity, race, sexual orientation, physical or cognitive ability, and ethnicity. At MOIA, we embrace a culture where people are accepted, respected, valued, appreciated, and included.In our commitment to promoting diversity and inclusivity, we regularly provide unconscious bias training to all our employees. Furthermore, we continuously strive to enhance our hiring process by ensuring a diverse hiring panel.Our Future Work modelSince we love to collaborate, it is clear to us that we don't want to become a fully remote company, but we also don't need to spend every day of the week in the office to do a great job.Our current hybrid work approach focuses on adapting to different needs, including increased flexibility that works best for the teams and the individuals with as much self-determination as possible.Get more insights on how we work on our blog to find out more about our hiring process or follow us on Instagram for a look inside MOIA. Who we are At MOIA GmbH  ,   o  ur team of more than 350   employees develops   the   technical products   for our   on-demand   ridepooling service in the form of an end-to-end integrated product, from hub, fleet, and driver management to passenger and B2B solutions. At the same time, we want to make the vision of an autonomously driving mobility service a reality and plan to bring the first autonomous MOIA ridepooling</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:27</t>
+          <t>2025-06-15 22:32:27</t>
         </is>
       </c>
     </row>
@@ -3680,29 +5138,29 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Scala Software Engineer (m/f/d) - PaymentHamburg, Germany  Join us as a  Scala Software Engineer   (m/f/d) in our Payment team on a shared journey that matters!       T  he     Payment   t  eam     is dedicated to delivering a convenient and secure payment experience for our passengers.   You will join a  cross-functional team that   shares an unwavering passion for creating impactful software solutions that not only cater to our current users but also allow for significant scalability  .  To achieve our ambitious goals,   the  y  design   and   maintain   backend micro-services and mobile app components, always emphasizing a future-proof and resilient architecture.    What you will do Provide an outstanding customer experience:  Together with the developers of your team, you will contribute to a one-of-a-kind app which provides a smooth and friction-free payment experience to our customers.  Assure Quali  ty: Ensure the systems owned by your team meet the highest quality standards, including code reviews, testing, and validation processes across team boundaries.  Breathing "agileâ:   You will follow core agile working methodologies in the team. What will help you to fulfill your role  You have experience with or a strong interest in developing software in   Scala   and functional   programming.   Bonus if you have experience with ZIO and/or cats-effects. You enjoy solving challenges in distributed systems.You have experience or interest in  Kubernetes   and   AWS  . You are keen to receive and give feedback in pairing and code review sessions.You follow DevOps best practices and believe in automated testing, infrastructure as code, continuous deployment, and monitoring.You have a strong sense of ownership and are eager to contribute right from the beginning of a new project.You have a customer-driven mindset.You can communicate fluently in English. We accept all seniority levels. So please   don't   feel discouraged if you   don't   meet all the enlisted skills. We embrace individual growth at MOIA.  In case you have questions regarding your application, you can approach the recruiter Jovana  directly. Our benefits in a nutshell Competitive salary (including bonus)  Hybrid work setup: Work from home or one of our offices - you and your team decide how often to meet, blending flexibility with collaboration! Flexible working hours and the possibility of flexible work arrangements depending on your needs (parenting, care work, volunteering, etc.) Budget and monthly expense allowance for home office setup Possibility of remote work from outside Germany for up to 6 weeks per year from over 35 countries - learn more in our blog!Public transport ticket (fully subsidized "Deutschlandticket") for commuting and travelling throughout Germany and discount on MOIA ridesSubsidized fitness club membership or bike leasing Learning environment with continuous learning days, job rotation, trainings and workshops, coaching, conferences, books, and language classes Mental health support, 1:1 sessions with external professionals and mental unload workshops 30 vacation days, sabbatical and unpaid leave option Relocation support with service provider (visa, administration, etc.) Dog-friendly offices For student &amp; internship positions, we have an adjusted set of benefits.  You can find them here.Be who you are!We are a member of Charta der Vielfalt and are dedicated to actively fostering a workplace that celebrates and promotes diversity in various aspects such as age, gender identity, race, sexual orientation, physical or cognitive ability, and ethnicity. At MOIA, we embrace a culture where people are accepted, respected, valued, appreciated, and included.In our commitment to promoting diversity and inclusivity, we regularly provide unconscious bias training to all our employees. Furthermore, we continuously strive to enhance our hiring process by ensuring a diverse hiring panel.Our Future Work modelSince we love to collaborate, it is clear to us that we don't want to become a fully remote company, but we also don't need to spend every day of the week in the office to do a great job.Our current hybrid work approach focuses on adapting to different needs, including increased flexibility that works best for the teams and the individuals with as much self-determination as possible.Get more insights on how we work on our blog to find out more about our hiring process or follow us on Instagram for a look inside MOIA. Who we are At MOIA GmbH  ,   o  ur team of more than 350   employees develops   the   technical products   for our   on-demand   ridepooling service in the form of an end-to-end integrated product, from hub, fleet, and driver management to passenger and B2B solutions. At the same time, we want to make the vision of an autonomously driving mobility service a reality and plan to bring the first autonomous MOIA ridepooling</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:30</t>
+          <t>2025-06-15 22:32:31</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Scala Software Engineer (m/f/d) - Payment</t>
+          <t>Azure Cloud DevOps Engineer (d/m/w) - mit Remote Anteil</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MOIA GmbH</t>
+          <t>DEVK</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3712,34 +5170,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-scala-software-engineer-payment-128976070</t>
+          <t>https://www.xing.com/jobs/koeln-azure-cloud-devops-engineer-remote-anteil-133276022</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Azure Cloud Devops Engineer (D/M/W) - With remote share
+      Working time model location
+We are the DEVK. An insurance company with a history of 135 years, around 7,500 employees and 4.2 million customers. We are convinced that better work will take a better life.
+ In our product team for the Microsoft Azure Iaas environment, you and your colleagues responsible for further development and the operation of the Azure IAAS infrastructure. What you should bring with you: completed computer science, a comparable training or long-term (at least 3 years) Practical experience in the field of Azure IAAS practical experience and knowledge in the field of Azure Iaa's network environment are worth knowing in infrastructure as code (based on terraform). Practical experiences in the operation of CI/CD pipelines (based on gitlab) are an advantage Or several of the following certifications are advantageous: Microsoft 365 Certified: Security Administrator Associate Microsoft Certified: Azure Administrator Associate Microsoft Certified: Azure Solutions Architect Expert Microsoft McSe: Azure Solutions Architect Microsoft McSe: Cloud Platform and Infrastructure (Cloud Data Platform Solutions) Readiness for continuous further training very good knowledge of German (at least Level C1) No traveler requires your job exciting: provision, implementation, configuration and management of azure subscriptions and resources (virtual networks, hub/spoke topology, Firewall rules, azure policies, memory accounts, automation accounts, defender for cloud, etc.) Identification, analysis and implementation of the requirements of our specialist departments Strategic and technical advice of specialist departments in the choice of the right Microsoft Azure IAas Services/Architecture while considering the fulfillment and security of livelability. Infrastructures using the latest technologies operation and further development of the Gitlab pipeline and the terraform modules for automating the infrastructure environment. Attractive salary package (13.5 accumulation) and a great company-fully flexible working time models (38 hours / week) and extensive home office option optional training and learning offers in order to stay fit for everyday work and an individual further development on our cooperation part â the PME family service â An attractive location with a very good connection to the Ü PNV, Deutsche Bahn as well as motorway stone company restaurant (including meal allowance for employees), a varied range of health as well as a very fortunate Urban Sports membership bikeleasing and driving ticket shower with you: Completed computer studies, comparable training or a comparable training or Long-term (at least 3 years) practical experience in the field of Azure IAAS practical experience and knowledge in the field of Azure Iaa's network environment. Knowledge of infrastructure as code (based on terraform). Practical experience in the operation of CI/CD pipelines (based on Gitlab) One or more of the following certificates are an advantage: Microsoft 365 are advantageous Certified: Security Administrator Associate Microsoft Certified: Azure Administrator Associate Microsoft Certified: Azure Solutions Architect Expert Microsoft McSe: Azure Solutions Architect Microsoft McSe: Cloud Platform and Infrastructure (Cloud Data Platform Solutions) Willingness to continuous further training very good knowledge of German (at least level C1) No traveler requires your job exciting: provision, implementation, configuration and management of azure subscriptions and resources (virtual networks, hub/spoke topology, firewall rules, azure policies, memory accounts, automation Accounts, Defender for Cloud, etc.) Identification, analysis and implementation of the requirements of our specialist departments Strategic and technical advice of the specialist departments in the choice of the right Microsoft Azure IAAS Services/Architecture with the consideration of the availability and security structure of losing Azure IAAS Infrastructures using the latest technologies operation and further development Gitlab pipeline and the Terraform modules for automation of the infrastructure environment ã bern from Auffung</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:33</t>
+          <t>2025-06-15 22:32:36</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Azure Cloud DevOps Engineer (d/m/w) - mit Remote Anteil</t>
+          <t>Senior DevOps Engineer (f/m/x)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DEVK</t>
+          <t>Link11 GmbH</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3749,34 +5210,62 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/koeln-azure-cloud-devops-engineer-remote-anteil-133276022</t>
+          <t>https://www.xing.com/jobs/frankfurt-main-senior-devops-engineer-132633108</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Senior DevOps Engineer (f/m/x)
+                  Israel
+                  2025-01-09
+                    BE ONE STEP AHEAD: Help us make the internet a safer place!
+                    The digital world is a relentless storm of evolving cyber threats. IT professionals are on the front lines, defending their organizations' most valuable assets against increasingly sophisticated attacks.
+                    As one of the leading providers of cyber security solutions, at Link11, we understand the pressure and want to protect companies and organizations through meticulous attention to detail and early integration of cutting-edge methods. We take full responsibility for our clients' security, and we are constantly exploring new and improved ways to enhance their protection. Our reputation is built on providing enterprise-grade cybersecurity solutions that secure IT networks and critical applications, allowing companies to focus on their core business operations. 
+                    We have extended our proven expertise in Network Security, Web Protection and Web Performance and leveraged the know-how of Reblaze Technologies to enhance our portfolio, particularly in the realm of WAAP (Web Application and API Protection). Our comprehensive security platform reflects our dedicated commitment to client security and proactive defense strategies â making the Internet a safer place. 
+                    We at Link11 are a team of passionate people, driven by a common mission to make the Internet safer. More than 100 employees work across our international locations â Frankfurt, Tel Aviv and Vancouver â some 100% remotely.  Are you highly motivated and looking for a challenging and rewarding career where you can make a real difference? Then you are very welcome at Link11. Shape our digital future with Link11 in Israel or remotely.
+                     Your future challenges:
+                        R&amp;D Support:
+                       Develop and support tools that empower the R&amp;D team to streamline their workflows and enhance productivity.
+                        Public Cloud Infrastructure Support
+                      : Manage and optimize public cloud infrastructure, ensuring high availability, scalability, and security for all systems.
+                        Constant Improvements and Efficiency Increase of Our Infrastructure
+                      : Continuously monitor, identify, and implement improvements to optimize performance, efficiency and security across our infrastructure.
+                        FinOps Activities
+                      : Collaborate with financial operations to monitor and optimize cloud costs, ensuring cost efficiency while maintaining operational effectiveness.
+                        Development of Tools and Solutions to Solve Challenges
+                      : Innovate and develop new tools and solutions to address operational challenges and improve system reliability and performance.
+                    Your Skills:
+                        K8S (GKE, EKS, AKS, Rancher, Keda)
+                      : Extensive experience with Kubernetes orchestration, including tools like Rancher and KEDA to manage containerized applications and scale them efficiently.
+                        Public Cloud Infrastructure (GCP, AWS, Azure)
+                      : Strong knowledge of public cloud platforms (Google Cloud, AWS, Azure) and the ability to design, deploy, and manage scalable and secure cloud environments. Extensive experience with cloud networking and load balancing solutions.
+                        Containers (Docker)
+                      : extensive experience with Docker, particularly in building and managing container images using advanced techniques such as multi-stage builds and automated pipelines. Proficiency in optimizing Docker files for performance and security is essential, with a strong emphasis on Python-based applications. Familiarity with container registries, tagging strategies, and vulnerability scanning is also required.
+                        Monitoring (Datadog, Prometheus)
+                      : Proficiency in monitoring tools like Datadog and Prometheus to ensure the reliability, availability, and performance of systems and infrastructure.
+                        Infra as</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:36</t>
+          <t>2025-06-15 22:32:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer (f/m/x)</t>
+          <t>Data Scientist / AI Engineer (mwd)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Frankfurt am Main</t>
+          <t>Heidelberg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Link11 GmbH</t>
+          <t>HMS Analytical Software GmbH</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3786,24 +5275,55 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/frankfurt-main-senior-devops-engineer-132633108</t>
+          <t>https://www.xing.com/jobs/heidelberg-data-scientist-ai-engineer-mwd-132632643</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Data Scientist / Ai Engineer (MWD)
+                          Berlin
+                          throughout Germany/remote
+                          Heidelberg
+                          Ulm
+                          Professional experience (Junior Level)
+                          Professional experience
+                          Full/part -time
+                      Our 30-year success story in the software analytics area shows: We are highly specialized experts when it comes to creating data-driven operating models. Thanks to the synthesis of data engineering, machine learning and software engineering, we support companies from their data. Our over 160 employees drive digital modernizations in the Manufacturing, Finance and Life Science industries and prepare the way for an economy that is based on knowledge, technology and responsibility.
+                    These are their tasks
+                          As a data scientist / AI Engineer (MWD), you will develop innovative solutions for demanding data analysis in dialogue with our customers using machine learning and genai.
+                          They develop exploratory analyzes and models to optimize business processes and integrate them into the system landscape of our customers.  
+                          They carry out demanding advisory and development projects in which analytics, data engineering and computer science are combined profitably.   
+                          They actively participate in the digitization of business processes and production facilities through key intelligence in leading companies.
+                    You bring that with you
+                          At least good conclusion in computer science, business informatics or relatives or in mathematics, physics or in comparable scientific study quantities
+                          First practical experience in the application of principles of software engineering and in the Devops / MLOPS principles and tools
+                          Knowledge of at least one analytical programming language (e.g. Python, R) or a universal programming language (e.g. C#, Java, C ++, Rust)
+                          Knowledge of the use of relational and non-relational databases
+                          Pronounced communication stalls in German and English - in a team and customers compared to
+                          Curiosity and willingness to travel occasional
+                      Advantageous:
+                          Professional experience in the area of ​​software engineering, data science or business intelligence or as a consultant in the digitization context
+                          Experience with cloud technologies (e.g. Azure, AWS), big data technologies (e.g. Spark, Kafka) and containerization (e.g. Docker, Kubernetes)
+                      We offer all framework conditions to develop this topics efficiently if you do not bring this knowledge.
+                    We offer you that
+                        Man &amp; culture:
+                       The community and the exchange in the company are actively celebrated by diverse events such as corporate lunch, summer festivals, team events, corporate conferences and Christmas celebrations. A welcome day and a mentor program during the training period also help to provide cohesion within the teams. In addition, we fade the team spirit through substantial profit sharing that is distributed to all employees.
+                        Career development &amp; exchange of knowledge:
+                       The variety of our (customer) projects enables individual career development. Different training offers and participation in specialist conferences are professional growth. An extensive knowledge budget of 12 days and knowledge circle subject to continuous exchange of knowledge.
+                        Work-life balance &amp; flexibility:
+                       Flexible</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:39</t>
+          <t>2025-06-15 22:32:43</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Data Scientist / AI Engineer (mwd)</t>
+          <t>Senior Data Scientist / Senior AI Engineer (mwd)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3823,34 +5343,62 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/heidelberg-data-scientist-ai-engineer-mwd-132632643</t>
+          <t>https://www.xing.com/jobs/heidelberg-senior-data-scientist-senior-ai-engineer-mwd-132632639</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Senior Data Scientist / Senior Ai Engineer (MWD)
+                          Berlin
+                          throughout Germany/remote
+                          Heidelberg
+                          Ulm
+                          Professional experience
+                          Full/part -time
+                      Our 30-year success story in the software analytics area shows: We are highly specialized experts when it comes to creating data-driven operating models. Thanks to the synthesis of data engineering, machine learning and software engineering, we support companies from their data. Our over 160 employees drive digital modernizations in the Manufacturing, Finance and Life Science industries and prepare the way for an economy that is based on knowledge, technology and responsibility.
+                    These are their tasks
+                          As Senior Data Scientist / Senior Ai Engineer (MWD), you actively participate in the digitization of business processes and production systems by using machine learning and genai with leading companies.
+                          You analyze the challenges of our customers, put them into complex, analytical questions and interlink everything closely with the data engineering and computer science.
+                          In doing so, they bring their professional skills, use their entrepreneurial thinking and thus further develop our strategic projects with high effect.
+                          They let others share their knowledge as a mentor for other colleagues or in our conscious competence management.
+                    You bring that with you
+                          At least good conclusion in computer science, business informatics or relatives or in mathematics, physics or comparable scientific study quantities
+                          Multi-day practical experience in data science, business intelligence or software engineering in the machine learning or genai environment or as a consultant in the digitization context
+                          Very good knowledge of at least one analytical programming language (e.g. Python, R) or a universal programming language (e.g. C#, Java, C ++, Rust)
+                          Good knowledge of the use of relational databases and SQL
+                          Well-founded experiences with cloud technologies (e.g. Azure, AWS)
+                          Experience with big data technologies (e.g. Spark, Kafka) and operationalization tools (e.g. Docker, Kubernetes)
+                          Experience in Devops/MLOPS principles and tools
+                          Pronounced communication stalls in German and English - in a team and customers compared to
+                          Curiosity and willingness to travel occasional
+                      With us you have a variety of opportunities for further development and taking responsibility. You can take the professional career path with us, act as a project management or put out your entrepreneurial potential in management: everything while maintaining a healthy work-life balance! 
+                    We offer you that
+                        Man &amp; culture:
+                       The community and the exchange in the company are actively celebrated by diverse events such as corporate lunch, summer festivals, team events, corporate conferences and Christmas celebrations. A welcome day and a mentor program during the training period also help to provide cohesion within the teams. In addition, we fade the team spirit through substantial profit sharing that is distributed to all employees.
+                        Career development &amp; exchange of knowledge:
+                       The variety of our (customer) projects enables individual career development. Different training offers and participation in specialist conferences are professional growth. A female knowledge budget of 12 days and circle of knowledge</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:42</t>
+          <t>2025-06-15 22:32:50</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Senior Data Scientist / Senior AI Engineer (mwd)</t>
+          <t>GenAI Lead Architekt (m/w/d)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Heidelberg</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HMS Analytical Software GmbH</t>
+          <t>accantec group</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3860,34 +5408,34 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/heidelberg-senior-data-scientist-senior-ai-engineer-mwd-132632639</t>
+          <t>https://www.xing.com/jobs/hamburg-genai-lead-architekt-132580913</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Be Smart - Join Us! As Gena Lead Architect (m/f/d), you will play a central role in the development and implementation of innovative generative AI (Genai) architectures. You design the technical strategy and ensure optimal integration of Large Language Models (LLMS), Retrieval Augmented Generation (RAG), Knowledge Graphs and other AI technologies in corporate landscapes. Perform our team full -time at one of our locations at one of our locations in Hamburg, Berlin Frankfurt am Main, Heidelberg, Kitchen or throughout Germany! Your tasks with us conception and design of scalable genai architectures based on cloud technologies (Azure or European services at Cloud Services) and on-premise solutions. Evaluation and integration of modern LLM frameworks (e.g. Langchain, Langfuse, Openai, Hugging Face). Implementation of efficient pipelines for vectord data banks, data modeling and MLOPS processes. Technical leadership of interdisciplinary teams from data scientists, ML engineers and software developers. Advice from stakeholders to use cases, governance, security and compliance in genai projects. Testing new Fine tuning techniques such as Lora, adapter layers and cathedral-specific model optimizations. Development of APIs and microservices for seamless AI integration into existing company solutions, BI platforms and chatbot applications.  This draws you from multi -year -old experience as Solutions Architect, AI Engineer or Data Scientist with a focus on Genai, Machine Learning or Data Engineering. Founded knowledge of Python, Tensorflow, Pytorch, Langchain, Hugging Face, SQL and Cloud Architectures (Azure or European Services at Cloud Services). Experience in the technical success of teams and projects with agile approach (Scrum, Kanban, DevOps). To prepare for decision-makers and stakeholders in a comprehensive manner. Very good knowledge of German and English.  You can look forward to exciting projects in the field of AI and Genai with well -known customers. Flexible working models (remote / hybrid) and a modern working environment. An interdisciplinary team of experts for AI, BI and cloud technologies. Further training opportunities in the area of ​​genai, MLOPS and cloud technologies. Attractive salary model based on individual target agreements. Bahncard, business bike leasing and subsidy of the job ticket. Regulars and special payments and prices for anniversary. Stay fit and healthy - occupational health fulfillment and Germany -wide range of sports with eGym.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:45</t>
+          <t>2025-06-15 22:32:53</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GenAI Lead Architekt (m/w/d)</t>
+          <t>DevOps Engineer OpenStack (m/w/d)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>accantec group</t>
+          <t>Novolos 01 GmbH</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3897,34 +5445,34 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/hamburg-genai-lead-architekt-132580913</t>
+          <t>https://www.xing.com/jobs/koeln-devops-engineer-openstack-131983339</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Introduction calculations newly thought - your contribution to the media revolution! Put on OpenStack, automation and truthfulness to set new Maãstebe. We repress the IT subsidiary of a North Bavarian media group who, in full-service management, provides all-time IT services for the approximately 1,700 survivors of the group. We are currently looking for a DevOps Engineer - OpenStack (m/f/d) full -time (40h), indefinite, home office 90%, NURNBERG you implement and are waiting for the cloud -based infrastructure of our customer in the in -house data center on the basis of OpenStack. In doing so, you ensure the seamless integration and an optimal system performance for the development and business teams of efficient provision pipelines. Tasks Automation of Delivery and operating processes through scripting and CI/CD pipelines Provisibility and performance of the cloud infrastructure through efficient overview and maintenance control of the development To integrate applications into the OpenStack platform Ensuring a quick and reliable correction of infrastructure and application problems Integration of DEVSECOPS principles for the use of secure coding and infrastructure practices Creating of processes, architectures and best practice during planning and participation Migration projects and upgrades Qualification must have: Completed study in (economic) computer science or a comparable qualification proven multiple experience in a possible or comparable position. Well-founded knowledge in OpenStack and its components (e.g. Nova, Neutron, Cinder, Glance) extensive experience with the automation tool Nice to have: Experience with container technologies (e.g. Docker, Kubernetes) Knowledge of Linux administration and network technologies Strong programming and script facilities (Python, Bash or Ruby) Experience with CI/CD tools (e.g. Jenkins, GITLAB CI). Family atmosphere in a social, owner -carrieded company Flexible working time and home office may have sophisticated tasks and design freedom in a modern media house central Büro in the heart of NuRnberg with a good connection Attractive remuneration package, extensive social benefits 30 days holidays + 1 day holiday holidays company parking garage and granting for okay Food subsidy in the in -house canteen Further training opportunities. Then apply for the position by applicant button. We look forward to getting to know you!</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:47</t>
+          <t>2025-06-15 22:32:58</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DevOps Engineer OpenStack (m/w/d)</t>
+          <t>(Senior) Cloud Network Engineer (m/f/x) (onsite / remote in Germany)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Novolos 01 GmbH</t>
+          <t>Scalable GmbH</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3934,34 +5482,37 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/koeln-devops-engineer-openstack-131983339</t>
+          <t>https://www.xing.com/jobs/muenchen-senior-cloud-network-engineer-onsite-remote-germany-131662338</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(Senior) Cloud Network Engineer (m/f/x) (onsite / remote in Germany)  Full-timeCompany DescriptionScalable Capital is a leading digital investment platform in Europe. The company empowers everyone to shape their financial future. Scalable Broker makes it easy and affordable for clients to invest professionally in stocks, ETFs and other exchange-traded products and set up savings plans. Scalable Wealth, the digital wealth management service, offers clients professional investment in ETF portfolios and is also adopted as a white-label solution by renowned B2B partners. With the European Investor Exchange (EIX) Scalable Capital offers a stock exchange for retail investors in Europe. Over 27 billion euro is held on the platform by more than one million clients.Scalable Capital was founded in 2014 and employs more than 500 people at its offices in Munich, Berlin, Vienna, and London. Together with the founding and management team around Erik Podzuweit and Florian Prucker, they are working on a new generation of financial services.
+Visit our finance blog or check out our Social Media channels to find out what our Expert Teams have to say.
+Our Company Values guide us every day in how we work and collaborate. To learn more about them, you can find our values here (English).Job DescriptionScalable Capital was built in the cloud from day one. Our services currently run on various AWS services like ECS Fargate and Lambda and utilise a multi account strategy.
+We embrace a DevOps culture where the development teams manage their own CI/CD pipelines and cloud infrastructure for their services themselves. Our Cloud Network Engineering Team focuses on a reusable and modular cloud networking infrastructure to enable the development teams to deploy and operate services in the cloud productively and securely.You will provide and maintain secure, highly scalable networks and communications middleware to ensure transparent and always on connectivity for our most critical applications and partner integrationsYou will be responsible for improving infrastructure and deployment automation using tools like Terraform, AWS Lambda and Python to enable engineering teams all things networkingYou will work on reliability and cost optimization of our AWS networking infrastructureYou will guide and empower our engineering teams to further cultivate our DevOps cultureQualificationsMultiple years of experience with AWS services, especially VPC, Transit Gateway, Network Firewall, Direct Connect, Route 53, CloudFront, ELB, ECS, IAM, Lambda and S3Proficient with Infrastructure as Code, ideally Terraform. Proficient in at least one general-purpose programming language, preferably PythonPreferably prior experience in managing enterprise-grade networking solutions, such as VPNs or Leased LinesExperience in low level network debugging (tcpdump), VPN (IPSEC, GRE) and Cisco IOSA passion for automating and improving processes while keeping Security in mindA degree in a relevant field of study (e.g. computer science, engineering, sciences) or work experience in a role that typically requires a university degreeAbility to communicate effectively and concisely in an international English-speaking environmentAdditional InformationBe part of one of the fastest-growing and most visible Fintech startups in Europe, creating innovative services that have a substantial impact on the lives of our customersWork with an international, diverse, inclusive, and ever-growing team that loves creating the best products for our clientsWork from our centrally located offices in the heart of Munich or Berlin, nestled in lively neighborhoods filled with vibrant restaurants, cozy cafÃ©s, and a wide range of convenient amenitiesBe productive with the latest hardware and toolsLearn and grow by joining our in-house knowledge sharing sessions and spending your individual Education Budget Learn and experience German culture first hand by joining our free German language classes(International) relocation supportFlexible vacation policy and the opportunity to work from abroadBenefit from an attractive compensation package and from the company pension schemeMonthly contribution of 25% for the âDeutschland JobticketâSay goodbye to order commissions and say hello to your complimentary subscription of Scalable Capital's PRIME+ BrokerJob LocationI'm interested I'm interested Privacy PolicyImprint</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:49</t>
+          <t>2025-06-15 22:33:01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>(Senior) Cloud Network Engineer (m/f/x) (onsite / remote in Germany)</t>
+          <t>(Senior) AI Engineer (all genders)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Scalable GmbH</t>
+          <t>NFON</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3971,24 +5522,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-senior-cloud-network-engineer-onsite-remote-germany-131662338</t>
+          <t>https://www.xing.com/jobs/berlin-senior-ai-engineer-all-genders-131148623</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>You develop your new job as an LLM engineer for integration and optimization of voice models in the botario platform. You will remain informed about current developments in AI research and support the team when evaluating the model quality and efficiency. How you will participate will observe trends and progress in NLP and AI research, to integrate innovations from the area of ​​the Large Language models into the product. If you experiment with new models and architectures to make the chatbot more powerful, you support the botario team and our customers in doing LLMS with regard to response to response to response, latencies, costs and other aspects by delivering sound analyzes and contributing insights to make optimal decisions that you need very good Programming knowledge and are also not afraid to deal with DevOps, live the best practices and have already successfully done software projects. ML model serving, docker and co. Initial experiences are first experiences in the commercial use of open source LELMs, gladly in low-latency contexts in combination with Speechtext and TextTospep Models You have experience with the latest LLM technologies and practices You are familiar with cloud platforms and containerization technologies. You have a independent way of working and inspire you for AI you dominate German and English in the word and writing what we can offer you as an innovative company with a clear vision, we actively contribute to digitization and transformation of the communication landscape, by developing new ideas and creative solving and creative solutions and we can use old structures brief decision -making, the possibility, the possibility, To bring in, to announce things and to use new technologies. Company fitness, business bike and a separate company boat Costs for e-learning courses as desired Regulation exchange: We visit and organize internal and international (KI) events Exciting, international customers from various industries Fair, adequate content and employee participation for 30 days of vacation and option at part-time top hardware, high-quality and adjustable and Several monitors of course at every workplace: organic fruit/gems, smoothie bar, ice flat rate, thermomix and rice cooker as well as drinks (good coffee, mate etc.) We support the reconciliation of work, family and private life and are "excellent family-friendly"</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:51</t>
+          <t>2025-06-15 22:33:05</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>(Senior) AI Engineer (all genders)</t>
+          <t>Senior Backend Engineer (d/f/m)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3998,7 +5549,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NFON</t>
+          <t>doctorly GmbH</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4008,34 +5559,34 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-senior-ai-engineer-all-genders-131148623</t>
+          <t>https://www.xing.com/jobs/berlin-senior-backend-engineer-131107123</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IntroWe are looking for a Senior .NET / C# Software Developer (d/f/m) to join doctorly on our mission to enable people to live healthier lives.  This is a great opportunity for highly experienced Software Engineers to take prominent roles within one of our cross-functional teams and help us meaningfully change how healthcare works.  You'll contribute directly to the development of a sophisticated cross-platform application that blends native and web technologies.  Your focus and responsibilities will lie mostly in the services layer. This includes:  building APIs for our frontend and other consumers  storage and the management of complex and sensitive structured data  building the application based on Domain Driven Design and SOLID principles  As an integral member of our cross-functional teams, you'll be familiar with agile ways of working (esp. scrum) and DevOps. You're an experienced engineer and understand the fundamentals of clean code, design principles, and common tools around development, testing, and CI/CD including Git, Docker, etc.  Your ability to improve and change the way we work is part of our culture.  We're an international team, so fluent English is a must, German would be a bonus but is not essential to the role.TasksThis Job Is For You If: You are a highly motivated, experienced, and technically skilled individual looking for your next challenge in a fast-moving, mission-driven, startup environment. Youâre a self-starter, an accomplished manager of one, and capable of taking the lead on complex, mission-critical topics. You strive for excellence, integrity, ownership, and kindness in your work and interactions. You are a collaborative and communicative team player whoâs able to see the big picture whilst also keeping an eye on the important details.  Your responsibility will be to take ownership of backend development within your team, this includes:  Building excellent highly usable, secure, performant, maintainable/extendable, well tested, and technically awesome software Working closely with our product owners and UX/UI-Designers as well as other developers, DevOps, QA in our cross-functional teams Strive to understand the requirements, the domain, and the big picture and help to refine specifications as part of the team Planning, estimating, and reviewing user stories and code with the team Being an active team member who takes ownership and contributes actively Supporting your teammates with their work Working to continually improve our application, code quality, and processes RequirementsTo be successful in this role, you'll need:  Expert level experience with fundamental backend technologies - C#, .NET framework (Core), ASP.NET as well as the related tooling Significant experience with Entity Framework (especially EF-Core) and understanding of relational databases Very comfortable using Git in a team environment and practical experience with Merge Requests, Branches, resolving conflicts etc. Experience working in a Cross Functional Team, including working with QA and POs as well as code reviews and pair programming Excellent verbal and written communication skills   Nice-To-Haves  If you've worked in a regulated industry esp. healthcare this will be a plus Familiar with design patterns and architectural concepts like API first, SOLID and Domain Driven Design (DDD), CQRS and REST Experience with automated testing (IO, regression, unit, integration, load, etc) and passionate about Test or Behaviour Driven Development (TDD/BDD) Knowledge of FHIR &amp; HL7 is advantageous Deeper understanding of databases (esp. PostgreSQL) Familiarity with CI/CD tooling (esp. GitLab) An understanding of frontend fundamentals and how these relate to the backend BenefitsDas bieten wir:  Ein sehr guter Bonus ohne Obergrenze Firmenanteile Ã¼ber unser ESOP Programm 29 Urlaubstage Zuschuss zur betrieblichen Altersversorgung Eine Karriere mitten im Herzen von Berlin mit ausgezeichneten WeiterentwicklungsmÃ¶glichkeiten. Die MÃ¶glichkeit, in einem schnell wachsenden Team Verantwortung zu Ã¼bernehmen Eine offene Arbeitskultur mit flachen Hierarchien Enge Zusammenarbeit mit deinen Kolleg*innen und Vorgesetzten UnterstÃ¼tzung zur Erreichung deiner Ziele und Verbesserung deiner VertriebsfÃ¤higkeiten Intensive und regelmÃ¤Ãige Coachings und Trainings</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:54</t>
+          <t>2025-06-15 22:33:09</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer (d/f/m)</t>
+          <t>DevOps Engineer Java (m/w/d)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>doctorly GmbH</t>
+          <t>ISO-Gruppe</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4045,34 +5596,75 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-senior-backend-engineer-131107123</t>
+          <t>https://www.xing.com/jobs/nuernberg-devops-engineer-java-131103363</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Devops Engineer Java (m/f/d)
+                  Fixed number:
+                 ISO-49
+    Location:
+                    NueRnberg, 
+                    Home office
+                Shest field:
+                    Ue administration
+                Working hours:
+                Full -time
+                Employer:
+                ISO Public Services GmbH
+                Task:
+                            Software development
+                ,, 
+                            Submissive
+                Type of employment:
+            Permanent position
+                    Do you want to actively help shape the digital change for the benefit of a broad ability? Technologically state of the art and crisisproof is a highly exciting field of activity. Come to our team and support us as 
+                      Devops Engineer Java (m/f/d)
+                     At the Nürnberg location.
+                    Your task
+                      Accompany a customer-specific software project with a focus on Java in the entire software development process
+                      Develop and optimize CI/CD pipelines to fade automation and quality protection in the development process
+                      Work self-organized in a very agile environment (Scrum, design pattern, Clean Code, TDD)
+                      Automize and contain applications and environments
+                      Expand existing systems and improve their build, test and deployment processes
+                      advise our customers professionally on requirement concepts and act as a competent contact for technical problems
+                    Your profile
+                      a successfully completed degree in computer science or comparable training with relevant professional experience in the area of ​​the activity mentioned
+                      Multi-day professional experience in software development with Java/Java EE and very good knowledge with backend technologies such as Quarkus, Eclipse Microprofile, Apache Kafka, Spring, Rest, Json, JPA (Hibernate or Eclipselink) and in Rest API Design
+                      Knowledge of implementing CI/CD pipelines z. B. with Gitlab, Github, Azure Devops or Jenkins
+                      Routine in Continuous Integration/Delivery with container tools such as dockers and knowledge in orchestration with Kubernetes
+                      Self-resistant handling of agile software development according to Scrum and Agile practices (e.g. Scrum, Kanban, Clean Code Development, Pair Programming, test-driven development, domain-driven design)
+                      very good knowledge of German
+                    our range
+                      Through flexible working hours and home office options (up to 100% remote) you manage to agree private and professional
+                      Family -oriented personnel policy, flat hierarchies and responsible activity offer you space for personal and professional development opportunities
+                      Unlimited employment in a family -held company with flat hierarchies
+                      Comprehensive training opportunities for your professional development
+                      Diverse innovative topics as well as the use of the latest tools and methods make the ISO group varied, crisis and future
+                      Numerous events such as Christmas party and summer festival to network with colleagues from other teams and locations</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:56</t>
+          <t>2025-06-15 22:33:14</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DevOps Engineer Java (m/w/d)</t>
+          <t>Kubernetes Engineer (m/w/d) in 100% Remote</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Kiel</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ISO-Gruppe</t>
+          <t>APRIORI – BUSINESS SOLUTIONS AG</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4082,17 +5674,33 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/nuernberg-devops-engineer-java-131103363</t>
+          <t>https://www.xing.com/jobs/kiel-kubernetes-engineer-100-remote-130947756</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years and thus enables millions of people to have simple access to digital services. With its FURNF locations, over 150 employees and a steadily growing team, it is their lustful new employer. Flache hierarchies, agile working methods and transparent communication praise the corporate culture, while the employees can individually design their career in a flexible, remote-friendly environment. relies on long -wing experience and an open corporate culture. At the first time my client is looking for a Kubernetes engineer (m/f/d) in 100% remote.
+Advice, conception and implementation of private cloud platforms and specialist applications within container -based technologies
+Close coordination with other specialist departments to ensure the necessary infrastructure
+Overweightening, analysis and improvement of performance and stabilization of the systems
+Operation distributed systems under DevOps principles with a focus on continuous integration and deployment
+Error analysis and correction in containerized environments
+Your qualifications:
+Multi -day professional experience in the Devops environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In -depth experience in the operation of distributed systems
+Very good knowledge of German and English
+This is what our client offers:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Long -term projects with social relevance and strong customer loyalty</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-06-15 21:28:59</t>
+          <t>2025-06-15 22:33:19</t>
         </is>
       </c>
     </row>
@@ -4104,7 +5712,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4119,29 +5727,45 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/kiel-kubernetes-engineer-100-remote-130947756</t>
+          <t>https://www.xing.com/jobs/bremen-kubernetes-engineer-100-remote-130947755</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years and thus enables millions of people to have simple access to digital services. With its FURNF locations, over 150 employees and a steadily growing team, it is their lustful new employer. Flache hierarchies, agile working methods and transparent communication praise the corporate culture, while the employees can individually design their career in a flexible, remote-friendly environment. relies on long -wing experience and an open corporate culture. At the first time my client is looking for a Kubernetes engineer (m/f/d) in 100% remote.
+Advice, conception and implementation of private cloud platforms and specialist applications within container -based technologies
+Close coordination with other specialist departments to ensure the necessary infrastructure
+Overweightening, analysis and improvement of performance and stabilization of the systems
+Operation distributed systems under DevOps principles with a focus on continuous integration and deployment
+Error analysis and correction in containerized environments
+Your qualifications:
+Multi -day professional experience in the Devops environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In -depth experience in the operation of distributed systems
+Very good knowledge of German and English
+This is what our client offers:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Long -term projects with social relevance and strong customer loyalty</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:01</t>
+          <t>2025-06-15 22:33:22</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kubernetes Engineer (m/w/d) in 100% Remote</t>
+          <t>**100**Remote - Devops Engineer (m/w/d) Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4156,29 +5780,46 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/bremen-kubernetes-engineer-100-remote-130947755</t>
+          <t>https://www.xing.com/jobs/berlin-100-remote-devops-engineer-docker-kubernetes-ci-cd-130947234</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years. With its FUNF locations, over 130 employees and a steadily growing team, it is their lavish new employer. Swiss part of a successful company that relies on long -term experience and an open corporate culture. At the first time, my client is looking for a DevOps/IoT Engineer (m/f). This offers our client:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Over 25 years of experience in digitization projects
+Individual hardware
+Your tasks:
+Conception and implementation of IoT platforms using current technologies and methods
+Implementation and administration of distributed systems using DevOps principle
+Foaling and implementation of CI/CD processes " 
+Improvement of the management and processing of data in IoT solutions through the use of diverse database technologies
+Your qualifications:
+Multi -day professional experience as part of the agile development of the Devop/IoT environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In-depth experience in the operation of distributed systems as well as comprehensive knowledge of microservices and DevOps practices
+Specific technological knowledge in the IoT environment (e.g. Kafka, VMware Tanzu etc.) â 
+German C1 and English B2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:05</t>
+          <t>2025-06-15 22:33:31</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>**100**Remote - Devops Engineer (m/w/d) Docker, Kubernetes, CI/CD</t>
+          <t>100% remote Kubernetes Engineer (m/f/d) wanted!</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>München</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4193,17 +5834,34 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/berlin-100-remote-devops-engineer-docker-kubernetes-ci-cd-130947234</t>
+          <t>https://www.xing.com/jobs/muenchen-100-remote-kubernetes-engineer-gesucht-130946713</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Our client is a leading IT advisory and software development company that specializes in mashing solutions for the sector. With innovative solutions and in -depth industry knowledge, they support and institutions to modernize their processes and optimize bute services. Thanks to 150 employees at several locations in Germany, the company actively shaping the digital future of the country. To compensate for the team, we are looking for a Kubernetes administrator (m/f/d) in 100% remote. Â your tasks:
+Administration of private cloud platforms
+Provision of the necessary infrastructure through cooperation with other teams
+Ensuring the operation of specialist applications in container technologies
+Measuring and optimizing performance and stabilization
+Operation and structure of distributed systems using the DevOps approach
+Â your qualifications:
+Experience in the agile development and in the operation of distributed systems and deep compensation for DevOps practices
+Well-founded knowledge of Kubernetes, Docker and CI/CD pipelines' 
+Experience in dealing with open lift and with Javaee Werworthy
+Very good knowledge of German and English
+Â This is what our client offers:
+100% remote work
+flexible working hours
+Individual hardware budget
+Possibility of a jobrad or a company car
+Very good further training opportunities
+"</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:13</t>
+          <t>2025-06-15 22:33:38</t>
         </is>
       </c>
     </row>
@@ -4235,19 +5893,38 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>My client has been developing innovative IT solutions for the sector for 25 years. With its FURNF locations, over 150 employees and a steadily growing team, it is your lavish new employer. Client:
+Permanent position
+Flexible working hours (100% remote)
+Individual training budget
+Modern and agile work environment
+Over 25 years of experience in digitization projects
+Individual hardware
+Your tasks:
+Advice, conception and implementation of private cloud platforms
+Advice, conception and implementation of the operation of specialist applications in container technologies
+Cooperation with other teams for providing the necessary infrastructure
+Measurement, analysis and optimization of performance and stabilizer
+Construction and operation distributed systems using the DevOps approach
+Following of Continous Integration &amp; Deployment processes for an efficient and quick provision of the solutions
+Error analysis and correction in containers environments
+Your qualifications:
+Multi -day professional experience in the Devops Environment
+Knowledge with Docker, Kubernetes and CI/CD pipelines
+In -depth experience in the operation of distributed systems
+German C1 and English B2</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:17</t>
+          <t>2025-06-15 22:33:42</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>100% remote Kubernetes Engineer (m/f/d) wanted!</t>
+          <t>Lead Engineer (Backend) m/f/x (Remote)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4257,7 +5934,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>APRIORI – BUSINESS SOLUTIONS AG</t>
+          <t>simpleclub</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4267,34 +5944,36 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-100-remote-kubernetes-engineer-gesucht-130946713</t>
+          <t>https://www.xing.com/jobs/muenchen-lead-engineer-backend-remote-130040994</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IntroAs one of simpleclubâs Lead Engineers, you will play a key role in building a product and team that will impact the way millions of students experience education and learning. Working closely with our VP of Engineering and our wider technical and product leadership you will help solve for securing the performance, experience and scalability of our product. Through your ownership with the support of your team, you will lead the design of a target architecture, scaleable, whilst implementing strategies to address and mitigate technical debt.Tasks Lead an agile team, continuously developing simpleclubâs products and platform, like our learning management tools, algorithms and reporting systems. You will be actively developing and maintaining code.  Line manage and support the growth of your team members, via feedback, identifying growth path and opportunities and mentorship Working with other leads and engineers to set standards in our architecture, development, delivery and operations to guarantee high velocity and a scalable and reliable system Identify, prioritize, scope, plan and resolve technical debt with your team and in coordination with the Product Manager Actively participate and co-lead the discussions and setting of the product and technical OKRs for your team to drive impact for our customers Work alongside multidisciplinary teams of Product Managers and designers in the research and validation phases Requirements At least 1-2 years of experience as a Lead Engineer and several years as an IC engineer Solid experience in Senior roles, including technical solution designs for complex and large problems Strong skills and experience in our back-end technologies we use: Node.js, Google Cloud Platform, Google Cloud functions, Pub/Sub
+ AI savvy: you already implemented AI into your workflows and features in your previous roles or side projects Excellent communication and interpersonal skills, valuing and fostering teamwork not just within the engineering team; knowledge sharing, sense of ownership embracing agile development practices Ability to work and lead through change and ambiguity whilst inspiring others Experience in developing and maintaining growing/scaling up systems within multi-team setups, that are highly scalable, can be developed fast, are reliable and secure Strong computer science and software development fundamentals, including architecture and database design, data structures and algorithms Strong knowledge and experience with modern system architectures (cloud based, serverless, messaging systems, noSQL and SQL databases, ..) Sound knowledge of the infrastructure architecture and automation (Terraform), large-scale distributed systems and cloud solutions such as Google Cloud Platform Experience leading or contributing to multiple simultaneous product development efforts and initiatives. You have a passion for delivering value to users. Solid knowledge and appreciation of DevOps
+ Benefits Unlimited paid holidays Work from anywhere Team events A great culture Perk Budget Join a purposeful mission  ð°Your salary: We ð transparency. We have different levels within our salary bands, and we use these levels to determine a fair salary for each range. Your salary is reviewed at least once a year. The salary band for this role in Germany is: 82.700 - 111.900 EUR annually gross. If you live outside of Germany, we will adapt to your local market. We have implemented salary bands in all job descriptions to ensure we treat all employees fairly. Once we get to know each other better and understand your skills and experience during the interview process, we will be able to evaluate where you would fit within the salary band. ðsimpleclub welcomes everyone. Yes, everyone:  At simpleclub we are devoted to building an environment that promotes equality, inclusion, and diversity. We are on the path towards expansion and with that, we believe everyoneâs uniqueness should be celebrated and embraced. This is critical to our success and innovation. We want to build a product that is loved by everyone and we want the same to be reflected in our teams.  It is key to us that our employees bring themselves to work no matter what age, ethnicity, religion, citizenship, sexual orientation, disability status, neurodiversity, color of your skin, beliefs, gender, or else.  With this in mind, we are working to ensure simpleclub remains a diverse and inclusive environment for everyone.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:21</t>
+          <t>2025-06-15 22:33:46</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lead Engineer (Backend) m/f/x (Remote)</t>
+          <t>IT Systems Engineer Core (m/w/d)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>München</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>simpleclub</t>
+          <t>noris network AG</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4304,54 +5983,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.xing.com/jobs/muenchen-lead-engineer-backend-remote-130040994</t>
+          <t>https://www.xing.com/jobs/berlin-it-systems-engineer-core-127550483</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Introduction The Noris Network AG offers companies in the areas of IT-Outsourcing, Cloud Services, Network &amp; Security and Datacenter. The technological basis of these services is a powerful IT infrastructure with its own high-performance backbone and several high-security data centers. Since 1993 we have developed into one of the IT specialists with more than 500 employees. All of this would not be possible without a strong team. That is why we value the permanent development and fueling of all employees and are looking for compensation at the locations in NuRnberg, Aschheim, Berlin or Remote (across Germany) after compensation for you? Scalable platforms with a focus on GITLAB, DNS and Observability Strong focus on reliability and automation of the systems. Over Linux (Debian/Redhat), container orchestration (Kubernetes) and network (DNS, routing) Experience in the automation of systems and installations (CI/CD systems, Ansible, etc.) Safe handling of scripts (e.g. Python, Bash) Knowledge in the field of observability (Icinga2, Prometheus, Grafana, etc.) With complex distributed systems (DB cluster, IP-Failover, loadbalancer), an advantage of service-oriented, independent and structured work as well as experience in the use of agile methods such as Kanban in the team very good German and English skills in the word and writing benefits of unlimited employment contract and flexible working hours work at various locations (e.g. Berlin) or 100% remote high-quality equipment: laptop and company mobile phone also for private use. Individual fading and further development through in-house training and external training for childcare allowance (per month/child) and corporate benefit attractive company events, collegial and value-added work environment as well as DUZ culture from the first day of health management (e.g. Free massage), Jobrad leasing and attractive subsidy for the Germany ticket Welcome Day, direct contact (m/f/d) and structured training phase GETÄNKE for free (also soft drinks) and fresh fruit at the locations. Then we look forward to your informative application with specifying your salary performance and the most open entry date.  For your questions about us or the position we will be happy to make you.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-06-15 21:29:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>IT Systems Engineer Core (m/w/d)</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>noris network AG</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>30+ days ago</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://www.xing.com/jobs/berlin-it-systems-engineer-core-127550483</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2025-06-15 21:29:25</t>
+          <t>2025-06-15 22:33:50</t>
         </is>
       </c>
     </row>
